--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{817DBF55-2F95-EA47-B1F7-4A96B5F85453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D83276-B13B-4B58-86B1-AC2D389E6CD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A8C94-8CB0-4929-9566-C337FE5E61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>보증금</t>
   </si>
@@ -751,7 +751,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1158,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="18" t="s">
         <v>45</v>
@@ -1345,12 +1345,8 @@
       <c r="Q11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="V11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="7">
-        <v>10</v>
-      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
       <c r="Y11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1431,7 @@
       </c>
       <c r="W13" s="7">
         <f>SUM(W3:W12)</f>
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>9</v>
@@ -1501,7 +1497,7 @@
       </c>
       <c r="W14" s="7">
         <f>194-W13</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>12</v>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="W18" s="5">
         <f>SUM(W3:W7)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s">
         <v>47</v>
@@ -1601,7 +1597,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1108 14:06</v>
+        <v>1118 11:35</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A8C94-8CB0-4929-9566-C337FE5E61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C39F60-1305-462A-9D13-6448D236BB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
   <si>
     <t>보증금</t>
   </si>
@@ -205,6 +205,26 @@
   </si>
   <si>
     <t>2022_1월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용_리볼빙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한 일시불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한 기본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한 총 요금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저죽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +771,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,13 +943,13 @@
         <v>40</v>
       </c>
       <c r="W3" s="14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF3" s="5" t="s">
         <v>31</v>
@@ -1158,7 +1178,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y7" s="18" t="s">
         <v>45</v>
@@ -1212,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="W8" s="7">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="Y8" s="7" t="s">
         <v>7</v>
@@ -1268,10 +1288,10 @@
         <v>48</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="W9" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>29</v>
@@ -1309,10 +1329,10 @@
         <v>20</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="W10" s="7">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>44</v>
@@ -1345,8 +1365,12 @@
       <c r="Q11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="7">
+        <v>30</v>
+      </c>
       <c r="Y11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1431,14 +1455,14 @@
       </c>
       <c r="W13" s="7">
         <f>SUM(W3:W12)</f>
-        <v>146</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AF13" s="5"/>
     </row>
@@ -1497,14 +1521,14 @@
       </c>
       <c r="W14" s="7">
         <f>194-W13</f>
-        <v>48</v>
+        <v>40.699999999999989</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AF14" s="5"/>
     </row>
@@ -1518,6 +1542,13 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="5">
+        <f>SUM($W$4:$W$6)</f>
+        <v>19</v>
+      </c>
       <c r="AF16" s="13" t="s">
         <v>36</v>
       </c>
@@ -1526,6 +1557,13 @@
       </c>
     </row>
     <row r="17" spans="19:33" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>52</v>
+      </c>
+      <c r="W17" s="5">
+        <f>42-19</f>
+        <v>23</v>
+      </c>
       <c r="AF17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1543,18 +1581,11 @@
         <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="W18" s="5">
-        <f>SUM(W3:W7)</f>
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>SUM(Z3:Z7)</f>
-        <v>37</v>
+        <f>SUM(W3:W8)</f>
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1628,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1118 11:35</v>
+        <v>1122 11:52</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C39F60-1305-462A-9D13-6448D236BB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D5243-B491-425E-A186-8DF768F12D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>보증금</t>
   </si>
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>신용_기본료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -771,7 +767,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,11 +828,11 @@
       </c>
       <c r="T1" s="20"/>
       <c r="V1" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W1" s="20"/>
       <c r="Y1" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="20"/>
     </row>
@@ -1184,7 +1180,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>33</v>
@@ -1232,16 +1228,16 @@
         <v>5</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="7">
         <v>7.3</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="7">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>38</v>
@@ -1294,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="Z9" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="5"/>
     </row>
@@ -1323,7 +1319,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="S10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T10" s="9">
         <v>20</v>
@@ -1335,10 +1331,10 @@
         <v>45</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Z10" s="7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF10" s="5"/>
     </row>
@@ -1366,16 +1362,16 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="V11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" s="7">
         <v>30</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z11" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF11" s="5"/>
     </row>
@@ -1462,7 +1458,7 @@
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>154</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="AF13" s="5"/>
     </row>
@@ -1528,7 +1524,7 @@
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>40</v>
+        <v>52.699999999999989</v>
       </c>
       <c r="AF14" s="5"/>
     </row>
@@ -1543,10 +1539,17 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="V16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" s="5">
-        <f>SUM($W$4:$W$6)</f>
+        <f>SUM(W4:W6)</f>
+        <v>19</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z16" s="5">
+        <f>SUM(Z4:Z6)</f>
         <v>19</v>
       </c>
       <c r="AF16" s="13" t="s">
@@ -1558,12 +1561,15 @@
     </row>
     <row r="17" spans="19:33" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W17" s="5">
         <f>42-19</f>
         <v>23</v>
       </c>
+      <c r="Y17" t="s">
+        <v>51</v>
+      </c>
       <c r="AF17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1574,18 +1580,25 @@
     </row>
     <row r="18" spans="19:33" x14ac:dyDescent="0.3">
       <c r="S18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T18" s="5">
         <f>SUM(T3:T7)</f>
         <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W18" s="5">
         <f>SUM(W3:W8)</f>
         <v>73.3</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>SUM(Z3:Z8)</f>
+        <v>41.3</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1641,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1122 11:52</v>
+        <v>1122 12:22</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D5243-B491-425E-A186-8DF768F12D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138A044-0EAA-4A67-9183-C7101C9BAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
   <si>
     <t>보증금</t>
   </si>
@@ -217,10 +217,6 @@
   </si>
   <si>
     <t>신한 총 요금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저죽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +763,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1170,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="18" t="s">
         <v>45</v>
@@ -1362,10 +1358,10 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="V11" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W11" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>44</v>
@@ -1591,7 +1587,7 @@
       </c>
       <c r="W18" s="5">
         <f>SUM(W3:W8)</f>
-        <v>73.3</v>
+        <v>87.3</v>
       </c>
       <c r="Y18" t="s">
         <v>53</v>
@@ -1641,7 +1637,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1122 12:22</v>
+        <v>1126 11:09</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138A044-0EAA-4A67-9183-C7101C9BAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91433A-6C3F-4BC7-83DD-6B4E1E026DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,6 +1234,9 @@
       </c>
       <c r="Z8" s="7">
         <v>7.3</v>
+      </c>
+      <c r="AB8">
+        <v>123</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>38</v>
@@ -1637,7 +1640,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1126 11:09</v>
+        <v>1126 22:42</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongjin-yeong/Desktop/JungJinYeong/JinYeong_GitHub/0. 기타 폴더/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91433A-6C3F-4BC7-83DD-6B4E1E026DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2FCB5-7887-304E-9E91-1ABFABDD9F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>보증금</t>
   </si>
@@ -217,6 +217,50 @@
   </si>
   <si>
     <t>신한 총 요금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매트리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수육 장보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나고 간식 및 유산균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개 재료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허니브래드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,41 +804,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FA3CC-0FF4-8D48-B65F-45754DAD7FB5}">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="AE23" sqref="AE23:AH32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="9.5" style="1"/>
     <col min="3" max="3" width="2" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.5" style="1"/>
     <col min="6" max="6" width="2" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1"/>
-    <col min="9" max="9" width="2.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="1"/>
     <col min="15" max="15" width="2" style="2" customWidth="1"/>
     <col min="16" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="5"/>
+    <col min="17" max="17" width="8.83203125" style="5"/>
     <col min="18" max="18" width="2" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -832,7 +876,7 @@
       </c>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -888,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -950,7 +994,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1057,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1114,7 @@
       </c>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1171,7 @@
       </c>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1214,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="18" t="s">
         <v>45</v>
@@ -1188,7 +1232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1340,7 @@
       </c>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1381,7 @@
       </c>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1408,7 @@
         <v>44</v>
       </c>
       <c r="W11" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>44</v>
@@ -1374,7 +1418,7 @@
       </c>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="D12" s="7"/>
@@ -1395,7 +1439,7 @@
       <c r="Z12" s="7"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +1494,7 @@
       </c>
       <c r="W13" s="7">
         <f>SUM(W3:W12)</f>
-        <v>153.30000000000001</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>9</v>
@@ -1461,7 +1505,7 @@
       </c>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1560,7 @@
       </c>
       <c r="W14" s="7">
         <f>194-W13</f>
-        <v>40.699999999999989</v>
+        <v>39.699999999999989</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>12</v>
@@ -1527,7 +1571,7 @@
       </c>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36">
       <c r="AF15" s="13" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="V16" t="s">
         <v>52</v>
       </c>
@@ -1558,7 +1602,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="19:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:34">
       <c r="V17" t="s">
         <v>51</v>
       </c>
@@ -1577,7 +1621,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="19:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:34">
       <c r="S18" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +1634,7 @@
       </c>
       <c r="W18" s="5">
         <f>SUM(W3:W8)</f>
-        <v>87.3</v>
+        <v>84.3</v>
       </c>
       <c r="Y18" t="s">
         <v>53</v>
@@ -1598,6 +1642,102 @@
       <c r="Z18" s="5">
         <f>SUM(Z3:Z8)</f>
         <v>41.3</v>
+      </c>
+    </row>
+    <row r="23" spans="19:34">
+      <c r="AF23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="19:34">
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24">
+        <v>75000</v>
+      </c>
+      <c r="AG24">
+        <v>12000</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="19:34">
+      <c r="AE25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG25">
+        <v>20000</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="19:34">
+      <c r="AE26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF26">
+        <v>3000</v>
+      </c>
+      <c r="AG26">
+        <v>50000</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="19:34">
+      <c r="AE27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF27">
+        <v>13500</v>
+      </c>
+      <c r="AG27">
+        <v>11500</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="19:34">
+      <c r="AG28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="19:34">
+      <c r="AG29">
+        <v>4000</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="19:34">
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30">
+        <f>SUM(AF24:AF29)</f>
+        <v>91500</v>
+      </c>
+      <c r="AG30">
+        <f>SUM(AG24:AG29)</f>
+        <v>107500</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="19:34">
+      <c r="AF32">
+        <f>AG30-AF30</f>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
@@ -1626,24 +1766,24 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1126 22:42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1204 14:57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1687,7 +1827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
@@ -1710,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1733,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1756,7 +1896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1779,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1793,7 +1933,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1807,7 +1947,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1821,7 +1961,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1835,7 +1975,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <f>ROW()-2</f>
         <v>10</v>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongjin-yeong/Desktop/JungJinYeong/JinYeong_GitHub/0. 기타 폴더/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2FCB5-7887-304E-9E91-1ABFABDD9F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CA92E-1EDC-4AC1-A776-521500045CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>보증금</t>
   </si>
@@ -261,6 +261,14 @@
   </si>
   <si>
     <t>허니브래드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나고 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진하 입금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,38 +815,38 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23:AH32"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.5" style="1"/>
     <col min="3" max="3" width="2" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.5" style="1"/>
     <col min="6" max="6" width="2" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1"/>
-    <col min="9" max="9" width="2.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="1"/>
     <col min="15" max="15" width="2" style="2" customWidth="1"/>
     <col min="16" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="5"/>
+    <col min="17" max="17" width="8.875" style="5"/>
     <col min="18" max="18" width="2" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -876,7 +884,7 @@
       </c>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -932,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1122,7 @@
       </c>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1179,7 @@
       </c>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>33</v>
@@ -1232,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1348,7 @@
       </c>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1371,17 +1379,17 @@
         <v>29</v>
       </c>
       <c r="W10" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Z10" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1405,10 +1413,10 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="V11" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="W11" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="7" t="s">
         <v>44</v>
@@ -1418,7 +1426,7 @@
       </c>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="D12" s="7"/>
@@ -1433,13 +1441,17 @@
       <c r="Q12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="7">
+        <v>12</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1494,18 +1506,18 @@
       </c>
       <c r="W13" s="7">
         <f>SUM(W3:W12)</f>
-        <v>154.30000000000001</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="Y13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>141.30000000000001</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1560,18 +1572,25 @@
       </c>
       <c r="W14" s="7">
         <f>194-W13</f>
-        <v>39.699999999999989</v>
+        <v>42.699999999999989</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>52.699999999999989</v>
+        <v>46.699999999999989</v>
       </c>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="5">
+        <f>SUM(W4:W6)</f>
+        <v>19</v>
+      </c>
       <c r="AF15" s="13" t="s">
         <v>34</v>
       </c>
@@ -1580,13 +1599,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="V16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W16" s="5">
-        <f>SUM(W4:W6)</f>
-        <v>19</v>
+        <f>42-19</f>
+        <v>23</v>
       </c>
       <c r="Y16" t="s">
         <v>52</v>
@@ -1602,13 +1621,13 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="19:34">
+    <row r="17" spans="19:34" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W17" s="5">
-        <f>42-19</f>
-        <v>23</v>
+        <f>SUM(W3:W8)</f>
+        <v>84.3</v>
       </c>
       <c r="Y17" t="s">
         <v>51</v>
@@ -1621,7 +1640,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="19:34">
+    <row r="18" spans="19:34" x14ac:dyDescent="0.3">
       <c r="S18" t="s">
         <v>46</v>
       </c>
@@ -1629,22 +1648,15 @@
         <f>SUM(T3:T7)</f>
         <v>85</v>
       </c>
-      <c r="V18" t="s">
-        <v>53</v>
-      </c>
-      <c r="W18" s="5">
-        <f>SUM(W3:W8)</f>
-        <v>84.3</v>
-      </c>
       <c r="Y18" t="s">
         <v>53</v>
       </c>
       <c r="Z18" s="5">
         <f>SUM(Z3:Z8)</f>
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="23" spans="19:34">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="23" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AF23" t="s">
         <v>54</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="19:34">
+    <row r="24" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AE24" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="19:34">
+    <row r="25" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AE25" t="s">
         <v>59</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="19:34">
+    <row r="26" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AE26" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="19:34">
+    <row r="27" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AE27" t="s">
         <v>63</v>
       </c>
@@ -1705,12 +1717,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="19:34">
+    <row r="28" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AG28">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="19:34">
+    <row r="29" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AG29">
         <v>4000</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="19:34">
+    <row r="30" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AE30" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="19:34">
+    <row r="32" spans="19:34" x14ac:dyDescent="0.3">
       <c r="AF32">
         <f>AG30-AF30</f>
         <v>16000</v>
@@ -1766,24 +1778,24 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1204 14:57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+        <v>1206 11:29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1827,7 +1839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
@@ -1850,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1873,7 +1885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1896,7 +1908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1919,7 +1931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1933,7 +1945,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1947,7 +1959,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1961,7 +1973,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1975,7 +1987,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROW()-2</f>
         <v>10</v>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CA92E-1EDC-4AC1-A776-521500045CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED795BCF-5C00-4B6B-922D-C08A231F3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
   <si>
     <t>보증금</t>
   </si>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>진하 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_2월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_3월 지출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +498,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FA3CC-0FF4-8D48-B65F-45754DAD7FB5}">
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,47 +855,61 @@
     <col min="24" max="24" width="2" style="2" customWidth="1"/>
     <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2" style="2" customWidth="1"/>
+    <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="K1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="P1" s="20" t="s">
+      <c r="N1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="Q1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="V1" s="20" t="s">
+      <c r="T1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="Y1" s="20" t="s">
+      <c r="W1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="Z1" s="21"/>
+      <c r="AB1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="21"/>
+      <c r="AE1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -939,8 +964,20 @@
       <c r="Z2" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -995,14 +1032,26 @@
       <c r="Z3" s="14">
         <v>15</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AB3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>15</v>
+      </c>
+      <c r="AI3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1057,15 +1106,27 @@
       <c r="Z4" s="15">
         <v>10</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AB4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="12">
-        <f>AG3-100</f>
+      <c r="AJ4" s="12">
+        <f>AJ3-100</f>
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1120,9 +1181,21 @@
       <c r="Z5" s="16">
         <v>6</v>
       </c>
-      <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1177,9 +1250,21 @@
       <c r="Z6" s="17">
         <v>3</v>
       </c>
-      <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -1228,19 +1313,31 @@
         <v>45</v>
       </c>
       <c r="Z7" s="18">
-        <v>11</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG7">
         <v>20</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>0</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1285,25 +1382,34 @@
         <v>50</v>
       </c>
       <c r="Z8" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="AB8">
-        <v>123</v>
-      </c>
-      <c r="AF8" s="5" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AG8">
+      <c r="AJ8">
         <v>39</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AL8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1346,9 +1452,21 @@
       <c r="Z9" s="7">
         <v>5</v>
       </c>
-      <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1387,9 +1505,21 @@
       <c r="Z10" s="7">
         <v>40</v>
       </c>
-      <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1424,9 +1554,17 @@
       <c r="Z11" s="7">
         <v>50</v>
       </c>
-      <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>60</v>
+      </c>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AI11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="D12" s="7"/>
@@ -1449,9 +1587,13 @@
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1513,11 +1655,25 @@
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>147.30000000000001</v>
-      </c>
-      <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="7">
+        <f>SUM(AC3:AC12)</f>
+        <v>144.30000000000001</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="7">
+        <f>SUM(AF3:AF11)</f>
+        <v>139</v>
+      </c>
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1579,11 +1735,25 @@
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>46.699999999999989</v>
-      </c>
-      <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+        <v>39.699999999999989</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="7">
+        <f>194-AC13</f>
+        <v>49.699999999999989</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="7">
+        <f>194-AF13</f>
+        <v>55</v>
+      </c>
+      <c r="AI14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="V15" t="s">
         <v>52</v>
       </c>
@@ -1591,15 +1761,15 @@
         <f>SUM(W4:W6)</f>
         <v>19</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AI15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AG15" s="12">
-        <f>SUM(AG7:AG14)</f>
+      <c r="AJ15" s="12">
+        <f>SUM(AJ7:AJ14)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="V16" t="s">
         <v>51</v>
       </c>
@@ -1614,14 +1784,28 @@
         <f>SUM(Z4:Z6)</f>
         <v>19</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AB16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>SUM(AC4:AC6)</f>
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF16" s="5">
+        <f>SUM(AF4:AF6)</f>
+        <v>19</v>
+      </c>
+      <c r="AI16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AJ16" s="12">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="19:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:37" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
         <v>53</v>
       </c>
@@ -1632,15 +1816,21 @@
       <c r="Y17" t="s">
         <v>51</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AB17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AG17">
-        <f>(AG4+AG15)-AG16</f>
+      <c r="AJ17">
+        <f>(AJ4+AJ15)-AJ16</f>
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="19:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:37" x14ac:dyDescent="0.3">
       <c r="S18" t="s">
         <v>46</v>
       </c>
@@ -1653,107 +1843,123 @@
       </c>
       <c r="Z18" s="5">
         <f>SUM(Z3:Z8)</f>
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="23" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AF23" t="s">
+        <v>59.3</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>SUM(AC3:AC8)</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>SUM(AF3:AF7)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AI23" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AJ23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AE24" t="s">
+    <row r="24" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AH24" t="s">
         <v>56</v>
       </c>
-      <c r="AF24">
+      <c r="AI24">
         <v>75000</v>
       </c>
-      <c r="AG24">
+      <c r="AJ24">
         <v>12000</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AK24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AE25" t="s">
+    <row r="25" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AH25" t="s">
         <v>59</v>
       </c>
-      <c r="AG25">
+      <c r="AJ25">
         <v>20000</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AK25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AE26" t="s">
+    <row r="26" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AH26" t="s">
         <v>64</v>
       </c>
-      <c r="AF26">
+      <c r="AI26">
         <v>3000</v>
       </c>
-      <c r="AG26">
+      <c r="AJ26">
         <v>50000</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AK26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AE27" t="s">
+    <row r="27" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AH27" t="s">
         <v>63</v>
       </c>
-      <c r="AF27">
+      <c r="AI27">
         <v>13500</v>
       </c>
-      <c r="AG27">
+      <c r="AJ27">
         <v>11500</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AK27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AG28">
+    <row r="28" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AJ28">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AG29">
+    <row r="29" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AJ29">
         <v>4000</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AK29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AE30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF30">
-        <f>SUM(AF24:AF29)</f>
-        <v>91500</v>
-      </c>
-      <c r="AG30">
-        <f>SUM(AG24:AG29)</f>
-        <v>107500</v>
-      </c>
+    <row r="30" spans="19:37" x14ac:dyDescent="0.3">
       <c r="AH30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="19:34" x14ac:dyDescent="0.3">
-      <c r="AF32">
-        <f>AG30-AF30</f>
+      <c r="AI30">
+        <f>SUM(AI24:AI29)</f>
+        <v>91500</v>
+      </c>
+      <c r="AJ30">
+        <f>SUM(AJ24:AJ29)</f>
+        <v>107500</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="19:37" x14ac:dyDescent="0.3">
+      <c r="AI32">
+        <f>AJ30-AI30</f>
         <v>16000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="S1:T1"/>
@@ -1792,7 +1998,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1206 11:29</v>
+        <v>1209 12:39</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1821,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP('지출 목록'!A3,'지출 목록'!A3:BI92,1,0)</f>
+        <f>VLOOKUP('지출 목록'!A3,'지출 목록'!A3:BL92,1,0)</f>
         <v>보증금</v>
       </c>
       <c r="C3" s="5" t="str">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED795BCF-5C00-4B6B-922D-C08A231F3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1ABA24-EC68-4B07-9E4D-E70F9188439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="Z3" s="14">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>40</v>
@@ -1313,7 +1313,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="18" t="s">
         <v>45</v>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>154.30000000000001</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>9</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>39.699999999999989</v>
+        <v>31.699999999999989</v>
       </c>
       <c r="AB14" s="7" t="s">
         <v>12</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="Z18" s="5">
         <f>SUM(Z3:Z8)</f>
-        <v>59.3</v>
+        <v>67.3</v>
       </c>
       <c r="AB18" t="s">
         <v>53</v>
@@ -1958,17 +1958,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,7 +1998,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1209 12:39</v>
+        <v>1211 19:21</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1ABA24-EC68-4B07-9E4D-E70F9188439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56B39A-728B-4A52-AE6B-AF38B2C1EBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="지출 목록" sheetId="1" r:id="rId1"/>
-    <sheet name="지출 기록" sheetId="2" r:id="rId2"/>
+    <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
+    <sheet name="저축 기록" sheetId="5" r:id="rId2"/>
+    <sheet name="지출 기록" sheetId="2" r:id="rId3"/>
+    <sheet name="(구)지출 목록" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
   <si>
     <t>보증금</t>
   </si>
@@ -277,6 +279,114 @@
   </si>
   <si>
     <t>2022_3월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 보험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 지출 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용 카드 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼빙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용 총합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 총합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_4월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시불 기본계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_5월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_6월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족한 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 남은 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채워야할 금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +425,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +632,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,11 +976,1708 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.625" customWidth="1"/>
+    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" customWidth="1"/>
+    <col min="24" max="24" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="2" customWidth="1"/>
+    <col min="26" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" customWidth="1"/>
+    <col min="29" max="29" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="P1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="U1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Z1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7">
+        <v>40</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7">
+        <v>25</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="7">
+        <v>40</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="7">
+        <v>25</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="7">
+        <v>40</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>40</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="7">
+        <v>40</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="7">
+        <v>10</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
+        <v>20</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7">
+        <v>40</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="7">
+        <v>45</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>55</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="7">
+        <v>6</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="7">
+        <v>55</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="7">
+        <v>15</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>15</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="7">
+        <v>2</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="7">
+        <v>15</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="7">
+        <v>5</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="7">
+        <v>5</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7">
+        <f>51-D9</f>
+        <v>33</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(D4:D6)</f>
+        <v>18</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="7">
+        <f>SUM(I4:I6)</f>
+        <v>18</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="7">
+        <f>SUM(N4:N6)</f>
+        <v>18</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="7">
+        <f>SUM(S4:S6)</f>
+        <v>18</v>
+      </c>
+      <c r="U9" s="28"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" s="7">
+        <f>SUM(X4:X6)</f>
+        <v>18</v>
+      </c>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC9" s="7">
+        <f>SUM(AC4:AC6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="7">
+        <f>SUM(B3:B9)</f>
+        <v>97.100000000000009</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(D3:D8)</f>
+        <v>81</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(G3:G9)</f>
+        <v>117.10000000000001</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7">
+        <f>SUM(I3:I8)</f>
+        <v>48</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="7">
+        <f>SUM(L3:L9)</f>
+        <v>122.10000000000001</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="7">
+        <f>SUM(N3:N8)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>SUM(Q3:Q9)</f>
+        <v>132.1</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="7">
+        <f>SUM(S3:S8)</f>
+        <v>30.8</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="7">
+        <f>SUM(V3:V9)</f>
+        <v>132.1</v>
+      </c>
+      <c r="W10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="7">
+        <f>SUM(X3:X8)</f>
+        <v>30.8</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>SUM(AA3:AA9)</f>
+        <v>137.1</v>
+      </c>
+      <c r="AB10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>SUM(AC3:AC8)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24">
+        <f>SUM(D10,B10)</f>
+        <v>178.10000000000002</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="F11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24">
+        <f>SUM(I10,G10)</f>
+        <v>165.10000000000002</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="K11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24">
+        <f>SUM(N10,L10)</f>
+        <v>162.80000000000001</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="P11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="24">
+        <f>SUM(S10,Q10)</f>
+        <v>162.9</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="U11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="26"/>
+      <c r="W11" s="24">
+        <f>SUM(X10,V10)</f>
+        <v>162.9</v>
+      </c>
+      <c r="X11" s="24"/>
+      <c r="Z11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="24">
+        <f>SUM(AC10,AA10)</f>
+        <v>160.1</v>
+      </c>
+      <c r="AC11" s="24"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24">
+        <f>196-C11</f>
+        <v>17.899999999999977</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="F12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="24">
+        <f>196-H11</f>
+        <v>30.899999999999977</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="K12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24">
+        <f>196-M11</f>
+        <v>33.199999999999989</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="P12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="24">
+        <f>196-R11</f>
+        <v>33.099999999999994</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="U12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="27"/>
+      <c r="W12" s="24">
+        <f>196-W11</f>
+        <v>33.099999999999994</v>
+      </c>
+      <c r="X12" s="24"/>
+      <c r="Z12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="24">
+        <f>196-AB11</f>
+        <v>35.900000000000006</v>
+      </c>
+      <c r="AC12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Z1:AC1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D9:G9 I9:L9 N9:Q9 S9" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA26D38-3719-480A-B836-26E5467B0775}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="G1" t="str">
+        <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
+        <v>1227 17:54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3-50</f>
+        <v>-30</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3</f>
+        <v>-30</v>
+      </c>
+      <c r="E3" s="5">
+        <f>B3</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <f>1200-B3</f>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A25" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>IF(0&lt; B4,B4-50,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f>IF(0&lt;B4,D3+C4,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>IF(0&lt;B4,SUM(E3,B4),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(0&lt;B4,F3-B4,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" ref="C5:C25" si="1">IF(0&lt; B5,B5-50,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" ref="D5:D12" si="2">IF(0&lt;B5,D4+C5,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E12" si="3">IF(0&lt;B5,SUM(E4,B5),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" ref="F5:F12" si="4">IF(0&lt;B5,F4-B5,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" ref="D13:D25" si="5">IF(0&lt;B13,D12+C13,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" ref="E13:E25" si="6">IF(0&lt;B13,SUM(E12,B13),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" ref="F13:F25" si="7">IF(0&lt;B13,F12-B13,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F67C84-A2BC-FF44-B6AF-8580113D870D}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="3"/>
+      <c r="F1" t="str">
+        <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
+        <v>1227 17:54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP('(구)지출 목록'!A3,'(구)지출 목록'!A3:BL92,1,0)</f>
+        <v>보증금</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>IF(B3="보증금","정재진","-")</f>
+        <v>정재진</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <f>IF(0&lt;D3,500-D3,"-")</f>
+        <v>470</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" ref="C4:C12" si="1">IF(B4="보증금","정재진","-")</f>
+        <v>정재진</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <f>IF(0&lt;D4,E3-D4,"-")</f>
+        <v>410</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>정재진</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E12" si="2">IF(0&lt;D5,E4-D5,"-")</f>
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>정재진</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>정재진</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FA3CC-0FF4-8D48-B65F-45754DAD7FB5}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,50 +2715,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="22"/>
+      <c r="P1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="Q1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="T1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="W1" s="22"/>
+      <c r="Y1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AE1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="21"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -1030,19 +2881,19 @@
         <v>40</v>
       </c>
       <c r="Z3" s="14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AC3" s="14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AF3" s="14">
-        <v>15</v>
+        <v>17.7</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>31</v>
@@ -1313,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="18">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AB7" s="18" t="s">
         <v>45</v>
@@ -1325,7 +3176,7 @@
         <v>45</v>
       </c>
       <c r="AF7" s="18">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>33</v>
@@ -1450,13 +3301,13 @@
         <v>7</v>
       </c>
       <c r="Z9" s="7">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="AB9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC9" s="7">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="AE9" s="7" t="s">
         <v>29</v>
@@ -1552,7 +3403,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>44</v>
@@ -1560,8 +3411,12 @@
       <c r="AC11" s="7">
         <v>60</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AE11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>15</v>
+      </c>
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
@@ -1585,10 +3440,18 @@
       <c r="W12" s="7">
         <v>12</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
+      <c r="Y12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>15</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AI12" s="5"/>
@@ -1655,21 +3518,21 @@
       </c>
       <c r="Z13" s="7">
         <f>SUM(Z3:Z12)</f>
-        <v>162.30000000000001</v>
+        <v>164</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AC13" s="7">
         <f>SUM(AC3:AC12)</f>
-        <v>144.30000000000001</v>
+        <v>172</v>
       </c>
       <c r="AE13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AF13" s="7">
         <f>SUM(AF3:AF11)</f>
-        <v>139</v>
+        <v>164.4</v>
       </c>
       <c r="AI13" s="5"/>
     </row>
@@ -1735,21 +3598,21 @@
       </c>
       <c r="Z14" s="7">
         <f>194-Z13</f>
-        <v>31.699999999999989</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AC14" s="7">
         <f>194-AC13</f>
-        <v>49.699999999999989</v>
+        <v>22</v>
       </c>
       <c r="AE14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AF14" s="7">
         <f>194-AF13</f>
-        <v>55</v>
+        <v>29.599999999999994</v>
       </c>
       <c r="AI14" s="5"/>
     </row>
@@ -1761,6 +3624,27 @@
         <f>SUM(W4:W6)</f>
         <v>19</v>
       </c>
+      <c r="Y15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="5">
+        <f>SUM(Z4:Z6)</f>
+        <v>19</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>SUM(AC4:AC6)</f>
+        <v>19</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF15" s="5">
+        <f>SUM(AF4:AF6)</f>
+        <v>19</v>
+      </c>
       <c r="AI15" s="13" t="s">
         <v>34</v>
       </c>
@@ -1778,25 +3662,25 @@
         <v>23</v>
       </c>
       <c r="Y16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z16" s="5">
-        <f>SUM(Z4:Z6)</f>
-        <v>19</v>
+        <f>50-19</f>
+        <v>31</v>
       </c>
       <c r="AB16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC16" s="5">
-        <f>SUM(AC4:AC6)</f>
-        <v>19</v>
+        <f>50-19</f>
+        <v>31</v>
       </c>
       <c r="AE16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF16" s="5">
-        <f>SUM(AF4:AF6)</f>
-        <v>19</v>
+        <f>50-19</f>
+        <v>31</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>36</v>
@@ -1814,13 +3698,25 @@
         <v>84.3</v>
       </c>
       <c r="Y17" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="Z17" s="5">
+        <f>SUM(Z3:Z8)</f>
+        <v>81.3</v>
       </c>
       <c r="AB17" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="AC17" s="5">
+        <f>SUM(AC3:AC8)</f>
+        <v>49.3</v>
       </c>
       <c r="AE17" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="AF17" s="5">
+        <f>SUM(AF3:AF8)</f>
+        <v>49.400000000000006</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>37</v>
@@ -1837,27 +3733,6 @@
       <c r="T18" s="5">
         <f>SUM(T3:T7)</f>
         <v>85</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>SUM(Z3:Z8)</f>
-        <v>67.3</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC18" s="5">
-        <f>SUM(AC3:AC8)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>SUM(AF3:AF7)</f>
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="19:37" x14ac:dyDescent="0.3">
@@ -1974,242 +3849,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F67C84-A2BC-FF44-B6AF-8580113D870D}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="3"/>
-      <c r="F1" t="str">
-        <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1211 19:21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP('지출 목록'!A3,'지출 목록'!A3:BL92,1,0)</f>
-        <v>보증금</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f>IF(B3="보증금","정재진","-")</f>
-        <v>정재진</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4">
-        <f>IF(0&lt;D3,500-D3,"-")</f>
-        <v>470</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" ref="C4:C12" si="1">IF(B4="보증금","정재진","-")</f>
-        <v>정재진</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4">
-        <f>IF(0&lt;D4,E3-D4,"-")</f>
-        <v>410</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>정재진</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E12" si="2">IF(0&lt;D5,E4-D5,"-")</f>
-        <v>350</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>정재진</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>정재진</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>ROW()-2</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56B39A-728B-4A52-AE6B-AF38B2C1EBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3344C-F2E3-44DE-81A8-EEB20B9CF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="105">
   <si>
     <t>보증금</t>
   </si>
@@ -387,6 +387,35 @@
   </si>
   <si>
     <t>채워야할 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>6월</t>
+  </si>
+  <si>
+    <t>7월</t>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>이펙트 과외비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,19 +665,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -657,11 +677,23 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1017,119 +1049,119 @@
     <col min="30" max="30" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="P1" s="29" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="29" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Z1" s="29" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Z1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -1202,8 +1234,14 @@
       <c r="AC3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>73</v>
       </c>
@@ -1276,8 +1314,14 @@
       <c r="AC4" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>44</v>
       </c>
@@ -1291,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>77</v>
@@ -1303,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>77</v>
@@ -1318,7 +1362,7 @@
         <v>44</v>
       </c>
       <c r="Q5" s="7">
-        <v>55</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>77</v>
@@ -1330,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="V5" s="7">
-        <v>55</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>77</v>
@@ -1342,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="AA5" s="7">
-        <v>60</v>
+        <v>25.9</v>
       </c>
       <c r="AB5" s="21" t="s">
         <v>77</v>
@@ -1350,8 +1394,14 @@
       <c r="AC5" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -1365,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>78</v>
@@ -1377,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L6" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>78</v>
@@ -1424,8 +1474,14 @@
       <c r="AC6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -1439,10 +1495,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>80</v>
@@ -1451,16 +1507,16 @@
         <v>5</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>65</v>
@@ -1472,7 +1528,7 @@
         <v>80</v>
       </c>
       <c r="S7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>65</v>
@@ -1484,7 +1540,7 @@
         <v>80</v>
       </c>
       <c r="X7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>65</v>
@@ -1496,10 +1552,16 @@
         <v>80</v>
       </c>
       <c r="AC7" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
@@ -1513,23 +1575,24 @@
         <f>51-D9</f>
         <v>33</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="7">
-        <v>9.4</v>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="23">
+        <v>30</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="7">
-        <v>9.4</v>
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="23">
+        <v>45</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>79</v>
@@ -1573,260 +1636,304 @@
       <c r="AC8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="AF8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="7">
         <f>SUM(D4:D6)</f>
         <v>18</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I9" s="7">
         <f>SUM(I4:I6)</f>
         <v>18</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="25" t="s">
+      <c r="K9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="23">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="N9" s="7">
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="25" t="s">
+      <c r="P9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>45</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="S9" s="7">
         <f>SUM(S4:S6)</f>
         <v>18</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="25" t="s">
+      <c r="U9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" s="23">
+        <v>45</v>
+      </c>
+      <c r="W9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="X9" s="7">
         <f>SUM(X4:X6)</f>
         <v>18</v>
       </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="25" t="s">
+      <c r="Z9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="AC9" s="7">
         <f>SUM(AC4:AC6)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="AF9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="7">
         <f>SUM(B3:B9)</f>
         <v>97.100000000000009</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="7">
         <f>SUM(D3:D8)</f>
         <v>81</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="7">
-        <f>SUM(G3:G9)</f>
-        <v>117.10000000000001</v>
-      </c>
-      <c r="H10" s="25" t="s">
+        <f>SUM(G3:G8)</f>
+        <v>107.10000000000001</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="7">
         <f>SUM(I3:I8)</f>
-        <v>48</v>
-      </c>
-      <c r="K10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="7">
         <f>SUM(L3:L9)</f>
-        <v>122.10000000000001</v>
-      </c>
-      <c r="M10" s="25" t="s">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="N10" s="7">
         <f>SUM(N3:N8)</f>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="P10" s="25" t="s">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7">
         <f>SUM(Q3:Q9)</f>
-        <v>132.1</v>
-      </c>
-      <c r="R10" s="25" t="s">
+        <v>140.20000000000002</v>
+      </c>
+      <c r="R10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>30.8</v>
-      </c>
-      <c r="U10" s="25" t="s">
+        <v>25.8</v>
+      </c>
+      <c r="U10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="V10" s="7">
         <f>SUM(V3:V9)</f>
-        <v>132.1</v>
-      </c>
-      <c r="W10" s="25" t="s">
+        <v>140.20000000000002</v>
+      </c>
+      <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>30.8</v>
-      </c>
-      <c r="Z10" s="25" t="s">
+        <v>25.8</v>
+      </c>
+      <c r="Z10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>137.1</v>
-      </c>
-      <c r="AB10" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AC10" s="7">
         <f>SUM(AC3:AC8)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="30"/>
+      <c r="F11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
         <f>SUM(I10,G10)</f>
-        <v>165.10000000000002</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="K11" s="26" t="s">
+        <v>169.10000000000002</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="K11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="24">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30">
         <f>SUM(N10,L10)</f>
-        <v>162.80000000000001</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="P11" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="P11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="24">
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30">
         <f>SUM(S10,Q10)</f>
-        <v>162.9</v>
-      </c>
-      <c r="S11" s="24"/>
-      <c r="U11" s="26" t="s">
+        <v>166.00000000000003</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="U11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="24">
+      <c r="V11" s="29"/>
+      <c r="W11" s="30">
         <f>SUM(X10,V10)</f>
-        <v>162.9</v>
-      </c>
-      <c r="X11" s="24"/>
-      <c r="Z11" s="26" t="s">
+        <v>166.00000000000003</v>
+      </c>
+      <c r="X11" s="30"/>
+      <c r="Z11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="24">
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="30">
         <f>SUM(AC10,AA10)</f>
-        <v>160.1</v>
-      </c>
-      <c r="AC11" s="24"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC11" s="30"/>
+      <c r="AG11">
+        <f>SUM(AG3:AG10)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24">
+      <c r="B12" s="31"/>
+      <c r="C12" s="30">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="F12" s="27" t="s">
+      <c r="D12" s="30"/>
+      <c r="F12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="24">
+      <c r="G12" s="31"/>
+      <c r="H12" s="30">
         <f>196-H11</f>
-        <v>30.899999999999977</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="K12" s="27" t="s">
+        <v>26.899999999999977</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="K12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="24">
+      <c r="L12" s="31"/>
+      <c r="M12" s="30">
         <f>196-M11</f>
-        <v>33.199999999999989</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="P12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="P12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="24">
+      <c r="Q12" s="31"/>
+      <c r="R12" s="30">
         <f>196-R11</f>
-        <v>33.099999999999994</v>
-      </c>
-      <c r="S12" s="24"/>
-      <c r="U12" s="27" t="s">
+        <v>29.999999999999972</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="U12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="27"/>
-      <c r="W12" s="24">
+      <c r="V12" s="31"/>
+      <c r="W12" s="30">
         <f>196-W11</f>
-        <v>33.099999999999994</v>
-      </c>
-      <c r="X12" s="24"/>
-      <c r="Z12" s="27" t="s">
+        <v>29.999999999999972</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Z12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="24">
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="30">
         <f>196-AB11</f>
-        <v>35.900000000000006</v>
-      </c>
-      <c r="AC12" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="AC12" s="30"/>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f>45*6</f>
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1838,11 +1945,19 @@
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F12:G12"/>
@@ -1852,20 +1967,12 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D9:G9 I9:L9 N9:Q9 S9" formulaRange="1"/>
+    <ignoredError sqref="D9:E9 I9:J9 N9:O9 S9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1890,10 +1997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1227 17:54</v>
+        <v>0107 15:39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2456,7 +2563,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1227 17:54</v>
+        <v>0107 15:39</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2715,50 +2822,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="32"/>
+      <c r="P1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="32"/>
+      <c r="S1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="T1" s="32"/>
+      <c r="V1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="W1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AB1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AC1" s="32"/>
+      <c r="AE1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="22"/>
+      <c r="AF1" s="32"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3344C-F2E3-44DE-81A8-EEB20B9CF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FF38F-00C2-446A-AED1-FDA4891E9C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35205" yWindow="16080" windowWidth="22380" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="107">
   <si>
     <t>보증금</t>
   </si>
@@ -416,6 +416,14 @@
   </si>
   <si>
     <t>이펙트 과외비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진하누나 핸드폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,7 +688,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +701,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,42 +1064,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Z1" s="28" t="s">
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Z1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1184,7 +1198,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>74</v>
@@ -1196,7 +1210,7 @@
         <v>75</v>
       </c>
       <c r="N3" s="7">
-        <v>17.7</v>
+        <v>31</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>74</v>
@@ -1208,7 +1222,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="7">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>74</v>
@@ -1220,7 +1234,7 @@
         <v>75</v>
       </c>
       <c r="X3" s="7">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1359,10 +1373,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="7">
-        <v>18.100000000000001</v>
+        <v>15</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>77</v>
@@ -1374,7 +1388,7 @@
         <v>44</v>
       </c>
       <c r="V5" s="7">
-        <v>18.100000000000001</v>
+        <v>12</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>77</v>
@@ -1418,7 +1432,7 @@
         <v>65</v>
       </c>
       <c r="G6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>78</v>
@@ -1430,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="L6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>78</v>
@@ -1439,10 +1453,10 @@
         <v>2</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R6" s="21" t="s">
         <v>78</v>
@@ -1519,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>80</v>
@@ -1534,7 +1548,7 @@
         <v>65</v>
       </c>
       <c r="V7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>80</v>
@@ -1546,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="AA7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="21" t="s">
         <v>80</v>
@@ -1579,14 +1593,13 @@
         <v>44</v>
       </c>
       <c r="G8" s="23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>79</v>
       </c>
       <c r="I8" s="7">
-        <f>14</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>104</v>
@@ -1598,13 +1611,13 @@
         <v>79</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>9.4</v>
+        <v>4</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>45</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>79</v>
@@ -1662,12 +1675,8 @@
         <f>SUM(I4:I6)</f>
         <v>18</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="23">
-        <v>8.1999999999999993</v>
-      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="24" t="s">
         <v>87</v>
       </c>
@@ -1675,11 +1684,11 @@
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>45</v>
+      <c r="P9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>5</v>
       </c>
       <c r="R9" s="24" t="s">
         <v>87</v>
@@ -1741,63 +1750,63 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(G3:G8)</f>
-        <v>107.10000000000001</v>
+        <v>85.100000000000009</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="7">
         <f>SUM(I3:I8)</f>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="L10" s="7">
         <f>SUM(L3:L9)</f>
-        <v>130.30000000000001</v>
+        <v>120.10000000000001</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="N10" s="7">
         <f>SUM(N3:N8)</f>
-        <v>35.700000000000003</v>
+        <v>53</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7">
         <f>SUM(Q3:Q9)</f>
-        <v>140.20000000000002</v>
+        <v>125.10000000000001</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>25.8</v>
+        <v>41</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="V10" s="7">
         <f>SUM(V3:V9)</f>
-        <v>140.20000000000002</v>
+        <v>132.10000000000002</v>
       </c>
       <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>25.8</v>
+        <v>33</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB10" s="24" t="s">
         <v>83</v>
@@ -1814,120 +1823,150 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="F11" s="29" t="s">
+      <c r="D11" s="31"/>
+      <c r="F11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30">
+      <c r="G11" s="30"/>
+      <c r="H11" s="31">
         <f>SUM(I10,G10)</f>
-        <v>169.10000000000002</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="K11" s="29" t="s">
+        <v>165.10000000000002</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="K11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30">
+      <c r="L11" s="30"/>
+      <c r="M11" s="31">
         <f>SUM(N10,L10)</f>
-        <v>166</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="P11" s="29" t="s">
+        <v>173.10000000000002</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="P11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31">
         <f>SUM(S10,Q10)</f>
-        <v>166.00000000000003</v>
-      </c>
-      <c r="S11" s="30"/>
-      <c r="U11" s="29" t="s">
+        <v>166.10000000000002</v>
+      </c>
+      <c r="S11" s="31"/>
+      <c r="U11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="29"/>
-      <c r="W11" s="30">
+      <c r="V11" s="30"/>
+      <c r="W11" s="31">
         <f>SUM(X10,V10)</f>
-        <v>166.00000000000003</v>
-      </c>
-      <c r="X11" s="30"/>
-      <c r="Z11" s="29" t="s">
+        <v>165.10000000000002</v>
+      </c>
+      <c r="X11" s="31"/>
+      <c r="Z11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="30">
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31">
         <f>SUM(AC10,AA10)</f>
-        <v>166</v>
-      </c>
-      <c r="AC11" s="30"/>
+        <v>164</v>
+      </c>
+      <c r="AC11" s="31"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30">
+      <c r="B12" s="32"/>
+      <c r="C12" s="31">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="F12" s="31" t="s">
+      <c r="D12" s="31"/>
+      <c r="F12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30">
+      <c r="G12" s="32"/>
+      <c r="H12" s="31">
         <f>196-H11</f>
-        <v>26.899999999999977</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="K12" s="31" t="s">
+        <v>30.899999999999977</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="K12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="30">
+      <c r="L12" s="32"/>
+      <c r="M12" s="31">
         <f>196-M11</f>
-        <v>30</v>
-      </c>
-      <c r="N12" s="30"/>
-      <c r="P12" s="31" t="s">
+        <v>22.899999999999977</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="P12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="30">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="31">
         <f>196-R11</f>
-        <v>29.999999999999972</v>
-      </c>
-      <c r="S12" s="30"/>
-      <c r="U12" s="31" t="s">
+        <v>29.899999999999977</v>
+      </c>
+      <c r="S12" s="31"/>
+      <c r="U12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="30">
+      <c r="V12" s="32"/>
+      <c r="W12" s="31">
         <f>196-W11</f>
-        <v>29.999999999999972</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Z12" s="31" t="s">
+        <v>30.899999999999977</v>
+      </c>
+      <c r="X12" s="31"/>
+      <c r="Z12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="30">
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="31">
         <f>196-AB11</f>
-        <v>30</v>
-      </c>
-      <c r="AC12" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="AC12" s="31"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="5">
+        <f>I3-4</f>
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="5">
+        <f>N3-4</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q20">
@@ -1937,21 +1976,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -1967,6 +1991,21 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,7 +2039,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0107 15:39</v>
+        <v>0204 12:04</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2563,7 +2602,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0107 15:39</v>
+        <v>0204 12:04</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2822,50 +2861,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="K1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="P1" s="32" t="s">
+      <c r="N1" s="34"/>
+      <c r="P1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="S1" s="32" t="s">
+      <c r="Q1" s="34"/>
+      <c r="S1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="V1" s="32" t="s">
+      <c r="T1" s="34"/>
+      <c r="V1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="Y1" s="32" t="s">
+      <c r="W1" s="34"/>
+      <c r="Y1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AB1" s="32" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AB1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="32"/>
-      <c r="AE1" s="32" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AE1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="32"/>
+      <c r="AF1" s="34"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3940,17 +3979,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FF38F-00C2-446A-AED1-FDA4891E9C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCBEF02-B1C5-475B-B803-1ABC87325559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35205" yWindow="16080" windowWidth="22380" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="108">
   <si>
     <t>보증금</t>
   </si>
@@ -424,6 +424,10 @@
   </si>
   <si>
     <t>할부 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진하, 핸드폰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +698,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,9 +711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1033,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,42 +1071,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="P1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="U1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Z1" s="33" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Z1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1278,7 +1285,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>73</v>
@@ -1289,8 +1296,8 @@
       <c r="M4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="7">
-        <v>10</v>
+      <c r="N4" s="30">
+        <v>6.8</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>73</v>
@@ -1301,8 +1308,8 @@
       <c r="R4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="7">
-        <v>10</v>
+      <c r="S4" s="30">
+        <v>6.8</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>73</v>
@@ -1313,8 +1320,8 @@
       <c r="W4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="7">
-        <v>10</v>
+      <c r="X4" s="30">
+        <v>6.8</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>73</v>
@@ -1325,8 +1332,8 @@
       <c r="AB4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="7">
-        <v>10</v>
+      <c r="AC4" s="30">
+        <v>6.8</v>
       </c>
       <c r="AF4" t="s">
         <v>97</v>
@@ -1351,7 +1358,7 @@
       <c r="F5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>15</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -1431,8 +1438,8 @@
       <c r="F6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="7">
-        <v>3</v>
+      <c r="G6" s="8">
+        <v>2.5</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>78</v>
@@ -1666,14 +1673,18 @@
         <f>SUM(D4:D6)</f>
         <v>18</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="23">
+        <v>12.6</v>
+      </c>
       <c r="H9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I9" s="7">
         <f>SUM(I4:I6)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
@@ -1682,7 +1693,7 @@
       </c>
       <c r="N9" s="7">
         <f>SUM(N4:N6)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="P9" s="29" t="s">
         <v>44</v>
@@ -1695,7 +1706,7 @@
       </c>
       <c r="S9" s="7">
         <f>SUM(S4:S6)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>104</v>
@@ -1708,7 +1719,7 @@
       </c>
       <c r="X9" s="7">
         <f>SUM(X4:X6)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="Z9" s="22" t="s">
         <v>104</v>
@@ -1721,7 +1732,7 @@
       </c>
       <c r="AC9" s="7">
         <f>SUM(AC4:AC6)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="AF9" t="s">
         <v>102</v>
@@ -1749,15 +1760,15 @@
         <v>84</v>
       </c>
       <c r="G10" s="7">
-        <f>SUM(G3:G8)</f>
-        <v>85.100000000000009</v>
+        <f>SUM(G3:G9)</f>
+        <v>97.2</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="7">
         <f>SUM(I3:I8)</f>
-        <v>80</v>
+        <v>76.8</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>84</v>
@@ -1771,7 +1782,7 @@
       </c>
       <c r="N10" s="7">
         <f>SUM(N3:N8)</f>
-        <v>53</v>
+        <v>49.8</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>84</v>
@@ -1785,7 +1796,7 @@
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>41</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>84</v>
@@ -1799,7 +1810,7 @@
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>33</v>
+        <v>29.8</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
@@ -1813,7 +1824,7 @@
       </c>
       <c r="AC10" s="7">
         <f>SUM(AC3:AC8)</f>
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="AF10" t="s">
         <v>103</v>
@@ -1823,120 +1834,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="33"/>
+      <c r="F11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31">
+      <c r="G11" s="32"/>
+      <c r="H11" s="33">
         <f>SUM(I10,G10)</f>
-        <v>165.10000000000002</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="K11" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="K11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31">
+      <c r="L11" s="32"/>
+      <c r="M11" s="33">
         <f>SUM(N10,L10)</f>
-        <v>173.10000000000002</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="P11" s="30" t="s">
+        <v>169.9</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="P11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33">
         <f>SUM(S10,Q10)</f>
-        <v>166.10000000000002</v>
-      </c>
-      <c r="S11" s="31"/>
-      <c r="U11" s="30" t="s">
+        <v>162.9</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="U11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="31">
+      <c r="V11" s="32"/>
+      <c r="W11" s="33">
         <f>SUM(X10,V10)</f>
-        <v>165.10000000000002</v>
-      </c>
-      <c r="X11" s="31"/>
-      <c r="Z11" s="30" t="s">
+        <v>161.90000000000003</v>
+      </c>
+      <c r="X11" s="33"/>
+      <c r="Z11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="31">
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="33">
         <f>SUM(AC10,AA10)</f>
-        <v>164</v>
-      </c>
-      <c r="AC11" s="31"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="AC11" s="33"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31">
+      <c r="B12" s="34"/>
+      <c r="C12" s="33">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="33"/>
+      <c r="F12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31">
-        <f>196-H11</f>
-        <v>30.899999999999977</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="K12" s="32" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="33">
+        <f>204-H11</f>
+        <v>30</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="K12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="31">
-        <f>196-M11</f>
-        <v>22.899999999999977</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="P12" s="32" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="33">
+        <f>204-M11</f>
+        <v>34.099999999999994</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="P12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="31">
-        <f>196-R11</f>
-        <v>29.899999999999977</v>
-      </c>
-      <c r="S12" s="31"/>
-      <c r="U12" s="32" t="s">
+      <c r="Q12" s="34"/>
+      <c r="R12" s="33">
+        <f>204-R11</f>
+        <v>41.099999999999994</v>
+      </c>
+      <c r="S12" s="33"/>
+      <c r="U12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="32"/>
-      <c r="W12" s="31">
-        <f>196-W11</f>
-        <v>30.899999999999977</v>
-      </c>
-      <c r="X12" s="31"/>
-      <c r="Z12" s="32" t="s">
+      <c r="V12" s="34"/>
+      <c r="W12" s="33">
+        <f>204-W11</f>
+        <v>42.099999999999966</v>
+      </c>
+      <c r="X12" s="33"/>
+      <c r="Z12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="31">
-        <f>196-AB11</f>
-        <v>32</v>
-      </c>
-      <c r="AC12" s="31"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="33">
+        <f>204-AB11</f>
+        <v>43.199999999999989</v>
+      </c>
+      <c r="AC12" s="33"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -1976,6 +1987,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -1992,20 +2017,6 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,7 +2050,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0204 12:04</v>
+        <v>0207 16:59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2602,7 +2613,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0204 12:04</v>
+        <v>0207 16:59</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2861,50 +2872,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="H1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="M1" s="34" t="s">
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="P1" s="34" t="s">
+      <c r="N1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="V1" s="34" t="s">
+      <c r="T1" s="35"/>
+      <c r="V1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="W1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AB1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AE1" s="34" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="34"/>
+      <c r="AF1" s="35"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3979,17 +3990,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCBEF02-B1C5-475B-B803-1ABC87325559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353087ED-64A1-4D63-A2C8-07B28ACE83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="111">
   <si>
     <t>보증금</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>진하, 핸드폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현성이형이 줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연말정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -701,9 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,42 +1083,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="31" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="U1" s="31" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="U1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Z1" s="31" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Z1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1229,7 +1241,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>74</v>
@@ -1241,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="X3" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1253,7 +1265,7 @@
         <v>75</v>
       </c>
       <c r="AC3" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="s">
         <v>96</v>
@@ -1297,7 +1309,7 @@
         <v>76</v>
       </c>
       <c r="N4" s="30">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>73</v>
@@ -1383,7 +1395,7 @@
         <v>69</v>
       </c>
       <c r="Q5" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>77</v>
@@ -1395,7 +1407,7 @@
         <v>44</v>
       </c>
       <c r="V5" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>77</v>
@@ -1407,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="AA5" s="7">
-        <v>25.9</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="21" t="s">
         <v>77</v>
@@ -1537,7 +1549,7 @@
         <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>86</v>
@@ -1693,13 +1705,13 @@
       </c>
       <c r="N9" s="7">
         <f>SUM(N4:N6)</f>
-        <v>14.8</v>
+        <v>18</v>
       </c>
       <c r="P9" s="29" t="s">
         <v>44</v>
       </c>
       <c r="Q9" s="28">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R9" s="24" t="s">
         <v>87</v>
@@ -1782,49 +1794,49 @@
       </c>
       <c r="N10" s="7">
         <f>SUM(N3:N8)</f>
-        <v>49.8</v>
+        <v>60</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="7">
         <f>SUM(Q3:Q9)</f>
-        <v>125.10000000000001</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>37.799999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="V10" s="7">
         <f>SUM(V3:V9)</f>
-        <v>132.10000000000002</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>29.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>146</v>
+        <v>138.10000000000002</v>
       </c>
       <c r="AB10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AC10" s="7">
         <f>SUM(AC3:AC8)</f>
-        <v>14.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AF10" t="s">
         <v>103</v>
@@ -1834,120 +1846,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="32"/>
+      <c r="F11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33">
+      <c r="G11" s="31"/>
+      <c r="H11" s="32">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="K11" s="32" t="s">
+      <c r="I11" s="32"/>
+      <c r="K11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33">
+      <c r="L11" s="31"/>
+      <c r="M11" s="32">
         <f>SUM(N10,L10)</f>
-        <v>169.9</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="P11" s="32" t="s">
+        <v>180.10000000000002</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="P11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32">
         <f>SUM(S10,Q10)</f>
-        <v>162.9</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="U11" s="32" t="s">
+        <v>173.90000000000003</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="U11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33">
+      <c r="V11" s="31"/>
+      <c r="W11" s="32">
         <f>SUM(X10,V10)</f>
-        <v>161.90000000000003</v>
-      </c>
-      <c r="X11" s="33"/>
-      <c r="Z11" s="32" t="s">
+        <v>173.90000000000003</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Z11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33">
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32">
         <f>SUM(AC10,AA10)</f>
-        <v>160.80000000000001</v>
-      </c>
-      <c r="AC11" s="33"/>
+        <v>173.90000000000003</v>
+      </c>
+      <c r="AC11" s="32"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33">
+      <c r="B12" s="33"/>
+      <c r="C12" s="32">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="F12" s="34" t="s">
+      <c r="D12" s="32"/>
+      <c r="F12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33">
+      <c r="G12" s="33"/>
+      <c r="H12" s="32">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="K12" s="34" t="s">
+      <c r="I12" s="32"/>
+      <c r="K12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33">
+      <c r="L12" s="33"/>
+      <c r="M12" s="32">
         <f>204-M11</f>
-        <v>34.099999999999994</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="P12" s="34" t="s">
+        <v>23.899999999999977</v>
+      </c>
+      <c r="N12" s="32"/>
+      <c r="P12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="33">
+      <c r="Q12" s="33"/>
+      <c r="R12" s="32">
         <f>204-R11</f>
-        <v>41.099999999999994</v>
-      </c>
-      <c r="S12" s="33"/>
-      <c r="U12" s="34" t="s">
+        <v>30.099999999999966</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="U12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="33">
+      <c r="V12" s="33"/>
+      <c r="W12" s="32">
         <f>204-W11</f>
-        <v>42.099999999999966</v>
-      </c>
-      <c r="X12" s="33"/>
-      <c r="Z12" s="34" t="s">
+        <v>30.099999999999966</v>
+      </c>
+      <c r="X12" s="32"/>
+      <c r="Z12" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="33">
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="32">
         <f>204-AB11</f>
-        <v>43.199999999999989</v>
-      </c>
-      <c r="AC12" s="33"/>
+        <v>30.099999999999966</v>
+      </c>
+      <c r="AC12" s="32"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -1979,7 +1991,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="Q20">
         <f>45*6</f>
         <v>270</v>
@@ -2050,7 +2083,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0207 16:59</v>
+        <v>0211 11:21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2613,7 +2646,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0207 16:59</v>
+        <v>0211 11:21</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353087ED-64A1-4D63-A2C8-07B28ACE83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386A972-DFDA-4210-90DB-E30B170C780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="111">
   <si>
     <t>보증금</t>
   </si>
@@ -1042,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1241,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>74</v>
@@ -1253,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="X3" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1265,7 +1265,7 @@
         <v>75</v>
       </c>
       <c r="AC3" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="s">
         <v>96</v>
@@ -1321,7 +1321,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="30">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>73</v>
@@ -1395,7 +1395,7 @@
         <v>69</v>
       </c>
       <c r="Q5" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>77</v>
@@ -1407,7 +1407,7 @@
         <v>44</v>
       </c>
       <c r="V5" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>77</v>
@@ -1419,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="AA5" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="21" t="s">
         <v>77</v>
@@ -1624,7 +1624,7 @@
         <v>104</v>
       </c>
       <c r="L8" s="23">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>79</v>
@@ -1698,8 +1698,12 @@
         <f>SUM(I4:I6)</f>
         <v>14.8</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="23">
+        <v>28</v>
+      </c>
       <c r="M9" s="24" t="s">
         <v>87</v>
       </c>
@@ -1711,14 +1715,14 @@
         <v>44</v>
       </c>
       <c r="Q9" s="28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="S9" s="7">
         <f>SUM(S4:S6)</f>
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>104</v>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="L10" s="7">
         <f>SUM(L3:L9)</f>
-        <v>120.10000000000001</v>
+        <v>113.10000000000001</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>83</v>
@@ -1801,42 +1805,42 @@
       </c>
       <c r="Q10" s="7">
         <f>SUM(Q3:Q9)</f>
-        <v>138.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>35.799999999999997</v>
+        <v>27.3</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="V10" s="7">
         <f>SUM(V3:V9)</f>
-        <v>138.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>35.799999999999997</v>
+        <v>27.8</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>138.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="AB10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AC10" s="7">
         <f>SUM(AC3:AC8)</f>
-        <v>35.799999999999997</v>
+        <v>24.8</v>
       </c>
       <c r="AF10" t="s">
         <v>103</v>
@@ -1870,7 +1874,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="32">
         <f>SUM(N10,L10)</f>
-        <v>180.10000000000002</v>
+        <v>173.10000000000002</v>
       </c>
       <c r="N11" s="32"/>
       <c r="P11" s="31" t="s">
@@ -1879,7 +1883,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="32">
         <f>SUM(S10,Q10)</f>
-        <v>173.90000000000003</v>
+        <v>167.40000000000003</v>
       </c>
       <c r="S11" s="32"/>
       <c r="U11" s="31" t="s">
@@ -1888,7 +1892,7 @@
       <c r="V11" s="31"/>
       <c r="W11" s="32">
         <f>SUM(X10,V10)</f>
-        <v>173.90000000000003</v>
+        <v>167.90000000000003</v>
       </c>
       <c r="X11" s="32"/>
       <c r="Z11" s="31" t="s">
@@ -1897,7 +1901,7 @@
       <c r="AA11" s="31"/>
       <c r="AB11" s="32">
         <f>SUM(AC10,AA10)</f>
-        <v>173.90000000000003</v>
+        <v>164.90000000000003</v>
       </c>
       <c r="AC11" s="32"/>
       <c r="AG11">
@@ -1930,7 +1934,7 @@
       <c r="L12" s="33"/>
       <c r="M12" s="32">
         <f>204-M11</f>
-        <v>23.899999999999977</v>
+        <v>30.899999999999977</v>
       </c>
       <c r="N12" s="32"/>
       <c r="P12" s="33" t="s">
@@ -1939,7 +1943,7 @@
       <c r="Q12" s="33"/>
       <c r="R12" s="32">
         <f>204-R11</f>
-        <v>30.099999999999966</v>
+        <v>36.599999999999966</v>
       </c>
       <c r="S12" s="32"/>
       <c r="U12" s="33" t="s">
@@ -1948,7 +1952,7 @@
       <c r="V12" s="33"/>
       <c r="W12" s="32">
         <f>204-W11</f>
-        <v>30.099999999999966</v>
+        <v>36.099999999999966</v>
       </c>
       <c r="X12" s="32"/>
       <c r="Z12" s="33" t="s">
@@ -1957,7 +1961,7 @@
       <c r="AA12" s="33"/>
       <c r="AB12" s="32">
         <f>204-AB11</f>
-        <v>30.099999999999966</v>
+        <v>39.099999999999966</v>
       </c>
       <c r="AC12" s="32"/>
     </row>
@@ -1993,29 +1997,21 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="M16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="R15" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="Q20">
-        <f>45*6</f>
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2079,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0211 11:21</v>
+        <v>0321 11:14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2646,7 +2642,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0211 11:21</v>
+        <v>0321 11:14</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386A972-DFDA-4210-90DB-E30B170C780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351A838-1B2A-40A0-9EB0-508D9C74E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
   <si>
     <t>보증금</t>
   </si>
@@ -619,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +713,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,9 +729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,7 +1051,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,42 +1089,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="P1" s="34" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="34" t="s">
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Z1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1241,7 +1247,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>74</v>
@@ -1253,7 +1259,7 @@
         <v>75</v>
       </c>
       <c r="X3" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1265,7 +1271,7 @@
         <v>75</v>
       </c>
       <c r="AC3" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="s">
         <v>96</v>
@@ -1557,11 +1563,11 @@
       <c r="Q7" s="7">
         <v>9.4</v>
       </c>
-      <c r="R7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
+      <c r="R7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="31">
+        <v>16.5</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>65</v>
@@ -1569,10 +1575,10 @@
       <c r="V7" s="7">
         <v>3</v>
       </c>
-      <c r="W7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" s="7">
+      <c r="W7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="31">
         <v>0</v>
       </c>
       <c r="Z7" s="21" t="s">
@@ -1581,10 +1587,10 @@
       <c r="AA7" s="7">
         <v>3</v>
       </c>
-      <c r="AB7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC7" s="7">
+      <c r="AB7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="31">
         <v>0</v>
       </c>
       <c r="AF7" t="s">
@@ -1638,36 +1644,24 @@
       <c r="Q8" s="23">
         <v>45</v>
       </c>
-      <c r="R8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="7"/>
       <c r="U8" s="21" t="s">
         <v>86</v>
       </c>
       <c r="V8" s="7">
         <v>9.4</v>
       </c>
-      <c r="W8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="7"/>
       <c r="Z8" s="21" t="s">
         <v>86</v>
       </c>
       <c r="AA8" s="7">
         <v>9.4</v>
       </c>
-      <c r="AB8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="7"/>
       <c r="AF8" t="s">
         <v>101</v>
       </c>
@@ -1812,7 +1806,7 @@
       </c>
       <c r="S10" s="7">
         <f>SUM(S3:S8)</f>
-        <v>27.3</v>
+        <v>55.8</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>84</v>
@@ -1826,7 +1820,7 @@
       </c>
       <c r="X10" s="7">
         <f>SUM(X3:X8)</f>
-        <v>27.8</v>
+        <v>31.8</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
@@ -1840,7 +1834,7 @@
       </c>
       <c r="AC10" s="7">
         <f>SUM(AC3:AC8)</f>
-        <v>24.8</v>
+        <v>31.8</v>
       </c>
       <c r="AF10" t="s">
         <v>103</v>
@@ -1850,120 +1844,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="F11" s="31" t="s">
+      <c r="D11" s="35"/>
+      <c r="F11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32">
+      <c r="G11" s="34"/>
+      <c r="H11" s="35">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="K11" s="31" t="s">
+      <c r="I11" s="35"/>
+      <c r="K11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32">
+      <c r="L11" s="34"/>
+      <c r="M11" s="35">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="P11" s="31" t="s">
+      <c r="N11" s="35"/>
+      <c r="P11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32">
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35">
         <f>SUM(S10,Q10)</f>
-        <v>167.40000000000003</v>
-      </c>
-      <c r="S11" s="32"/>
-      <c r="U11" s="31" t="s">
+        <v>195.90000000000003</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="U11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32">
+      <c r="V11" s="34"/>
+      <c r="W11" s="35">
         <f>SUM(X10,V10)</f>
-        <v>167.90000000000003</v>
-      </c>
-      <c r="X11" s="32"/>
-      <c r="Z11" s="31" t="s">
+        <v>171.90000000000003</v>
+      </c>
+      <c r="X11" s="35"/>
+      <c r="Z11" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="32">
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35">
         <f>SUM(AC10,AA10)</f>
-        <v>164.90000000000003</v>
-      </c>
-      <c r="AC11" s="32"/>
+        <v>171.90000000000003</v>
+      </c>
+      <c r="AC11" s="35"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32">
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="35"/>
+      <c r="F12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32">
+      <c r="G12" s="36"/>
+      <c r="H12" s="35">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="K12" s="33" t="s">
+      <c r="I12" s="35"/>
+      <c r="K12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="32">
+      <c r="L12" s="36"/>
+      <c r="M12" s="35">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="P12" s="33" t="s">
+      <c r="N12" s="35"/>
+      <c r="P12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="32">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="35">
         <f>204-R11</f>
-        <v>36.599999999999966</v>
-      </c>
-      <c r="S12" s="32"/>
-      <c r="U12" s="33" t="s">
+        <v>8.0999999999999659</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="U12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="33"/>
-      <c r="W12" s="32">
+      <c r="V12" s="36"/>
+      <c r="W12" s="35">
         <f>204-W11</f>
-        <v>36.099999999999966</v>
-      </c>
-      <c r="X12" s="32"/>
-      <c r="Z12" s="33" t="s">
+        <v>32.099999999999966</v>
+      </c>
+      <c r="X12" s="35"/>
+      <c r="Z12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="32">
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="35">
         <f>204-AB11</f>
-        <v>39.099999999999966</v>
-      </c>
-      <c r="AC12" s="32"/>
+        <v>32.099999999999966</v>
+      </c>
+      <c r="AC12" s="35"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2016,6 +2010,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2031,21 +2040,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,7 +2073,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0321 11:14</v>
+        <v>0403 17:46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2642,7 +2636,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0321 11:14</v>
+        <v>0403 17:46</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2901,50 +2895,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="D1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="H1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="N1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="S1" s="35" t="s">
+      <c r="Q1" s="37"/>
+      <c r="S1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="V1" s="35" t="s">
+      <c r="T1" s="37"/>
+      <c r="V1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="Y1" s="35" t="s">
+      <c r="W1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AB1" s="35" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AB1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AE1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="35"/>
+      <c r="AF1" s="37"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -4019,17 +4013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351A838-1B2A-40A0-9EB0-508D9C74E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD4A99-4C89-4337-89DC-167F5D1A6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
   <si>
     <t>보증금</t>
   </si>
@@ -719,9 +719,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,6 +726,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1089,42 +1089,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="K1" s="33" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="U1" s="33" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="U1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Z1" s="33" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Z1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1705,12 +1705,8 @@
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>20</v>
-      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="28"/>
       <c r="R9" s="24" t="s">
         <v>87</v>
       </c>
@@ -1799,7 +1795,7 @@
       </c>
       <c r="Q10" s="7">
         <f>SUM(Q3:Q9)</f>
-        <v>140.10000000000002</v>
+        <v>120.10000000000001</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>83</v>
@@ -1844,120 +1840,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="34"/>
+      <c r="F11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35">
+      <c r="G11" s="33"/>
+      <c r="H11" s="34">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="K11" s="34" t="s">
+      <c r="I11" s="34"/>
+      <c r="K11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35">
+      <c r="L11" s="33"/>
+      <c r="M11" s="34">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="P11" s="34" t="s">
+      <c r="N11" s="34"/>
+      <c r="P11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34">
         <f>SUM(S10,Q10)</f>
-        <v>195.90000000000003</v>
-      </c>
-      <c r="S11" s="35"/>
-      <c r="U11" s="34" t="s">
+        <v>175.9</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="U11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35">
+      <c r="V11" s="33"/>
+      <c r="W11" s="34">
         <f>SUM(X10,V10)</f>
         <v>171.90000000000003</v>
       </c>
-      <c r="X11" s="35"/>
-      <c r="Z11" s="34" t="s">
+      <c r="X11" s="34"/>
+      <c r="Z11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35">
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34">
         <f>SUM(AC10,AA10)</f>
         <v>171.90000000000003</v>
       </c>
-      <c r="AC11" s="35"/>
+      <c r="AC11" s="34"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
+      <c r="B12" s="35"/>
+      <c r="C12" s="34">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="34"/>
+      <c r="F12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35">
+      <c r="G12" s="35"/>
+      <c r="H12" s="34">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="K12" s="36" t="s">
+      <c r="I12" s="34"/>
+      <c r="K12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="35">
+      <c r="L12" s="35"/>
+      <c r="M12" s="34">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="P12" s="36" t="s">
+      <c r="N12" s="34"/>
+      <c r="P12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="35">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="34">
         <f>204-R11</f>
-        <v>8.0999999999999659</v>
-      </c>
-      <c r="S12" s="35"/>
-      <c r="U12" s="36" t="s">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="U12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="35">
+      <c r="V12" s="35"/>
+      <c r="W12" s="34">
         <f>204-W11</f>
         <v>32.099999999999966</v>
       </c>
-      <c r="X12" s="35"/>
-      <c r="Z12" s="36" t="s">
+      <c r="X12" s="34"/>
+      <c r="Z12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="35">
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="34">
         <f>204-AB11</f>
         <v>32.099999999999966</v>
       </c>
-      <c r="AC12" s="35"/>
+      <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2003,6 +1999,12 @@
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f>85+55</f>
+        <v>140</v>
+      </c>
+    </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
         <v>110</v>
@@ -2010,21 +2012,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2040,6 +2027,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,7 +2075,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0403 17:46</v>
+        <v>0405 13:27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2636,7 +2638,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0403 17:46</v>
+        <v>0405 13:27</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4013,17 +4015,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD4A99-4C89-4337-89DC-167F5D1A6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{819DDD21-6084-4320-993A-5782503F1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="(구)지출 목록" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2075,7 +2076,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0405 13:27</v>
+        <v>0408 10:11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2638,7 +2639,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0405 13:27</v>
+        <v>0408 10:11</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819DDD21-6084-4320-993A-5782503F1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3082F7A-170E-4AF8-9827-DED3897FCE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="(구)지출 목록" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="113">
   <si>
     <t>보증금</t>
   </si>
@@ -441,6 +440,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 일시불 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +727,15 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,9 +743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1065,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1093,7 @@
     <col min="21" max="21" width="14.625" customWidth="1"/>
     <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2" style="2" customWidth="1"/>
     <col min="26" max="26" width="14.625" customWidth="1"/>
     <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
@@ -1090,42 +1103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="P1" s="36" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="U1" s="36" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Z1" s="36" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Z1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1256,11 +1269,11 @@
       <c r="V3" s="7">
         <v>40</v>
       </c>
-      <c r="W3" s="21" t="s">
-        <v>75</v>
+      <c r="W3" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="X3" s="7">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1268,11 +1281,11 @@
       <c r="AA3" s="7">
         <v>40</v>
       </c>
-      <c r="AB3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>17</v>
+      <c r="AB3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>0</v>
       </c>
       <c r="AF3" t="s">
         <v>96</v>
@@ -1336,11 +1349,11 @@
       <c r="V4" s="7">
         <v>7.7</v>
       </c>
-      <c r="W4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="30">
-        <v>6.8</v>
+      <c r="W4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="33">
+        <v>23</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>73</v>
@@ -1348,11 +1361,11 @@
       <c r="AA4" s="7">
         <v>7.7</v>
       </c>
-      <c r="AB4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" s="30">
-        <v>6.8</v>
+      <c r="AB4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>23</v>
       </c>
       <c r="AF4" t="s">
         <v>97</v>
@@ -1410,17 +1423,17 @@
       <c r="S5" s="7">
         <v>6</v>
       </c>
-      <c r="U5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="7">
-        <v>20</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="7">
-        <v>6</v>
+      <c r="U5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="33">
+        <v>15</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="33">
+        <v>6.8</v>
       </c>
       <c r="Z5" s="21" t="s">
         <v>44</v>
@@ -1428,11 +1441,11 @@
       <c r="AA5" s="7">
         <v>20</v>
       </c>
-      <c r="AB5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>6</v>
+      <c r="AB5" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>6.8</v>
       </c>
       <c r="AF5" t="s">
         <v>98</v>
@@ -1490,17 +1503,17 @@
       <c r="S6" s="7">
         <v>2</v>
       </c>
-      <c r="U6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" s="7">
-        <v>15</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="7">
-        <v>2</v>
+      <c r="U6" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="33">
+        <v>3</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="33">
+        <v>6</v>
       </c>
       <c r="Z6" s="21" t="s">
         <v>69</v>
@@ -1508,11 +1521,11 @@
       <c r="AA6" s="7">
         <v>15</v>
       </c>
-      <c r="AB6" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>2</v>
+      <c r="AB6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="33">
+        <v>6</v>
       </c>
       <c r="AF6" t="s">
         <v>99</v>
@@ -1570,17 +1583,17 @@
       <c r="S7" s="31">
         <v>16.5</v>
       </c>
-      <c r="U7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="7">
-        <v>3</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="31">
-        <v>0</v>
+      <c r="U7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="33">
+        <v>9.4</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="33">
+        <v>2</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>65</v>
@@ -1588,11 +1601,11 @@
       <c r="AA7" s="7">
         <v>3</v>
       </c>
-      <c r="AB7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="31">
-        <v>0</v>
+      <c r="AB7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="33">
+        <v>2</v>
       </c>
       <c r="AF7" t="s">
         <v>100</v>
@@ -1647,22 +1660,32 @@
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="7"/>
-      <c r="U8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="7"/>
+      <c r="U8" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="33">
+        <v>45</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" s="7">
+        <f>X3-(SUM(X4:X7))</f>
+        <v>29.200000000000003</v>
+      </c>
       <c r="Z8" s="21" t="s">
         <v>86</v>
       </c>
       <c r="AA8" s="7">
         <v>9.4</v>
       </c>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="7"/>
+      <c r="AB8" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" s="33" t="str">
+        <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
+        <v>0</v>
+      </c>
       <c r="AF8" t="s">
         <v>101</v>
       </c>
@@ -1715,32 +1738,18 @@
         <f>SUM(S4:S6)</f>
         <v>14.3</v>
       </c>
-      <c r="U9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="V9" s="23">
-        <v>45</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="X9" s="7">
-        <f>SUM(X4:X6)</f>
-        <v>14.8</v>
-      </c>
+      <c r="U9" s="22"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="7"/>
       <c r="Z9" s="22" t="s">
         <v>104</v>
       </c>
       <c r="AA9" s="23">
         <v>45</v>
       </c>
-      <c r="AB9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC9" s="7">
-        <f>SUM(AC4:AC6)</f>
-        <v>14.8</v>
-      </c>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="33"/>
       <c r="AF9" t="s">
         <v>102</v>
       </c>
@@ -1810,14 +1819,14 @@
       </c>
       <c r="V10" s="7">
         <f>SUM(V3:V9)</f>
-        <v>140.10000000000002</v>
+        <v>120.10000000000001</v>
       </c>
       <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="X10" s="7">
-        <f>SUM(X3:X8)</f>
-        <v>31.8</v>
+        <f>X3</f>
+        <v>67</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
@@ -1829,9 +1838,9 @@
       <c r="AB10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="7">
-        <f>SUM(AC3:AC8)</f>
-        <v>31.8</v>
+      <c r="AC10" s="33">
+        <f>SUM(AC4:AC8)</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="AF10" t="s">
         <v>103</v>
@@ -1841,120 +1850,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="F11" s="33" t="s">
+      <c r="D11" s="37"/>
+      <c r="F11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="K11" s="33" t="s">
+      <c r="I11" s="37"/>
+      <c r="K11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34">
+      <c r="L11" s="36"/>
+      <c r="M11" s="37">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="P11" s="33" t="s">
+      <c r="N11" s="37"/>
+      <c r="P11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="U11" s="33" t="s">
+      <c r="S11" s="37"/>
+      <c r="U11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34">
+      <c r="V11" s="36"/>
+      <c r="W11" s="37">
         <f>SUM(X10,V10)</f>
-        <v>171.90000000000003</v>
-      </c>
-      <c r="X11" s="34"/>
-      <c r="Z11" s="33" t="s">
+        <v>187.10000000000002</v>
+      </c>
+      <c r="X11" s="37"/>
+      <c r="Z11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34">
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37">
         <f>SUM(AC10,AA10)</f>
-        <v>171.90000000000003</v>
-      </c>
-      <c r="AC11" s="34"/>
+        <v>177.90000000000003</v>
+      </c>
+      <c r="AC11" s="37"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="34">
+      <c r="B12" s="38"/>
+      <c r="C12" s="37">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="F12" s="35" t="s">
+      <c r="D12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34">
+      <c r="G12" s="38"/>
+      <c r="H12" s="37">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="K12" s="35" t="s">
+      <c r="I12" s="37"/>
+      <c r="K12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="34">
+      <c r="L12" s="38"/>
+      <c r="M12" s="37">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="P12" s="35" t="s">
+      <c r="N12" s="37"/>
+      <c r="P12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="34">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="37">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="U12" s="35" t="s">
+      <c r="S12" s="37"/>
+      <c r="U12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="35"/>
-      <c r="W12" s="34">
+      <c r="V12" s="38"/>
+      <c r="W12" s="37">
         <f>204-W11</f>
-        <v>32.099999999999966</v>
-      </c>
-      <c r="X12" s="34"/>
-      <c r="Z12" s="35" t="s">
+        <v>16.899999999999977</v>
+      </c>
+      <c r="X12" s="37"/>
+      <c r="Z12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="34">
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="37">
         <f>204-AB11</f>
-        <v>32.099999999999966</v>
-      </c>
-      <c r="AC12" s="34"/>
+        <v>26.099999999999966</v>
+      </c>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2013,6 +2022,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2028,21 +2052,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,7 +2085,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0408 10:11</v>
+        <v>0422 18:38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2639,7 +2648,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0408 10:11</v>
+        <v>0422 18:38</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2898,50 +2907,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="S1" s="37" t="s">
+      <c r="Q1" s="39"/>
+      <c r="S1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="T1" s="39"/>
+      <c r="V1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="W1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AB1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AE1" s="37" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AE1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="37"/>
+      <c r="AF1" s="39"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -4016,17 +4025,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3082F7A-170E-4AF8-9827-DED3897FCE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274E5A3-6897-49CB-8575-D3FE07A84668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -733,9 +733,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,6 +740,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,42 +1103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="35" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Z1" s="35" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1273,7 +1273,7 @@
         <v>111</v>
       </c>
       <c r="X3" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="X8" s="7">
         <f>X3-(SUM(X4:X7))</f>
-        <v>29.200000000000003</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="Z8" s="21" t="s">
         <v>86</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="X10" s="7">
         <f>X3</f>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
@@ -1850,120 +1850,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="36"/>
+      <c r="F11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="K11" s="36" t="s">
+      <c r="I11" s="36"/>
+      <c r="K11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37">
+      <c r="L11" s="35"/>
+      <c r="M11" s="36">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="P11" s="36" t="s">
+      <c r="N11" s="36"/>
+      <c r="P11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37">
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="U11" s="36" t="s">
+      <c r="S11" s="36"/>
+      <c r="U11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37">
+      <c r="V11" s="35"/>
+      <c r="W11" s="36">
         <f>SUM(X10,V10)</f>
-        <v>187.10000000000002</v>
-      </c>
-      <c r="X11" s="37"/>
-      <c r="Z11" s="36" t="s">
+        <v>174.10000000000002</v>
+      </c>
+      <c r="X11" s="36"/>
+      <c r="Z11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37">
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="37"/>
+      <c r="AC11" s="36"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37">
+      <c r="B12" s="37"/>
+      <c r="C12" s="36">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="36"/>
+      <c r="F12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37">
+      <c r="G12" s="37"/>
+      <c r="H12" s="36">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="I12" s="36"/>
+      <c r="K12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37">
+      <c r="L12" s="37"/>
+      <c r="M12" s="36">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="P12" s="38" t="s">
+      <c r="N12" s="36"/>
+      <c r="P12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="U12" s="38" t="s">
+      <c r="S12" s="36"/>
+      <c r="U12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="37">
+      <c r="V12" s="37"/>
+      <c r="W12" s="36">
         <f>204-W11</f>
-        <v>16.899999999999977</v>
-      </c>
-      <c r="X12" s="37"/>
-      <c r="Z12" s="38" t="s">
+        <v>29.899999999999977</v>
+      </c>
+      <c r="X12" s="36"/>
+      <c r="Z12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="36">
         <f>204-AB11</f>
         <v>26.099999999999966</v>
       </c>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2022,21 +2022,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2052,6 +2037,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,7 +2085,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0422 18:38</v>
+        <v>0424 23:04</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0422 18:38</v>
+        <v>0424 23:04</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4025,17 +4025,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274E5A3-6897-49CB-8575-D3FE07A84668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E941CB8-BE97-41F7-A467-02EA77562E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -733,6 +733,9 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,9 +743,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="W12" sqref="W12:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,42 +1103,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="38" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Z1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1273,7 +1273,7 @@
         <v>111</v>
       </c>
       <c r="X3" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>74</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="X8" s="7">
         <f>X3-(SUM(X4:X7))</f>
-        <v>16.200000000000003</v>
+        <v>13.200000000000003</v>
       </c>
       <c r="Z8" s="21" t="s">
         <v>86</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="X10" s="7">
         <f>X3</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="24" t="s">
         <v>84</v>
@@ -1850,120 +1850,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="37"/>
+      <c r="F11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="K11" s="35" t="s">
+      <c r="I11" s="37"/>
+      <c r="K11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36">
+      <c r="L11" s="36"/>
+      <c r="M11" s="37">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="P11" s="35" t="s">
+      <c r="N11" s="37"/>
+      <c r="P11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="U11" s="35" t="s">
+      <c r="S11" s="37"/>
+      <c r="U11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36">
+      <c r="V11" s="36"/>
+      <c r="W11" s="37">
         <f>SUM(X10,V10)</f>
-        <v>174.10000000000002</v>
-      </c>
-      <c r="X11" s="36"/>
-      <c r="Z11" s="35" t="s">
+        <v>171.10000000000002</v>
+      </c>
+      <c r="X11" s="37"/>
+      <c r="Z11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="36">
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="36"/>
+      <c r="AC11" s="37"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36">
+      <c r="B12" s="38"/>
+      <c r="C12" s="37">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36">
+      <c r="G12" s="38"/>
+      <c r="H12" s="37">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="K12" s="37" t="s">
+      <c r="I12" s="37"/>
+      <c r="K12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36">
+      <c r="L12" s="38"/>
+      <c r="M12" s="37">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="P12" s="37" t="s">
+      <c r="N12" s="37"/>
+      <c r="P12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="37">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="U12" s="37" t="s">
+      <c r="S12" s="37"/>
+      <c r="U12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="36">
+      <c r="V12" s="38"/>
+      <c r="W12" s="37">
         <f>204-W11</f>
-        <v>29.899999999999977</v>
-      </c>
-      <c r="X12" s="36"/>
-      <c r="Z12" s="37" t="s">
+        <v>32.899999999999977</v>
+      </c>
+      <c r="X12" s="37"/>
+      <c r="Z12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="37">
         <f>204-AB11</f>
         <v>26.099999999999966</v>
       </c>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="37"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2022,6 +2022,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2037,21 +2052,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,7 +2085,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0424 23:04</v>
+        <v>0504 14:45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,7 +2648,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0424 23:04</v>
+        <v>0504 14:45</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4025,17 +4025,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E941CB8-BE97-41F7-A467-02EA77562E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F396E8E-FFD9-4877-8E95-0D23CEB00C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="114">
   <si>
     <t>보증금</t>
   </si>
@@ -448,6 +448,10 @@
   </si>
   <si>
     <t>나머지 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학자금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -733,9 +737,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,6 +744,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1069,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12:X12"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,42 +1107,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="35" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Z1" s="35" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Z1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1436,10 +1440,10 @@
         <v>6.8</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="AA5" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="34" t="s">
         <v>76</v>
@@ -1833,7 +1837,7 @@
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>140.10000000000002</v>
+        <v>156.10000000000002</v>
       </c>
       <c r="AB10" s="24" t="s">
         <v>83</v>
@@ -1850,120 +1854,120 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="36"/>
+      <c r="F11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="K11" s="36" t="s">
+      <c r="I11" s="36"/>
+      <c r="K11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37">
+      <c r="L11" s="35"/>
+      <c r="M11" s="36">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="P11" s="36" t="s">
+      <c r="N11" s="36"/>
+      <c r="P11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37">
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="U11" s="36" t="s">
+      <c r="S11" s="36"/>
+      <c r="U11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37">
+      <c r="V11" s="35"/>
+      <c r="W11" s="36">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="37"/>
-      <c r="Z11" s="36" t="s">
+      <c r="X11" s="36"/>
+      <c r="Z11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37">
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36">
         <f>SUM(AC10,AA10)</f>
-        <v>177.90000000000003</v>
-      </c>
-      <c r="AC11" s="37"/>
+        <v>193.90000000000003</v>
+      </c>
+      <c r="AC11" s="36"/>
       <c r="AG11">
         <f>SUM(AG3:AG10)</f>
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37">
+      <c r="B12" s="37"/>
+      <c r="C12" s="36">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="36"/>
+      <c r="F12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37">
+      <c r="G12" s="37"/>
+      <c r="H12" s="36">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="I12" s="36"/>
+      <c r="K12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37">
+      <c r="L12" s="37"/>
+      <c r="M12" s="36">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="P12" s="38" t="s">
+      <c r="N12" s="36"/>
+      <c r="P12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="U12" s="38" t="s">
+      <c r="S12" s="36"/>
+      <c r="U12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="37">
+      <c r="V12" s="37"/>
+      <c r="W12" s="36">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="37"/>
-      <c r="Z12" s="38" t="s">
+      <c r="X12" s="36"/>
+      <c r="Z12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="36">
         <f>204-AB11</f>
-        <v>26.099999999999966</v>
-      </c>
-      <c r="AC12" s="37"/>
+        <v>10.099999999999966</v>
+      </c>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2022,21 +2026,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2052,6 +2041,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,7 +2089,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0504 14:45</v>
+        <v>0516 11:24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,7 +2652,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0504 14:45</v>
+        <v>0516 11:24</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4025,17 +4029,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F396E8E-FFD9-4877-8E95-0D23CEB00C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096ABE5-9F5F-4E2C-AB67-5B96A1B8956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="110">
   <si>
     <t>보증금</t>
   </si>
@@ -390,31 +390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-  </si>
-  <si>
-    <t>3월</t>
-  </si>
-  <si>
-    <t>4월</t>
-  </si>
-  <si>
-    <t>5월</t>
-  </si>
-  <si>
-    <t>6월</t>
-  </si>
-  <si>
-    <t>7월</t>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
     <t>이펙트 과외비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -452,6 +427,22 @@
   </si>
   <si>
     <t>학자금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_7월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_8월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_9월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_10월 지출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +728,18 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,9 +747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,9 +1104,29 @@
     <col min="28" max="28" width="14.625" customWidth="1"/>
     <col min="29" max="29" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14.625" customWidth="1"/>
+    <col min="32" max="32" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" customWidth="1"/>
+    <col min="34" max="34" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="2" customWidth="1"/>
+    <col min="36" max="36" width="14.625" customWidth="1"/>
+    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" customWidth="1"/>
+    <col min="39" max="39" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="2" customWidth="1"/>
+    <col min="41" max="41" width="14.625" customWidth="1"/>
+    <col min="42" max="42" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.625" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="2" customWidth="1"/>
+    <col min="46" max="46" width="14.625" customWidth="1"/>
+    <col min="47" max="47" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.625" customWidth="1"/>
+    <col min="49" max="49" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
@@ -1143,8 +1163,32 @@
       <c r="AA1" s="38"/>
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AJ1" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AO1" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AT1" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>70</v>
       </c>
@@ -1217,8 +1261,56 @@
       <c r="AC2" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -1274,7 +1366,7 @@
         <v>40</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X3" s="7">
         <v>51</v>
@@ -1286,19 +1378,61 @@
         <v>40</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="33">
         <v>0</v>
       </c>
-      <c r="AF3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="35">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="35">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="35">
+        <v>40</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="35">
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR3" s="35">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" s="35">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>73</v>
       </c>
@@ -1371,14 +1505,56 @@
       <c r="AC4" s="33">
         <v>23</v>
       </c>
-      <c r="AF4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="AG4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" s="35">
+        <v>19.5</v>
+      </c>
+      <c r="AJ4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="AL4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" s="35">
+        <v>19.5</v>
+      </c>
+      <c r="AO4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP4" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="AQ4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" s="35">
+        <v>14</v>
+      </c>
+      <c r="AT4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="AV4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW4" s="35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>44</v>
       </c>
@@ -1440,7 +1616,7 @@
         <v>6.8</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="7">
         <v>36</v>
@@ -1451,14 +1627,56 @@
       <c r="AC5" s="33">
         <v>6.8</v>
       </c>
-      <c r="AF5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE5" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>36</v>
+      </c>
+      <c r="AG5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH5" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="AJ5" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" s="35">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="AO5" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP5" s="35">
+        <v>36</v>
+      </c>
+      <c r="AQ5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR5" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="AT5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" s="35">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" s="35">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -1531,14 +1749,56 @@
       <c r="AC6" s="33">
         <v>6</v>
       </c>
-      <c r="AF6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH6" s="35">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK6" s="35">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" s="35">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP6" s="35">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR6" s="35">
+        <v>6</v>
+      </c>
+      <c r="AT6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU6" s="35">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW6" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -1611,14 +1871,56 @@
       <c r="AC7" s="33">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" s="35">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM7" s="35">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="35">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR7" s="35">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU7" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="AV7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
@@ -1645,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L8" s="23">
         <v>10</v>
@@ -1657,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="23">
         <v>45</v>
@@ -1665,13 +1967,13 @@
       <c r="R8" s="21"/>
       <c r="S8" s="7"/>
       <c r="U8" s="34" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="V8" s="33">
         <v>45</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X8" s="7">
         <f>X3-(SUM(X4:X7))</f>
@@ -1684,20 +1986,66 @@
         <v>9.4</v>
       </c>
       <c r="AB8" s="34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AC8" s="33" t="str">
         <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
         <v>0</v>
       </c>
-      <c r="AF8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="AG8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH8" s="35">
+        <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
+        <v>10.700000000000003</v>
+      </c>
+      <c r="AJ8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="AL8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM8" s="35" t="str">
+        <f>IF(AM3-(SUM(AM4:AM7))&lt;=0,"0",AM3-(SUM(AM4:AM7)))</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP8" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="AQ8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR8" s="35" t="str">
+        <f>IF(AR3-(SUM(AR4:AR7))&lt;=0,"0",AR3-(SUM(AR4:AR7)))</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU8" s="35">
+        <v>70</v>
+      </c>
+      <c r="AV8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW8" s="35" t="str">
+        <f>IF(AW3-(SUM(AW4:AW7))&lt;=0,"0",AW3-(SUM(AW4:AW7)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="7"/>
       <c r="C9" s="24" t="s">
@@ -1708,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G9" s="23">
         <v>12.6</v>
@@ -1747,21 +2095,43 @@
       <c r="W9" s="34"/>
       <c r="X9" s="7"/>
       <c r="Z9" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA9" s="23">
         <v>45</v>
       </c>
       <c r="AB9" s="34"/>
       <c r="AC9" s="33"/>
-      <c r="AF9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="35"/>
+      <c r="AJ9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK9" s="35">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="35"/>
+      <c r="AO9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP9" s="35">
+        <v>45</v>
+      </c>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="35"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="35"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
@@ -1846,174 +2216,292 @@
         <f>SUM(AC4:AC8)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="AF10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="AE10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" s="35">
+        <f>SUM(AF3:AF9)</f>
+        <v>156.10000000000002</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH10" s="35">
+        <f>SUM(AH4:AH8)</f>
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" s="35">
+        <f>SUM(AK3:AK9)</f>
+        <v>156.10000000000002</v>
+      </c>
+      <c r="AL10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM10" s="35">
+        <f>SUM(AM4:AM8)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AO10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" s="35">
+        <f>SUM(AP3:AP9)</f>
+        <v>156.10000000000002</v>
+      </c>
+      <c r="AQ10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR10" s="35">
+        <f>SUM(AR4:AR8)</f>
+        <v>28.8</v>
+      </c>
+      <c r="AT10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU10" s="35">
+        <f>SUM(AU3:AU9)</f>
+        <v>145.10000000000002</v>
+      </c>
+      <c r="AV10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW10" s="35">
+        <f>SUM(AW4:AW8)</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="40"/>
+      <c r="F11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36">
+      <c r="G11" s="39"/>
+      <c r="H11" s="40">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="K11" s="35" t="s">
+      <c r="I11" s="40"/>
+      <c r="K11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36">
+      <c r="L11" s="39"/>
+      <c r="M11" s="40">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="P11" s="35" t="s">
+      <c r="N11" s="40"/>
+      <c r="P11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="U11" s="35" t="s">
+      <c r="S11" s="40"/>
+      <c r="U11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36">
+      <c r="V11" s="39"/>
+      <c r="W11" s="40">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="36"/>
-      <c r="Z11" s="35" t="s">
+      <c r="X11" s="40"/>
+      <c r="Z11" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="36">
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="40">
         <f>SUM(AC10,AA10)</f>
         <v>193.90000000000003</v>
       </c>
-      <c r="AC11" s="36"/>
-      <c r="AG11">
-        <f>SUM(AG3:AG10)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="AC11" s="40"/>
+      <c r="AE11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="40">
+        <f>SUM(AH10,AF10)</f>
+        <v>201.10000000000002</v>
+      </c>
+      <c r="AH11" s="40"/>
+      <c r="AJ11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40">
+        <f>SUM(AM10,AK10)</f>
+        <v>190.40000000000003</v>
+      </c>
+      <c r="AM11" s="40"/>
+      <c r="AO11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="40">
+        <f>SUM(AR10,AP10)</f>
+        <v>184.90000000000003</v>
+      </c>
+      <c r="AR11" s="40"/>
+      <c r="AT11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="40">
+        <f>SUM(AW10,AU10)</f>
+        <v>173.90000000000003</v>
+      </c>
+      <c r="AW11" s="40"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36">
+      <c r="B12" s="41"/>
+      <c r="C12" s="40">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="40"/>
+      <c r="F12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36">
+      <c r="G12" s="41"/>
+      <c r="H12" s="40">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="K12" s="37" t="s">
+      <c r="I12" s="40"/>
+      <c r="K12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36">
+      <c r="L12" s="41"/>
+      <c r="M12" s="40">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="P12" s="37" t="s">
+      <c r="N12" s="40"/>
+      <c r="P12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="40">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="U12" s="37" t="s">
+      <c r="S12" s="40"/>
+      <c r="U12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="36">
+      <c r="V12" s="41"/>
+      <c r="W12" s="40">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="36"/>
-      <c r="Z12" s="37" t="s">
+      <c r="X12" s="40"/>
+      <c r="Z12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="40">
         <f>204-AB11</f>
         <v>10.099999999999966</v>
       </c>
-      <c r="AC12" s="36"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AC12" s="40"/>
+      <c r="AE12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="40">
+        <f>204-AG11</f>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="AH12" s="40"/>
+      <c r="AJ12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="40">
+        <f>204-AL11</f>
+        <v>13.599999999999966</v>
+      </c>
+      <c r="AM12" s="40"/>
+      <c r="AO12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="40">
+        <f>204-AQ11</f>
+        <v>19.099999999999966</v>
+      </c>
+      <c r="AR12" s="40"/>
+      <c r="AT12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="40">
+        <f>204-AV11</f>
+        <v>30.099999999999966</v>
+      </c>
+      <c r="AW12" s="40"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I13" s="5">
         <v>-4</v>
       </c>
       <c r="M13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N13" s="5">
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I14" s="5">
         <f>I3-4</f>
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N14" s="5">
         <f>N3-4</f>
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N15" s="5">
         <v>12</v>
       </c>
       <c r="R15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="S15" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="P16">
         <f>85+55</f>
         <v>140</v>
@@ -2021,11 +2509,46 @@
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="50">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2041,21 +2564,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,7 +2597,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0516 11:24</v>
+        <v>0525 11:51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2652,7 +3160,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0516 11:24</v>
+        <v>0525 11:51</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2911,50 +3419,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="42"/>
+      <c r="J1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="N1" s="42"/>
+      <c r="P1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="V1" s="39" t="s">
+      <c r="T1" s="42"/>
+      <c r="V1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="W1" s="42"/>
+      <c r="Y1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AC1" s="42"/>
+      <c r="AE1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="39"/>
+      <c r="AF1" s="42"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -4029,17 +4537,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096ABE5-9F5F-4E2C-AB67-5B96A1B8956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E12907-8C20-4EB8-8265-950FE3EE8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="113">
   <si>
     <t>보증금</t>
   </si>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>학자금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022_7월 지출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -443,6 +439,22 @@
   </si>
   <si>
     <t>2022_10월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상금 대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학자금 대출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 저축 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 달 저축</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
-  <dimension ref="A1:AX17"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AX18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,25 +1177,25 @@
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
       <c r="AE1" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
       <c r="AH1" s="38"/>
       <c r="AJ1" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK1" s="38"/>
       <c r="AL1" s="38"/>
       <c r="AM1" s="38"/>
       <c r="AO1" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP1" s="38"/>
       <c r="AQ1" s="38"/>
       <c r="AR1" s="38"/>
       <c r="AT1" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU1" s="38"/>
       <c r="AV1" s="38"/>
@@ -1393,7 +1406,7 @@
         <v>103</v>
       </c>
       <c r="AH3" s="35">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ3" s="37" t="s">
         <v>74</v>
@@ -1515,7 +1528,7 @@
         <v>75</v>
       </c>
       <c r="AH4" s="35">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="37" t="s">
         <v>73</v>
@@ -1616,10 +1629,10 @@
         <v>6.8</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="34" t="s">
         <v>76</v>
@@ -1628,10 +1641,10 @@
         <v>6.8</v>
       </c>
       <c r="AE5" s="37" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="AF5" s="35">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AG5" s="37" t="s">
         <v>76</v>
@@ -1640,10 +1653,10 @@
         <v>6.8</v>
       </c>
       <c r="AJ5" s="37" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="AK5" s="35">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="37" t="s">
         <v>76</v>
@@ -1652,10 +1665,10 @@
         <v>6.8</v>
       </c>
       <c r="AO5" s="37" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="AP5" s="35">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -2003,7 +2016,7 @@
       </c>
       <c r="AH8" s="35">
         <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
-        <v>10.700000000000003</v>
+        <v>6.2000000000000028</v>
       </c>
       <c r="AJ8" s="37" t="s">
         <v>86</v>
@@ -2207,7 +2220,7 @@
       </c>
       <c r="AA10" s="7">
         <f>SUM(AA3:AA9)</f>
-        <v>156.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="AB10" s="24" t="s">
         <v>83</v>
@@ -2221,21 +2234,21 @@
       </c>
       <c r="AF10" s="35">
         <f>SUM(AF3:AF9)</f>
-        <v>156.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="AG10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AH10" s="35">
         <f>SUM(AH4:AH8)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AK10" s="35">
         <f>SUM(AK3:AK9)</f>
-        <v>156.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="AL10" s="24" t="s">
         <v>83</v>
@@ -2249,7 +2262,7 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>156.10000000000002</v>
+        <v>140.10000000000002</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
@@ -2325,7 +2338,7 @@
       <c r="AA11" s="39"/>
       <c r="AB11" s="40">
         <f>SUM(AC10,AA10)</f>
-        <v>193.90000000000003</v>
+        <v>177.90000000000003</v>
       </c>
       <c r="AC11" s="40"/>
       <c r="AE11" s="39" t="s">
@@ -2334,7 +2347,7 @@
       <c r="AF11" s="39"/>
       <c r="AG11" s="40">
         <f>SUM(AH10,AF10)</f>
-        <v>201.10000000000002</v>
+        <v>181.10000000000002</v>
       </c>
       <c r="AH11" s="40"/>
       <c r="AJ11" s="39" t="s">
@@ -2343,7 +2356,7 @@
       <c r="AK11" s="39"/>
       <c r="AL11" s="40">
         <f>SUM(AM10,AK10)</f>
-        <v>190.40000000000003</v>
+        <v>174.40000000000003</v>
       </c>
       <c r="AM11" s="40"/>
       <c r="AO11" s="39" t="s">
@@ -2352,7 +2365,7 @@
       <c r="AP11" s="39"/>
       <c r="AQ11" s="40">
         <f>SUM(AR10,AP10)</f>
-        <v>184.90000000000003</v>
+        <v>168.90000000000003</v>
       </c>
       <c r="AR11" s="40"/>
       <c r="AT11" s="39" t="s">
@@ -2417,7 +2430,7 @@
       <c r="AA12" s="41"/>
       <c r="AB12" s="40">
         <f>204-AB11</f>
-        <v>10.099999999999966</v>
+        <v>26.099999999999966</v>
       </c>
       <c r="AC12" s="40"/>
       <c r="AE12" s="41" t="s">
@@ -2426,7 +2439,7 @@
       <c r="AF12" s="41"/>
       <c r="AG12" s="40">
         <f>204-AG11</f>
-        <v>2.8999999999999773</v>
+        <v>22.899999999999977</v>
       </c>
       <c r="AH12" s="40"/>
       <c r="AJ12" s="41" t="s">
@@ -2435,7 +2448,7 @@
       <c r="AK12" s="41"/>
       <c r="AL12" s="40">
         <f>204-AL11</f>
-        <v>13.599999999999966</v>
+        <v>29.599999999999966</v>
       </c>
       <c r="AM12" s="40"/>
       <c r="AO12" s="41" t="s">
@@ -2444,7 +2457,7 @@
       <c r="AP12" s="41"/>
       <c r="AQ12" s="40">
         <f>204-AQ11</f>
-        <v>19.099999999999966</v>
+        <v>35.099999999999966</v>
       </c>
       <c r="AR12" s="40"/>
       <c r="AT12" s="41" t="s">
@@ -2470,6 +2483,33 @@
       <c r="N13" s="5">
         <v>-4</v>
       </c>
+      <c r="Z13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF13">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP13">
+        <v>20</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU13">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
@@ -2485,6 +2525,41 @@
       <c r="N14" s="5">
         <f>N3-4</f>
         <v>27</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14">
+        <f>AA5+AA13</f>
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF14">
+        <f>AF5+AF13</f>
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK14">
+        <f>AF14+AK13</f>
+        <v>60</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP14">
+        <f>AK14+AP13</f>
+        <v>80</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU14">
+        <f>AP14+AU13</f>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -2506,49 +2581,32 @@
         <f>85+55</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="14:27" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="Z17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="14:27" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <f>AA16-AA17</f>
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2564,6 +2622,41 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,6 +2669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA26D38-3719-480A-B836-26E5467B0775}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2597,7 +2691,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0525 11:51</v>
+        <v>0526 18:41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3140,6 +3234,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F67C84-A2BC-FF44-B6AF-8580113D870D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3160,7 +3255,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0525 11:51</v>
+        <v>0526 18:41</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3378,6 +3473,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FA3CC-0FF4-8D48-B65F-45754DAD7FB5}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4537,17 +4633,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E12907-8C20-4EB8-8265-950FE3EE8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908EC79-AD96-4F9D-82F0-792D2C07BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:AX18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM23" sqref="AM23"/>
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1406,7 @@
         <v>103</v>
       </c>
       <c r="AH3" s="35">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ3" s="37" t="s">
         <v>74</v>
@@ -1668,7 +1668,7 @@
         <v>44</v>
       </c>
       <c r="AP5" s="35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="AH8" s="35">
         <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
-        <v>6.2000000000000028</v>
+        <v>10.200000000000003</v>
       </c>
       <c r="AJ8" s="37" t="s">
         <v>86</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="AH10" s="35">
         <f>SUM(AH4:AH8)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ10" s="24" t="s">
         <v>84</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>140.10000000000002</v>
+        <v>145.10000000000002</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
@@ -2347,7 +2347,7 @@
       <c r="AF11" s="39"/>
       <c r="AG11" s="40">
         <f>SUM(AH10,AF10)</f>
-        <v>181.10000000000002</v>
+        <v>185.10000000000002</v>
       </c>
       <c r="AH11" s="40"/>
       <c r="AJ11" s="39" t="s">
@@ -2365,7 +2365,7 @@
       <c r="AP11" s="39"/>
       <c r="AQ11" s="40">
         <f>SUM(AR10,AP10)</f>
-        <v>168.90000000000003</v>
+        <v>173.90000000000003</v>
       </c>
       <c r="AR11" s="40"/>
       <c r="AT11" s="39" t="s">
@@ -2439,7 +2439,7 @@
       <c r="AF12" s="41"/>
       <c r="AG12" s="40">
         <f>204-AG11</f>
-        <v>22.899999999999977</v>
+        <v>18.899999999999977</v>
       </c>
       <c r="AH12" s="40"/>
       <c r="AJ12" s="41" t="s">
@@ -2457,7 +2457,7 @@
       <c r="AP12" s="41"/>
       <c r="AQ12" s="40">
         <f>204-AQ11</f>
-        <v>35.099999999999966</v>
+        <v>30.099999999999966</v>
       </c>
       <c r="AR12" s="40"/>
       <c r="AT12" s="41" t="s">
@@ -2607,6 +2607,41 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2622,41 +2657,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,7 +2691,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0526 18:41</v>
+        <v>0530 11:46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3255,7 +3255,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0526 18:41</v>
+        <v>0530 11:46</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4633,17 +4633,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908EC79-AD96-4F9D-82F0-792D2C07BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE88E43-E627-45C6-BDC2-A487E9868A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="120">
   <si>
     <t>보증금</t>
   </si>
@@ -455,6 +455,34 @@
   </si>
   <si>
     <t>이번 달 저축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리안헤어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할맥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX18"/>
+  <dimension ref="A1:AX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1652,12 +1680,8 @@
       <c r="AH5" s="35">
         <v>6.8</v>
       </c>
-      <c r="AJ5" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK5" s="35">
-        <v>20</v>
-      </c>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="35"/>
       <c r="AL5" s="37" t="s">
         <v>76</v>
       </c>
@@ -2005,12 +2029,8 @@
         <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="35">
-        <v>9.4</v>
-      </c>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="35"/>
       <c r="AG8" s="37" t="s">
         <v>104</v>
       </c>
@@ -2234,7 +2254,7 @@
       </c>
       <c r="AF10" s="35">
         <f>SUM(AF3:AF9)</f>
-        <v>140.10000000000002</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="AG10" s="24" t="s">
         <v>83</v>
@@ -2248,7 +2268,7 @@
       </c>
       <c r="AK10" s="35">
         <f>SUM(AK3:AK9)</f>
-        <v>140.10000000000002</v>
+        <v>120.10000000000001</v>
       </c>
       <c r="AL10" s="24" t="s">
         <v>83</v>
@@ -2347,7 +2367,7 @@
       <c r="AF11" s="39"/>
       <c r="AG11" s="40">
         <f>SUM(AH10,AF10)</f>
-        <v>185.10000000000002</v>
+        <v>175.7</v>
       </c>
       <c r="AH11" s="40"/>
       <c r="AJ11" s="39" t="s">
@@ -2356,7 +2376,7 @@
       <c r="AK11" s="39"/>
       <c r="AL11" s="40">
         <f>SUM(AM10,AK10)</f>
-        <v>174.40000000000003</v>
+        <v>154.4</v>
       </c>
       <c r="AM11" s="40"/>
       <c r="AO11" s="39" t="s">
@@ -2429,8 +2449,8 @@
       </c>
       <c r="AA12" s="41"/>
       <c r="AB12" s="40">
-        <f>204-AB11</f>
-        <v>26.099999999999966</v>
+        <f>202-AB11</f>
+        <v>24.099999999999966</v>
       </c>
       <c r="AC12" s="40"/>
       <c r="AE12" s="41" t="s">
@@ -2439,7 +2459,7 @@
       <c r="AF12" s="41"/>
       <c r="AG12" s="40">
         <f>204-AG11</f>
-        <v>18.899999999999977</v>
+        <v>28.300000000000011</v>
       </c>
       <c r="AH12" s="40"/>
       <c r="AJ12" s="41" t="s">
@@ -2448,7 +2468,7 @@
       <c r="AK12" s="41"/>
       <c r="AL12" s="40">
         <f>204-AL11</f>
-        <v>29.599999999999966</v>
+        <v>49.599999999999994</v>
       </c>
       <c r="AM12" s="40"/>
       <c r="AO12" s="41" t="s">
@@ -2588,7 +2608,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="14:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:37" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2599,10 +2619,85 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="14:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:37" x14ac:dyDescent="0.3">
       <c r="AA18">
         <f>AA16-AA17</f>
         <v>155</v>
+      </c>
+      <c r="AK18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AK19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AK20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF24">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="25" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AE28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AF29">
+        <f>SUM(AF22:AF28)</f>
+        <v>14.400000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2786,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0530 11:46</v>
+        <v>0610 12:35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3255,7 +3350,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0530 11:46</v>
+        <v>0610 12:35</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE88E43-E627-45C6-BDC2-A487E9868A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18887E-39C9-44A8-9E37-18C1BDD19809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="121">
   <si>
     <t>보증금</t>
   </si>
@@ -483,6 +483,10 @@
   </si>
   <si>
     <t>씨유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시불 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1109,8 +1113,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1458,7 +1462,7 @@
         <v>103</v>
       </c>
       <c r="AR3" s="35">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT3" s="37" t="s">
         <v>74</v>
@@ -1580,7 +1584,7 @@
         <v>75</v>
       </c>
       <c r="AR4" s="35">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AT4" s="37" t="s">
         <v>73</v>
@@ -1689,10 +1693,10 @@
         <v>6.8</v>
       </c>
       <c r="AO5" s="37" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AP5" s="35">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -1810,12 +1814,8 @@
       <c r="AM6" s="35">
         <v>6</v>
       </c>
-      <c r="AO6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" s="35">
-        <v>15</v>
-      </c>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="35"/>
       <c r="AQ6" s="37" t="s">
         <v>77</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>96</v>
       </c>
       <c r="AP9" s="35">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AQ9" s="37"/>
       <c r="AR9" s="35"/>
@@ -2282,14 +2282,14 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>145.10000000000002</v>
+        <v>111.10000000000001</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AR10" s="35">
         <f>SUM(AR4:AR8)</f>
-        <v>28.8</v>
+        <v>47.8</v>
       </c>
       <c r="AT10" s="24" t="s">
         <v>84</v>
@@ -2385,7 +2385,7 @@
       <c r="AP11" s="39"/>
       <c r="AQ11" s="40">
         <f>SUM(AR10,AP10)</f>
-        <v>173.90000000000003</v>
+        <v>158.9</v>
       </c>
       <c r="AR11" s="40"/>
       <c r="AT11" s="39" t="s">
@@ -2477,7 +2477,7 @@
       <c r="AP12" s="41"/>
       <c r="AQ12" s="40">
         <f>204-AQ11</f>
-        <v>30.099999999999966</v>
+        <v>45.099999999999994</v>
       </c>
       <c r="AR12" s="40"/>
       <c r="AT12" s="41" t="s">
@@ -2702,41 +2702,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2752,6 +2717,41 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2786,7 +2786,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0610 12:35</v>
+        <v>0817 10:44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0610 12:35</v>
+        <v>0817 10:44</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4728,17 +4728,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18887E-39C9-44A8-9E37-18C1BDD19809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9287F8-C1A4-4881-B5F7-10CFA8EFD817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="123">
   <si>
     <t>보증금</t>
   </si>
@@ -486,7 +486,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일시불 값</t>
+    <t>일시불[핸드폰x]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너스 통장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +784,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1134,7 @@
   <dimension ref="A1:AX29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,66 +1192,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="F1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="P1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Z1" s="38" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Z1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AE1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AJ1" s="38" t="s">
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AO1" s="38" t="s">
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AO1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AT1" s="38" t="s">
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AT1" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1462,13 +1482,13 @@
         <v>103</v>
       </c>
       <c r="AR3" s="35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AT3" s="37" t="s">
         <v>74</v>
       </c>
       <c r="AU3" s="35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AV3" s="24" t="s">
         <v>103</v>
@@ -1584,19 +1604,19 @@
         <v>75</v>
       </c>
       <c r="AR4" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AT4" s="37" t="s">
         <v>73</v>
       </c>
       <c r="AU4" s="35">
-        <v>7.7</v>
+        <v>13</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>75</v>
       </c>
       <c r="AW4" s="35">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
@@ -1692,11 +1712,11 @@
       <c r="AM5" s="35">
         <v>6.8</v>
       </c>
-      <c r="AO5" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP5" s="35">
-        <v>19</v>
+      <c r="AO5" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP5" s="38">
+        <v>9.4</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -1704,11 +1724,11 @@
       <c r="AR5" s="35">
         <v>6.8</v>
       </c>
-      <c r="AT5" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU5" s="35">
-        <v>15</v>
+      <c r="AT5" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="38">
+        <v>9.4</v>
       </c>
       <c r="AV5" s="37" t="s">
         <v>76</v>
@@ -1814,19 +1834,23 @@
       <c r="AM6" s="35">
         <v>6</v>
       </c>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="35"/>
+      <c r="AO6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>20</v>
+      </c>
       <c r="AQ6" s="37" t="s">
         <v>77</v>
       </c>
       <c r="AR6" s="35">
         <v>6</v>
       </c>
-      <c r="AT6" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="35">
-        <v>3</v>
+      <c r="AT6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU6" s="38">
+        <v>32</v>
       </c>
       <c r="AV6" s="37" t="s">
         <v>77</v>
@@ -1932,23 +1956,19 @@
       <c r="AM7" s="35">
         <v>2</v>
       </c>
-      <c r="AO7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP7" s="35">
-        <v>3</v>
-      </c>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="38"/>
       <c r="AQ7" s="37" t="s">
         <v>78</v>
       </c>
       <c r="AR7" s="35">
         <v>2</v>
       </c>
-      <c r="AT7" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU7" s="35">
-        <v>9.4</v>
+      <c r="AT7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU7" s="38">
+        <v>20</v>
       </c>
       <c r="AV7" s="37" t="s">
         <v>78</v>
@@ -2051,24 +2071,20 @@
         <f>IF(AM3-(SUM(AM4:AM7))&lt;=0,"0",AM3-(SUM(AM4:AM7)))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP8" s="35">
-        <v>9.4</v>
-      </c>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="35"/>
       <c r="AQ8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR8" s="35" t="str">
-        <f>IF(AR3-(SUM(AR4:AR7))&lt;=0,"0",AR3-(SUM(AR4:AR7)))</f>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU8" s="35">
-        <v>70</v>
+        <v>120</v>
+      </c>
+      <c r="AR8" s="35">
+        <f>AR3-SUM(AR5,AR7)</f>
+        <v>28.2</v>
+      </c>
+      <c r="AT8" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU8" s="38">
+        <v>10</v>
       </c>
       <c r="AV8" s="37" t="s">
         <v>104</v>
@@ -2151,12 +2167,8 @@
       </c>
       <c r="AL9" s="37"/>
       <c r="AM9" s="35"/>
-      <c r="AO9" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP9" s="35">
-        <v>32</v>
-      </c>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="35"/>
       <c r="AQ9" s="37"/>
       <c r="AR9" s="35"/>
       <c r="AT9" s="37"/>
@@ -2282,213 +2294,213 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>111.10000000000001</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AR10" s="35">
         <f>SUM(AR4:AR8)</f>
-        <v>47.8</v>
+        <v>77</v>
       </c>
       <c r="AT10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AU10" s="35">
         <f>SUM(AU3:AU9)</f>
-        <v>145.10000000000002</v>
+        <v>134.4</v>
       </c>
       <c r="AV10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AW10" s="35">
         <f>SUM(AW4:AW8)</f>
-        <v>28.8</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="44"/>
+      <c r="F11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40">
+      <c r="G11" s="43"/>
+      <c r="H11" s="44">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="K11" s="39" t="s">
+      <c r="I11" s="44"/>
+      <c r="K11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="P11" s="39" t="s">
+      <c r="N11" s="44"/>
+      <c r="P11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="40"/>
-      <c r="U11" s="39" t="s">
+      <c r="S11" s="44"/>
+      <c r="U11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40">
+      <c r="V11" s="43"/>
+      <c r="W11" s="44">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="40"/>
-      <c r="Z11" s="39" t="s">
+      <c r="X11" s="44"/>
+      <c r="Z11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="40">
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="44">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="40"/>
-      <c r="AE11" s="39" t="s">
+      <c r="AC11" s="44"/>
+      <c r="AE11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="40">
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="44">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="40"/>
-      <c r="AJ11" s="39" t="s">
+      <c r="AH11" s="44"/>
+      <c r="AJ11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="40">
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="44">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="40"/>
-      <c r="AO11" s="39" t="s">
+      <c r="AM11" s="44"/>
+      <c r="AO11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="40">
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="44">
         <f>SUM(AR10,AP10)</f>
-        <v>158.9</v>
-      </c>
-      <c r="AR11" s="40"/>
-      <c r="AT11" s="39" t="s">
+        <v>154.1</v>
+      </c>
+      <c r="AR11" s="44"/>
+      <c r="AT11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="40">
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="44">
         <f>SUM(AW10,AU10)</f>
-        <v>173.90000000000003</v>
-      </c>
-      <c r="AW11" s="40"/>
+        <v>169.2</v>
+      </c>
+      <c r="AW11" s="44"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="40">
+      <c r="B12" s="45"/>
+      <c r="C12" s="44">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="F12" s="41" t="s">
+      <c r="D12" s="44"/>
+      <c r="F12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40">
+      <c r="G12" s="45"/>
+      <c r="H12" s="44">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="K12" s="41" t="s">
+      <c r="I12" s="44"/>
+      <c r="K12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="40">
+      <c r="L12" s="45"/>
+      <c r="M12" s="44">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="P12" s="41" t="s">
+      <c r="N12" s="44"/>
+      <c r="P12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="40">
+      <c r="Q12" s="45"/>
+      <c r="R12" s="44">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="40"/>
-      <c r="U12" s="41" t="s">
+      <c r="S12" s="44"/>
+      <c r="U12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="40">
+      <c r="V12" s="45"/>
+      <c r="W12" s="44">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="40"/>
-      <c r="Z12" s="41" t="s">
+      <c r="X12" s="44"/>
+      <c r="Z12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="40">
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="44">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="40"/>
-      <c r="AE12" s="41" t="s">
+      <c r="AC12" s="44"/>
+      <c r="AE12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="40">
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="44">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="40"/>
-      <c r="AJ12" s="41" t="s">
+      <c r="AH12" s="44"/>
+      <c r="AJ12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="40">
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="44">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="40"/>
-      <c r="AO12" s="41" t="s">
+      <c r="AM12" s="44"/>
+      <c r="AO12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="40">
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="44">
         <f>204-AQ11</f>
-        <v>45.099999999999994</v>
-      </c>
-      <c r="AR12" s="40"/>
-      <c r="AT12" s="41" t="s">
+        <v>49.900000000000006</v>
+      </c>
+      <c r="AR12" s="44"/>
+      <c r="AT12" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="40">
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="44">
         <f>204-AV11</f>
-        <v>30.099999999999966</v>
-      </c>
-      <c r="AW12" s="40"/>
+        <v>34.800000000000011</v>
+      </c>
+      <c r="AW12" s="44"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -2786,7 +2798,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0817 10:44</v>
+        <v>0818 10:33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3350,7 +3362,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0817 10:44</v>
+        <v>0818 10:33</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3610,50 +3622,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="J1" s="42" t="s">
+      <c r="H1" s="46"/>
+      <c r="J1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="46"/>
+      <c r="M1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="P1" s="42" t="s">
+      <c r="N1" s="46"/>
+      <c r="P1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="Q1" s="46"/>
+      <c r="S1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="V1" s="42" t="s">
+      <c r="T1" s="46"/>
+      <c r="V1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="42" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AB1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AE1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="42"/>
+      <c r="AF1" s="46"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9287F8-C1A4-4881-B5F7-10CFA8EFD817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F7104-2B96-42F2-A6E5-204642B120D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="133">
   <si>
     <t>보증금</t>
   </si>
@@ -495,6 +495,39 @@
   </si>
   <si>
     <t>대출이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>현재 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1133,8 +1166,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,7 +1515,7 @@
         <v>103</v>
       </c>
       <c r="AR3" s="35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AT3" s="37" t="s">
         <v>74</v>
@@ -1838,7 +1871,7 @@
         <v>121</v>
       </c>
       <c r="AP6" s="40">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ6" s="37" t="s">
         <v>77</v>
@@ -2078,7 +2111,7 @@
       </c>
       <c r="AR8" s="35">
         <f>AR3-SUM(AR5,AR7)</f>
-        <v>28.2</v>
+        <v>18.2</v>
       </c>
       <c r="AT8" s="39" t="s">
         <v>122</v>
@@ -2294,14 +2327,14 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>77.099999999999994</v>
+        <v>97.1</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AR10" s="35">
-        <f>SUM(AR4:AR8)</f>
-        <v>77</v>
+        <f>SUM(AR3+AR4)</f>
+        <v>61</v>
       </c>
       <c r="AT10" s="24" t="s">
         <v>84</v>
@@ -2397,7 +2430,7 @@
       <c r="AP11" s="43"/>
       <c r="AQ11" s="44">
         <f>SUM(AR10,AP10)</f>
-        <v>154.1</v>
+        <v>158.1</v>
       </c>
       <c r="AR11" s="44"/>
       <c r="AT11" s="43" t="s">
@@ -2489,7 +2522,7 @@
       <c r="AP12" s="45"/>
       <c r="AQ12" s="44">
         <f>204-AQ11</f>
-        <v>49.900000000000006</v>
+        <v>45.900000000000006</v>
       </c>
       <c r="AR12" s="44"/>
       <c r="AT12" s="45" t="s">
@@ -2530,18 +2563,6 @@
       <c r="AK13">
         <v>20</v>
       </c>
-      <c r="AO13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP13">
-        <v>20</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU13">
-        <v>70</v>
-      </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
@@ -2580,18 +2601,17 @@
         <v>60</v>
       </c>
       <c r="AO14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AP14">
-        <f>AK14+AP13</f>
-        <v>80</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU14">
-        <f>AP14+AU13</f>
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR14" s="5">
+        <f>-300+AP14</f>
+        <v>-260</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -2606,6 +2626,16 @@
       </c>
       <c r="S15" s="5">
         <v>12</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP15">
+        <v>40</v>
+      </c>
+      <c r="AR15" s="5">
+        <f>AR14+AP15</f>
+        <v>-220</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
@@ -2619,8 +2649,18 @@
       <c r="AA16">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP16">
+        <v>40</v>
+      </c>
+      <c r="AR16" s="5">
+        <f t="shared" ref="AR16:AR22" si="0">AR15+AP16</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="17" spans="14:44" x14ac:dyDescent="0.3">
       <c r="N17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2630,8 +2670,18 @@
       <c r="AA17">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP17">
+        <v>30</v>
+      </c>
+      <c r="AR17" s="5">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="18" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AA18">
         <f>AA16-AA17</f>
         <v>155</v>
@@ -2639,26 +2689,78 @@
       <c r="AK18">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP18">
+        <v>30</v>
+      </c>
+      <c r="AR18" s="5">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="19" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AK19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP19">
+        <v>30</v>
+      </c>
+      <c r="AR19" s="5">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="20" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AK20">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP20">
+        <v>30</v>
+      </c>
+      <c r="AR20" s="5">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="21" spans="14:44" x14ac:dyDescent="0.3">
+      <c r="AO21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP21">
+        <v>30</v>
+      </c>
+      <c r="AR21" s="5">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE22" t="s">
         <v>113</v>
       </c>
       <c r="AF22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="14:37" x14ac:dyDescent="0.3">
+      <c r="AO22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP22">
+        <v>30</v>
+      </c>
+      <c r="AR22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE23" t="s">
         <v>114</v>
       </c>
@@ -2666,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE24" t="s">
         <v>115</v>
       </c>
@@ -2674,7 +2776,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="25" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE25" t="s">
         <v>116</v>
       </c>
@@ -2682,7 +2784,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE26" t="s">
         <v>117</v>
       </c>
@@ -2690,7 +2792,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE27" t="s">
         <v>118</v>
       </c>
@@ -2698,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE28" t="s">
         <v>119</v>
       </c>
@@ -2706,7 +2808,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="14:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AF29">
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
@@ -2798,7 +2900,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0818 10:33</v>
+        <v>0819 17:14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3362,7 +3464,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0818 10:33</v>
+        <v>0819 17:14</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F7104-2B96-42F2-A6E5-204642B120D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC41F54-52BC-4B56-8979-1D906292BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="142">
   <si>
     <t>보증금</t>
   </si>
@@ -524,10 +524,47 @@
     <t>4월</t>
   </si>
   <si>
-    <t>5월</t>
-  </si>
-  <si>
-    <t>현재 값</t>
+    <t>2022_11월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_12월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023_1월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사 월세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중개소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출 이자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너스 통장 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-300 예상 가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저축 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +870,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX29"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1222,71 +1271,104 @@
     <col min="48" max="48" width="14.625" customWidth="1"/>
     <col min="49" max="49" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="2" style="2" customWidth="1"/>
+    <col min="51" max="51" width="14.625" customWidth="1"/>
+    <col min="52" max="52" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.625" customWidth="1"/>
+    <col min="54" max="54" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2" style="2" customWidth="1"/>
+    <col min="56" max="56" width="14.625" customWidth="1"/>
+    <col min="57" max="57" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.625" customWidth="1"/>
+    <col min="59" max="59" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2" style="2" customWidth="1"/>
+    <col min="61" max="61" width="14.625" customWidth="1"/>
+    <col min="62" max="62" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.625" customWidth="1"/>
+    <col min="64" max="64" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="F1" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="K1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="P1" s="42" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="P1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Z1" s="42" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Z1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AE1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AJ1" s="42" t="s">
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AJ1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AO1" s="42" t="s">
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AO1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AT1" s="42" t="s">
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AT1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AY1" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BD1" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BI1" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>70</v>
       </c>
@@ -1407,8 +1489,44 @@
       <c r="AW2" s="36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL2" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -1515,13 +1633,13 @@
         <v>103</v>
       </c>
       <c r="AR3" s="35">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AT3" s="37" t="s">
         <v>74</v>
       </c>
       <c r="AU3" s="35">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AV3" s="24" t="s">
         <v>103</v>
@@ -1529,8 +1647,44 @@
       <c r="AW3" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ3" s="43">
+        <v>60</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB3" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE3" s="43">
+        <v>60</v>
+      </c>
+      <c r="BF3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG3" s="43">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ3" s="43">
+        <v>60</v>
+      </c>
+      <c r="BK3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL3" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>73</v>
       </c>
@@ -1643,7 +1797,7 @@
         <v>73</v>
       </c>
       <c r="AU4" s="35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>75</v>
@@ -1651,8 +1805,44 @@
       <c r="AW4" s="35">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ4" s="43">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB4" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="BD4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE4" s="43">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG4" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="BI4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ4" s="43">
+        <v>10</v>
+      </c>
+      <c r="BK4" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL4" s="43">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>44</v>
       </c>
@@ -1745,11 +1935,11 @@
       <c r="AM5" s="35">
         <v>6.8</v>
       </c>
-      <c r="AO5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP5" s="38">
-        <v>9.4</v>
+      <c r="AO5" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>50</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -1757,11 +1947,11 @@
       <c r="AR5" s="35">
         <v>6.8</v>
       </c>
-      <c r="AT5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU5" s="38">
-        <v>9.4</v>
+      <c r="AT5" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU5" s="43">
+        <v>32</v>
       </c>
       <c r="AV5" s="37" t="s">
         <v>76</v>
@@ -1769,8 +1959,44 @@
       <c r="AW5" s="35">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY5" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ5" s="43">
+        <v>32</v>
+      </c>
+      <c r="BA5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB5" s="43">
+        <v>6.8</v>
+      </c>
+      <c r="BD5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE5" s="43">
+        <v>50</v>
+      </c>
+      <c r="BF5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG5" s="43">
+        <v>6.8</v>
+      </c>
+      <c r="BI5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ5" s="43">
+        <v>60</v>
+      </c>
+      <c r="BK5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL5" s="43">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -1867,11 +2093,11 @@
       <c r="AM6" s="35">
         <v>6</v>
       </c>
-      <c r="AO6" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP6" s="40">
-        <v>40</v>
+      <c r="AO6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP6" s="43">
+        <v>20</v>
       </c>
       <c r="AQ6" s="37" t="s">
         <v>77</v>
@@ -1879,11 +2105,11 @@
       <c r="AR6" s="35">
         <v>6</v>
       </c>
-      <c r="AT6" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU6" s="38">
-        <v>32</v>
+      <c r="AT6" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU6" s="43">
+        <v>20</v>
       </c>
       <c r="AV6" s="37" t="s">
         <v>77</v>
@@ -1891,8 +2117,44 @@
       <c r="AW6" s="35">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY6" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ6" s="43">
+        <v>20</v>
+      </c>
+      <c r="BA6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB6" s="43">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE6" s="43">
+        <v>6</v>
+      </c>
+      <c r="BF6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG6" s="43">
+        <v>6</v>
+      </c>
+      <c r="BI6" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ6" s="43">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL6" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -1997,11 +2259,11 @@
       <c r="AR7" s="35">
         <v>2</v>
       </c>
-      <c r="AT7" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU7" s="38">
-        <v>20</v>
+      <c r="AT7" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU7" s="43">
+        <v>8</v>
       </c>
       <c r="AV7" s="37" t="s">
         <v>78</v>
@@ -2009,8 +2271,44 @@
       <c r="AW7" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY7" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ7" s="43">
+        <v>6</v>
+      </c>
+      <c r="BA7" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB7" s="43">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE7" s="43">
+        <v>10</v>
+      </c>
+      <c r="BF7" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG7" s="43">
+        <v>2</v>
+      </c>
+      <c r="BI7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ7" s="43">
+        <v>10</v>
+      </c>
+      <c r="BK7" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="BL7" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
@@ -2111,12 +2409,12 @@
       </c>
       <c r="AR8" s="35">
         <f>AR3-SUM(AR5,AR7)</f>
-        <v>18.2</v>
-      </c>
-      <c r="AT8" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU8" s="38">
+        <v>13.2</v>
+      </c>
+      <c r="AT8" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU8" s="43">
         <v>10</v>
       </c>
       <c r="AV8" s="37" t="s">
@@ -2126,8 +2424,39 @@
         <f>IF(AW3-(SUM(AW4:AW7))&lt;=0,"0",AW3-(SUM(AW4:AW7)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY8" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ8" s="43">
+        <v>10</v>
+      </c>
+      <c r="BA8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB8" s="43" t="str">
+        <f>IF(BB3-(SUM(BB4:BB7))&lt;=0,"0",BB3-(SUM(BB4:BB7)))</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG8" s="43" t="str">
+        <f>IF(BG3-(SUM(BG4:BG7))&lt;=0,"0",BG3-(SUM(BG4:BG7)))</f>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL8" s="43" t="str">
+        <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="7"/>
       <c r="C9" s="24" t="s">
@@ -2208,8 +2537,20 @@
       <c r="AU9" s="35"/>
       <c r="AV9" s="37"/>
       <c r="AW9" s="35"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="43"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="43"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="44"/>
+      <c r="BL9" s="43"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
@@ -2327,21 +2668,21 @@
       </c>
       <c r="AP10" s="35">
         <f>SUM(AP3:AP9)</f>
-        <v>97.1</v>
+        <v>117.7</v>
       </c>
       <c r="AQ10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AR10" s="35">
         <f>SUM(AR3+AR4)</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AT10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AU10" s="35">
         <f>SUM(AU3:AU9)</f>
-        <v>134.4</v>
+        <v>140</v>
       </c>
       <c r="AV10" s="24" t="s">
         <v>83</v>
@@ -2350,192 +2691,288 @@
         <f>SUM(AW4:AW8)</f>
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="AY10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" s="43">
+        <f>SUM(AZ3:AZ9)</f>
+        <v>138</v>
+      </c>
+      <c r="BA10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB10" s="43">
+        <f>SUM(BB4:BB8)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="BD10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" s="43">
+        <f>SUM(BE3:BE9)</f>
+        <v>136</v>
+      </c>
+      <c r="BF10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" s="43">
+        <f>SUM(BG4:BG8)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="BI10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ10" s="43">
+        <f>SUM(BJ3:BJ9)</f>
+        <v>146</v>
+      </c>
+      <c r="BK10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL10" s="43">
+        <f>SUM(BL4:BL8)</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="48"/>
+      <c r="F11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44">
+      <c r="G11" s="47"/>
+      <c r="H11" s="48">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="K11" s="43" t="s">
+      <c r="I11" s="48"/>
+      <c r="K11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="P11" s="43" t="s">
+      <c r="N11" s="48"/>
+      <c r="P11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44">
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="44"/>
-      <c r="U11" s="43" t="s">
+      <c r="S11" s="48"/>
+      <c r="U11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44">
+      <c r="V11" s="47"/>
+      <c r="W11" s="48">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="44"/>
-      <c r="Z11" s="43" t="s">
+      <c r="X11" s="48"/>
+      <c r="Z11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44">
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="48">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="44"/>
-      <c r="AE11" s="43" t="s">
+      <c r="AC11" s="48"/>
+      <c r="AE11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="44">
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="48">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="44"/>
-      <c r="AJ11" s="43" t="s">
+      <c r="AH11" s="48"/>
+      <c r="AJ11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="44">
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="48">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="44"/>
-      <c r="AO11" s="43" t="s">
+      <c r="AM11" s="48"/>
+      <c r="AO11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="44">
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="48">
         <f>SUM(AR10,AP10)</f>
-        <v>158.1</v>
-      </c>
-      <c r="AR11" s="44"/>
-      <c r="AT11" s="43" t="s">
+        <v>173.7</v>
+      </c>
+      <c r="AR11" s="48"/>
+      <c r="AT11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="44">
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="48">
         <f>SUM(AW10,AU10)</f>
-        <v>169.2</v>
-      </c>
-      <c r="AW11" s="44"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+        <v>174.8</v>
+      </c>
+      <c r="AW11" s="48"/>
+      <c r="AY11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="48">
+        <f>SUM(BB10,AZ10)</f>
+        <v>170.3</v>
+      </c>
+      <c r="BB11" s="48"/>
+      <c r="BD11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="48">
+        <f>SUM(BG10,BE10)</f>
+        <v>168.3</v>
+      </c>
+      <c r="BG11" s="48"/>
+      <c r="BI11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="48">
+        <f>SUM(BL10,BJ10)</f>
+        <v>174.3</v>
+      </c>
+      <c r="BL11" s="48"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44">
+      <c r="B12" s="49"/>
+      <c r="C12" s="48">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="F12" s="45" t="s">
+      <c r="D12" s="48"/>
+      <c r="F12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="44">
+      <c r="G12" s="49"/>
+      <c r="H12" s="48">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="K12" s="45" t="s">
+      <c r="I12" s="48"/>
+      <c r="K12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="44">
+      <c r="L12" s="49"/>
+      <c r="M12" s="48">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="P12" s="45" t="s">
+      <c r="N12" s="48"/>
+      <c r="P12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="44">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="48">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="U12" s="45" t="s">
+      <c r="S12" s="48"/>
+      <c r="U12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="45"/>
-      <c r="W12" s="44">
+      <c r="V12" s="49"/>
+      <c r="W12" s="48">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="44"/>
-      <c r="Z12" s="45" t="s">
+      <c r="X12" s="48"/>
+      <c r="Z12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="44">
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="48">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="44"/>
-      <c r="AE12" s="45" t="s">
+      <c r="AC12" s="48"/>
+      <c r="AE12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="44">
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="48">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="44"/>
-      <c r="AJ12" s="45" t="s">
+      <c r="AH12" s="48"/>
+      <c r="AJ12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="44">
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="48">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="44"/>
-      <c r="AO12" s="45" t="s">
+      <c r="AM12" s="48"/>
+      <c r="AO12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="44">
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="48">
         <f>204-AQ11</f>
-        <v>45.900000000000006</v>
-      </c>
-      <c r="AR12" s="44"/>
-      <c r="AT12" s="45" t="s">
+        <v>30.300000000000011</v>
+      </c>
+      <c r="AR12" s="48"/>
+      <c r="AT12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="44">
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="48">
         <f>204-AV11</f>
-        <v>34.800000000000011</v>
-      </c>
-      <c r="AW12" s="44"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+        <v>29.199999999999989</v>
+      </c>
+      <c r="AW12" s="48"/>
+      <c r="AY12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="48">
+        <f>204-BA11</f>
+        <v>33.699999999999989</v>
+      </c>
+      <c r="BB12" s="48"/>
+      <c r="BD12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="48">
+        <f>204-BF11</f>
+        <v>35.699999999999989</v>
+      </c>
+      <c r="BG12" s="48"/>
+      <c r="BI12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="48">
+        <f>204-BK11</f>
+        <v>29.699999999999989</v>
+      </c>
+      <c r="BL12" s="48"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>97</v>
       </c>
@@ -2564,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>98</v>
       </c>
@@ -2604,17 +3041,17 @@
         <v>123</v>
       </c>
       <c r="AP14">
-        <v>40</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>132</v>
+        <v>50</v>
+      </c>
+      <c r="AQ14" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="AR14" s="5">
-        <f>-300+AP14</f>
-        <v>-260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+        <f>-280+AP14</f>
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>101</v>
       </c>
@@ -2631,14 +3068,14 @@
         <v>124</v>
       </c>
       <c r="AP15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AR15" s="5">
         <f>AR14+AP15</f>
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="P16">
         <f>85+55</f>
         <v>140</v>
@@ -2653,11 +3090,11 @@
         <v>125</v>
       </c>
       <c r="AP16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AR16" s="5">
         <f t="shared" ref="AR16:AR22" si="0">AR15+AP16</f>
-        <v>-180</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -2674,11 +3111,11 @@
         <v>126</v>
       </c>
       <c r="AP17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
@@ -2693,11 +3130,11 @@
         <v>127</v>
       </c>
       <c r="AP18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AR18" s="5">
         <f t="shared" si="0"/>
-        <v>-120</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
@@ -2712,7 +3149,7 @@
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
@@ -2727,7 +3164,7 @@
       </c>
       <c r="AR20" s="5">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
@@ -2735,11 +3172,11 @@
         <v>130</v>
       </c>
       <c r="AP21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
@@ -2749,16 +3186,6 @@
       <c r="AF22">
         <v>2</v>
       </c>
-      <c r="AO22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP22">
-        <v>30</v>
-      </c>
-      <c r="AR22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE23" t="s">
@@ -2783,6 +3210,12 @@
       <c r="AF25">
         <v>0.8</v>
       </c>
+      <c r="AO25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP25">
+        <v>-170</v>
+      </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE26" t="s">
@@ -2791,6 +3224,12 @@
       <c r="AF26">
         <v>0.8</v>
       </c>
+      <c r="AO26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP26">
+        <v>-50</v>
+      </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE27" t="s">
@@ -2799,6 +3238,12 @@
       <c r="AF27">
         <v>2</v>
       </c>
+      <c r="AO27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP27">
+        <v>-10</v>
+      </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE28" t="s">
@@ -2806,6 +3251,12 @@
       </c>
       <c r="AF28">
         <v>0.5</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP28">
+        <v>-30</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
@@ -2813,9 +3264,74 @@
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
       </c>
+      <c r="AO29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="14:44" x14ac:dyDescent="0.3">
+      <c r="AO32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP32">
+        <f>SUM(AP25:AP31)</f>
+        <v>-270</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="65">
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -2831,41 +3347,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2900,7 +3381,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0819 17:14</v>
+        <v>0825 15:50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3464,7 +3945,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0819 17:14</v>
+        <v>0825 15:50</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3724,50 +4205,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="50"/>
+      <c r="D1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="50"/>
+      <c r="J1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="K1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="N1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="S1" s="46" t="s">
+      <c r="Q1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="V1" s="46" t="s">
+      <c r="T1" s="50"/>
+      <c r="V1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="Y1" s="46" t="s">
+      <c r="W1" s="50"/>
+      <c r="Y1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AB1" s="46" t="s">
+      <c r="Z1" s="50"/>
+      <c r="AB1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AC1" s="50"/>
+      <c r="AE1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="46"/>
+      <c r="AF1" s="50"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -4842,17 +5323,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC41F54-52BC-4B56-8979-1D906292BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A690D-AB93-4B5F-91AF-04CBF15F35DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="149">
   <si>
     <t>보증금</t>
   </si>
@@ -565,6 +565,34 @@
   </si>
   <si>
     <t xml:space="preserve">저축 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 5일 월급이 들어옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 -210만원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50만원을 넣어서 -160 만듬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023_2월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023_3월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023_4월 지출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누나 보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +910,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17C0F60-D728-4CF9-B455-79B5F9FFCF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM32"/>
+  <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,89 +1323,122 @@
     <col min="63" max="63" width="14.625" customWidth="1"/>
     <col min="64" max="64" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="2" style="2" customWidth="1"/>
+    <col min="66" max="66" width="14.625" customWidth="1"/>
+    <col min="67" max="67" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.625" customWidth="1"/>
+    <col min="69" max="69" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2" style="2" customWidth="1"/>
+    <col min="71" max="71" width="14.625" customWidth="1"/>
+    <col min="72" max="72" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.625" customWidth="1"/>
+    <col min="74" max="74" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2" style="2" customWidth="1"/>
+    <col min="76" max="76" width="14.625" customWidth="1"/>
+    <col min="77" max="77" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.625" customWidth="1"/>
+    <col min="79" max="79" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="P1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="U1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Z1" s="46" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Z1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AE1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AJ1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AO1" s="46" t="s">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AO1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AT1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AY1" s="46" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AY1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BD1" s="46" t="s">
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BD1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BI1" s="46" t="s">
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BI1" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BN1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BS1" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BX1" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>70</v>
       </c>
@@ -1525,8 +1595,44 @@
       <c r="BL2" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="CA2" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -1683,8 +1789,44 @@
       <c r="BL3" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO3" s="47">
+        <v>60</v>
+      </c>
+      <c r="BP3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ3" s="47">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT3" s="47">
+        <v>60</v>
+      </c>
+      <c r="BU3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV3" s="47">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY3" s="47">
+        <v>60</v>
+      </c>
+      <c r="BZ3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA3" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>73</v>
       </c>
@@ -1841,8 +1983,44 @@
       <c r="BL4" s="43">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO4" s="47">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ4" s="47">
+        <v>13.5</v>
+      </c>
+      <c r="BS4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT4" s="47">
+        <v>10</v>
+      </c>
+      <c r="BU4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV4" s="47">
+        <v>13.5</v>
+      </c>
+      <c r="BX4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY4" s="47">
+        <v>10</v>
+      </c>
+      <c r="BZ4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA4" s="47">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>44</v>
       </c>
@@ -1939,7 +2117,7 @@
         <v>121</v>
       </c>
       <c r="AP5" s="40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ5" s="37" t="s">
         <v>76</v>
@@ -1975,7 +2153,7 @@
         <v>121</v>
       </c>
       <c r="BE5" s="43">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BF5" s="44" t="s">
         <v>76</v>
@@ -1995,8 +2173,44 @@
       <c r="BL5" s="43">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN5" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO5" s="47">
+        <v>30</v>
+      </c>
+      <c r="BP5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ5" s="47">
+        <v>6.8</v>
+      </c>
+      <c r="BS5" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT5" s="47">
+        <v>30</v>
+      </c>
+      <c r="BU5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV5" s="47">
+        <v>6.8</v>
+      </c>
+      <c r="BX5" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY5" s="47">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA5" s="47">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>69</v>
       </c>
@@ -2097,7 +2311,7 @@
         <v>141</v>
       </c>
       <c r="AP6" s="43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ6" s="37" t="s">
         <v>77</v>
@@ -2109,7 +2323,7 @@
         <v>121</v>
       </c>
       <c r="AU6" s="43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AV6" s="37" t="s">
         <v>77</v>
@@ -2121,7 +2335,7 @@
         <v>121</v>
       </c>
       <c r="AZ6" s="43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA6" s="44" t="s">
         <v>77</v>
@@ -2153,8 +2367,44 @@
       <c r="BL6" s="43">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN6" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO6" s="47">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ6" s="47">
+        <v>6</v>
+      </c>
+      <c r="BS6" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT6" s="47">
+        <v>6</v>
+      </c>
+      <c r="BU6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV6" s="47">
+        <v>6</v>
+      </c>
+      <c r="BX6" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY6" s="47">
+        <v>10</v>
+      </c>
+      <c r="BZ6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA6" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -2307,8 +2557,44 @@
       <c r="BL7" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN7" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO7" s="47">
+        <v>10</v>
+      </c>
+      <c r="BP7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ7" s="47">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT7" s="47">
+        <v>10</v>
+      </c>
+      <c r="BU7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV7" s="47">
+        <v>2</v>
+      </c>
+      <c r="BX7" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY7" s="47">
+        <v>30</v>
+      </c>
+      <c r="BZ7" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA7" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
@@ -2455,8 +2741,39 @@
         <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="47"/>
+      <c r="BP8" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ8" s="47" t="str">
+        <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="48"/>
+      <c r="BT8" s="47"/>
+      <c r="BU8" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV8" s="47" t="str">
+        <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
+        <v>0</v>
+      </c>
+      <c r="BX8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY8" s="47">
+        <v>30</v>
+      </c>
+      <c r="BZ8" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA8" s="47" t="str">
+        <f>IF(CA3-(SUM(CA4:CA7))&lt;=0,"0",CA3-(SUM(CA4:CA7)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="7"/>
       <c r="C9" s="24" t="s">
@@ -2549,8 +2866,20 @@
       <c r="BJ9" s="43"/>
       <c r="BK9" s="44"/>
       <c r="BL9" s="43"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BN9" s="48"/>
+      <c r="BO9" s="47"/>
+      <c r="BP9" s="48"/>
+      <c r="BQ9" s="47"/>
+      <c r="BS9" s="48"/>
+      <c r="BT9" s="47"/>
+      <c r="BU9" s="48"/>
+      <c r="BV9" s="47"/>
+      <c r="BX9" s="48"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="48"/>
+      <c r="CA9" s="47"/>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
@@ -2682,7 +3011,7 @@
       </c>
       <c r="AU10" s="35">
         <f>SUM(AU3:AU9)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AV10" s="24" t="s">
         <v>83</v>
@@ -2696,7 +3025,7 @@
       </c>
       <c r="AZ10" s="43">
         <f>SUM(AZ3:AZ9)</f>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BA10" s="24" t="s">
         <v>83</v>
@@ -2710,7 +3039,7 @@
       </c>
       <c r="BE10" s="43">
         <f>SUM(BE3:BE9)</f>
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BF10" s="24" t="s">
         <v>83</v>
@@ -2733,246 +3062,342 @@
         <f>SUM(BL4:BL8)</f>
         <v>28.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="BN10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO10" s="47">
+        <f>SUM(BO3:BO9)</f>
+        <v>116</v>
+      </c>
+      <c r="BP10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ10" s="47">
+        <f>SUM(BQ4:BQ8)</f>
+        <v>28.3</v>
+      </c>
+      <c r="BS10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" s="47">
+        <f>SUM(BT3:BT9)</f>
+        <v>116</v>
+      </c>
+      <c r="BU10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV10" s="47">
+        <f>SUM(BV4:BV8)</f>
+        <v>28.3</v>
+      </c>
+      <c r="BX10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY10" s="47">
+        <f>SUM(BY3:BY9)</f>
+        <v>146</v>
+      </c>
+      <c r="BZ10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA10" s="47">
+        <f>SUM(CA4:CA8)</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="51"/>
+      <c r="F11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48">
+      <c r="G11" s="50"/>
+      <c r="H11" s="51">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="47" t="s">
+      <c r="I11" s="51"/>
+      <c r="K11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48">
+      <c r="L11" s="50"/>
+      <c r="M11" s="51">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="P11" s="47" t="s">
+      <c r="N11" s="51"/>
+      <c r="P11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48">
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="48"/>
-      <c r="U11" s="47" t="s">
+      <c r="S11" s="51"/>
+      <c r="U11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="47"/>
-      <c r="W11" s="48">
+      <c r="V11" s="50"/>
+      <c r="W11" s="51">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="48"/>
-      <c r="Z11" s="47" t="s">
+      <c r="X11" s="51"/>
+      <c r="Z11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48">
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="51">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="48"/>
-      <c r="AE11" s="47" t="s">
+      <c r="AC11" s="51"/>
+      <c r="AE11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="48">
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="51">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="48"/>
-      <c r="AJ11" s="47" t="s">
+      <c r="AH11" s="51"/>
+      <c r="AJ11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="48">
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="51">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="48"/>
-      <c r="AO11" s="47" t="s">
+      <c r="AM11" s="51"/>
+      <c r="AO11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="48">
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="51">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="48"/>
-      <c r="AT11" s="47" t="s">
+      <c r="AR11" s="51"/>
+      <c r="AT11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="48">
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="51">
         <f>SUM(AW10,AU10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="AW11" s="48"/>
-      <c r="AY11" s="47" t="s">
+        <v>179.8</v>
+      </c>
+      <c r="AW11" s="51"/>
+      <c r="AY11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="48">
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="51">
         <f>SUM(BB10,AZ10)</f>
-        <v>170.3</v>
-      </c>
-      <c r="BB11" s="48"/>
-      <c r="BD11" s="47" t="s">
+        <v>175.3</v>
+      </c>
+      <c r="BB11" s="51"/>
+      <c r="BD11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="48">
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="51">
         <f>SUM(BG10,BE10)</f>
-        <v>168.3</v>
-      </c>
-      <c r="BG11" s="48"/>
-      <c r="BI11" s="47" t="s">
+        <v>173.3</v>
+      </c>
+      <c r="BG11" s="51"/>
+      <c r="BI11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="48">
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="51">
         <f>SUM(BL10,BJ10)</f>
         <v>174.3</v>
       </c>
-      <c r="BL11" s="48"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="BL11" s="51"/>
+      <c r="BN11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO11" s="50"/>
+      <c r="BP11" s="51">
+        <f>SUM(BQ10,BO10)</f>
+        <v>144.30000000000001</v>
+      </c>
+      <c r="BQ11" s="51"/>
+      <c r="BS11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT11" s="50"/>
+      <c r="BU11" s="51">
+        <f>SUM(BV10,BT10)</f>
+        <v>144.30000000000001</v>
+      </c>
+      <c r="BV11" s="51"/>
+      <c r="BX11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY11" s="50"/>
+      <c r="BZ11" s="51">
+        <f>SUM(CA10,BY10)</f>
+        <v>174.3</v>
+      </c>
+      <c r="CA11" s="51"/>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="48">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="F12" s="49" t="s">
+      <c r="D12" s="51"/>
+      <c r="F12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="48">
+      <c r="G12" s="52"/>
+      <c r="H12" s="51">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="K12" s="49" t="s">
+      <c r="I12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="48">
+      <c r="L12" s="52"/>
+      <c r="M12" s="51">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="P12" s="49" t="s">
+      <c r="N12" s="51"/>
+      <c r="P12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="48">
+      <c r="Q12" s="52"/>
+      <c r="R12" s="51">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="48"/>
-      <c r="U12" s="49" t="s">
+      <c r="S12" s="51"/>
+      <c r="U12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="49"/>
-      <c r="W12" s="48">
+      <c r="V12" s="52"/>
+      <c r="W12" s="51">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="48"/>
-      <c r="Z12" s="49" t="s">
+      <c r="X12" s="51"/>
+      <c r="Z12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="48">
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="51">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="48"/>
-      <c r="AE12" s="49" t="s">
+      <c r="AC12" s="51"/>
+      <c r="AE12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="48">
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="51">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="48"/>
-      <c r="AJ12" s="49" t="s">
+      <c r="AH12" s="51"/>
+      <c r="AJ12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="48">
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="51">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="48"/>
-      <c r="AO12" s="49" t="s">
+      <c r="AM12" s="51"/>
+      <c r="AO12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="48">
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="51">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="48"/>
-      <c r="AT12" s="49" t="s">
+      <c r="AR12" s="51"/>
+      <c r="AT12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="48">
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="51">
         <f>204-AV11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="AW12" s="48"/>
-      <c r="AY12" s="49" t="s">
+        <v>24.199999999999989</v>
+      </c>
+      <c r="AW12" s="51"/>
+      <c r="AY12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="48">
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="51">
         <f>204-BA11</f>
-        <v>33.699999999999989</v>
-      </c>
-      <c r="BB12" s="48"/>
-      <c r="BD12" s="49" t="s">
+        <v>28.699999999999989</v>
+      </c>
+      <c r="BB12" s="51"/>
+      <c r="BD12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="48">
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="51">
         <f>204-BF11</f>
-        <v>35.699999999999989</v>
-      </c>
-      <c r="BG12" s="48"/>
-      <c r="BI12" s="49" t="s">
+        <v>30.699999999999989</v>
+      </c>
+      <c r="BG12" s="51"/>
+      <c r="BI12" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="48">
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="51">
         <f>204-BK11</f>
         <v>29.699999999999989</v>
       </c>
-      <c r="BL12" s="48"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BL12" s="51"/>
+      <c r="BN12" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="51">
+        <f>204-BP11</f>
+        <v>59.699999999999989</v>
+      </c>
+      <c r="BQ12" s="51"/>
+      <c r="BS12" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="51">
+        <f>204-BU11</f>
+        <v>59.699999999999989</v>
+      </c>
+      <c r="BV12" s="51"/>
+      <c r="BX12" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="51">
+        <f>204-BZ11</f>
+        <v>29.699999999999989</v>
+      </c>
+      <c r="CA12" s="51"/>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>97</v>
       </c>
@@ -3001,7 +3426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>98</v>
       </c>
@@ -3041,17 +3466,16 @@
         <v>123</v>
       </c>
       <c r="AP14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ14" s="45" t="s">
         <v>140</v>
       </c>
       <c r="AR14" s="5">
-        <f>-280+AP14</f>
-        <v>-230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+        <v>-258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="M15" t="s">
         <v>101</v>
       </c>
@@ -3068,14 +3492,14 @@
         <v>124</v>
       </c>
       <c r="AP15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AR15" s="5">
         <f>AR14+AP15</f>
-        <v>-210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="P16">
         <f>85+55</f>
         <v>140</v>
@@ -3090,11 +3514,11 @@
         <v>125</v>
       </c>
       <c r="AP16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AR16" s="5">
-        <f t="shared" ref="AR16:AR22" si="0">AR15+AP16</f>
-        <v>-190</v>
+        <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
+        <v>-208</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3111,11 +3535,11 @@
         <v>126</v>
       </c>
       <c r="AP17">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="0"/>
-        <v>-140</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
@@ -3134,7 +3558,7 @@
       </c>
       <c r="AR18" s="5">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
@@ -3149,7 +3573,7 @@
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
@@ -3164,7 +3588,7 @@
       </c>
       <c r="AR20" s="5">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
@@ -3172,11 +3596,11 @@
         <v>130</v>
       </c>
       <c r="AP21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
@@ -3214,7 +3638,7 @@
         <v>121</v>
       </c>
       <c r="AP25">
-        <v>-170</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
@@ -3228,7 +3652,7 @@
         <v>135</v>
       </c>
       <c r="AP26">
-        <v>-50</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
@@ -3268,7 +3692,7 @@
         <v>138</v>
       </c>
       <c r="AP29">
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
@@ -3277,61 +3701,41 @@
       </c>
       <c r="AP32">
         <f>SUM(AP25:AP31)</f>
-        <v>-270</v>
+        <v>-258</v>
+      </c>
+    </row>
+    <row r="35" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO37" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="80">
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3347,6 +3751,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3381,7 +3835,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0825 15:50</v>
+        <v>0826 1:29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3945,7 +4399,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0825 15:50</v>
+        <v>0826 1:29</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4205,50 +4659,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="D1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="H1" s="53"/>
+      <c r="J1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="K1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="P1" s="50" t="s">
+      <c r="N1" s="53"/>
+      <c r="P1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="S1" s="50" t="s">
+      <c r="Q1" s="53"/>
+      <c r="S1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="53"/>
+      <c r="V1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="Y1" s="50" t="s">
+      <c r="W1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AB1" s="50" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AB1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AC1" s="53"/>
+      <c r="AE1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="50"/>
+      <c r="AF1" s="53"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -5323,17 +5777,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\JinYeong_GitHub\0. 기타 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A690D-AB93-4B5F-91AF-04CBF15F35DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88976EF6-92CF-4F41-A90F-200E3090E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="147">
   <si>
     <t>보증금</t>
   </si>
@@ -544,15 +544,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관리금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중개소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출 이자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -772,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +904,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,7 +1251,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1341,102 +1339,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="K1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="P1" s="49" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="P1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="U1" s="49" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Z1" s="49" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Z1" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AE1" s="49" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AE1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AJ1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AO1" s="49" t="s">
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AO1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AT1" s="49" t="s">
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AT1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AY1" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BD1" s="49" t="s">
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BD1" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BI1" s="49" t="s">
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BI1" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BN1" s="49" t="s">
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BN1" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BS1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BX1" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BS1" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BX1" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -2308,7 +2306,7 @@
         <v>6</v>
       </c>
       <c r="AO6" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AP6" s="43">
         <v>10</v>
@@ -2335,7 +2333,7 @@
         <v>121</v>
       </c>
       <c r="AZ6" s="43">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA6" s="44" t="s">
         <v>77</v>
@@ -2582,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="BX7" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BY7" s="47">
         <v>30</v>
@@ -2741,8 +2739,12 @@
         <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
         <v>0</v>
       </c>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="47"/>
+      <c r="BN8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO8" s="49">
+        <v>30</v>
+      </c>
       <c r="BP8" s="48" t="s">
         <v>104</v>
       </c>
@@ -2750,8 +2752,12 @@
         <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="48"/>
-      <c r="BT8" s="47"/>
+      <c r="BS8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT8" s="47">
+        <v>30</v>
+      </c>
       <c r="BU8" s="48" t="s">
         <v>104</v>
       </c>
@@ -3025,7 +3031,7 @@
       </c>
       <c r="AZ10" s="43">
         <f>SUM(AZ3:AZ9)</f>
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BA10" s="24" t="s">
         <v>83</v>
@@ -3067,7 +3073,7 @@
       </c>
       <c r="BO10" s="47">
         <f>SUM(BO3:BO9)</f>
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="BP10" s="24" t="s">
         <v>83</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="BT10" s="47">
         <f>SUM(BT3:BT9)</f>
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="BU10" s="24" t="s">
         <v>83</v>
@@ -3106,296 +3112,296 @@
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="F11" s="50" t="s">
+      <c r="D11" s="53"/>
+      <c r="F11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51">
+      <c r="G11" s="52"/>
+      <c r="H11" s="53">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="K11" s="50" t="s">
+      <c r="I11" s="53"/>
+      <c r="K11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51">
+      <c r="L11" s="52"/>
+      <c r="M11" s="53">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="P11" s="50" t="s">
+      <c r="N11" s="53"/>
+      <c r="P11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51">
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="U11" s="50" t="s">
+      <c r="S11" s="53"/>
+      <c r="U11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51">
+      <c r="V11" s="52"/>
+      <c r="W11" s="53">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Z11" s="50" t="s">
+      <c r="X11" s="53"/>
+      <c r="Z11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="51">
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="51"/>
-      <c r="AE11" s="50" t="s">
+      <c r="AC11" s="53"/>
+      <c r="AE11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="51">
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="51"/>
-      <c r="AJ11" s="50" t="s">
+      <c r="AH11" s="53"/>
+      <c r="AJ11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="51">
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="53">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="51"/>
-      <c r="AO11" s="50" t="s">
+      <c r="AM11" s="53"/>
+      <c r="AO11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="51">
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="53">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="51"/>
-      <c r="AT11" s="50" t="s">
+      <c r="AR11" s="53"/>
+      <c r="AT11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="51">
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="53">
         <f>SUM(AW10,AU10)</f>
         <v>179.8</v>
       </c>
-      <c r="AW11" s="51"/>
-      <c r="AY11" s="50" t="s">
+      <c r="AW11" s="53"/>
+      <c r="AY11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="51">
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="53">
         <f>SUM(BB10,AZ10)</f>
-        <v>175.3</v>
-      </c>
-      <c r="BB11" s="51"/>
-      <c r="BD11" s="50" t="s">
+        <v>180.3</v>
+      </c>
+      <c r="BB11" s="53"/>
+      <c r="BD11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="51">
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="53">
         <f>SUM(BG10,BE10)</f>
         <v>173.3</v>
       </c>
-      <c r="BG11" s="51"/>
-      <c r="BI11" s="50" t="s">
+      <c r="BG11" s="53"/>
+      <c r="BI11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="51">
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="53">
         <f>SUM(BL10,BJ10)</f>
         <v>174.3</v>
       </c>
-      <c r="BL11" s="51"/>
-      <c r="BN11" s="50" t="s">
+      <c r="BL11" s="53"/>
+      <c r="BN11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="51">
+      <c r="BO11" s="52"/>
+      <c r="BP11" s="53">
         <f>SUM(BQ10,BO10)</f>
-        <v>144.30000000000001</v>
-      </c>
-      <c r="BQ11" s="51"/>
-      <c r="BS11" s="50" t="s">
+        <v>174.3</v>
+      </c>
+      <c r="BQ11" s="53"/>
+      <c r="BS11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="50"/>
-      <c r="BU11" s="51">
+      <c r="BT11" s="52"/>
+      <c r="BU11" s="53">
         <f>SUM(BV10,BT10)</f>
-        <v>144.30000000000001</v>
-      </c>
-      <c r="BV11" s="51"/>
-      <c r="BX11" s="50" t="s">
+        <v>174.3</v>
+      </c>
+      <c r="BV11" s="53"/>
+      <c r="BX11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="50"/>
-      <c r="BZ11" s="51">
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="53">
         <f>SUM(CA10,BY10)</f>
         <v>174.3</v>
       </c>
-      <c r="CA11" s="51"/>
+      <c r="CA11" s="53"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="51">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="53"/>
+      <c r="F12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="51">
+      <c r="G12" s="54"/>
+      <c r="H12" s="53">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="K12" s="52" t="s">
+      <c r="I12" s="53"/>
+      <c r="K12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="51">
+      <c r="L12" s="54"/>
+      <c r="M12" s="53">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="P12" s="52" t="s">
+      <c r="N12" s="53"/>
+      <c r="P12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="51">
+      <c r="Q12" s="54"/>
+      <c r="R12" s="53">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="51"/>
-      <c r="U12" s="52" t="s">
+      <c r="S12" s="53"/>
+      <c r="U12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="51">
+      <c r="V12" s="54"/>
+      <c r="W12" s="53">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="51"/>
-      <c r="Z12" s="52" t="s">
+      <c r="X12" s="53"/>
+      <c r="Z12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="51">
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="53">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="51"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AC12" s="53"/>
+      <c r="AE12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="51">
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="53">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="51"/>
-      <c r="AJ12" s="52" t="s">
+      <c r="AH12" s="53"/>
+      <c r="AJ12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="51">
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="53">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="51"/>
-      <c r="AO12" s="52" t="s">
+      <c r="AM12" s="53"/>
+      <c r="AO12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="51">
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="53">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="51"/>
-      <c r="AT12" s="52" t="s">
+      <c r="AR12" s="53"/>
+      <c r="AT12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="51">
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="53">
         <f>204-AV11</f>
         <v>24.199999999999989</v>
       </c>
-      <c r="AW12" s="51"/>
-      <c r="AY12" s="52" t="s">
+      <c r="AW12" s="53"/>
+      <c r="AY12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="51">
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="53">
         <f>204-BA11</f>
-        <v>28.699999999999989</v>
-      </c>
-      <c r="BB12" s="51"/>
-      <c r="BD12" s="52" t="s">
+        <v>23.699999999999989</v>
+      </c>
+      <c r="BB12" s="53"/>
+      <c r="BD12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="51">
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="53">
         <f>204-BF11</f>
         <v>30.699999999999989</v>
       </c>
-      <c r="BG12" s="51"/>
-      <c r="BI12" s="52" t="s">
+      <c r="BG12" s="53"/>
+      <c r="BI12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="51">
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="53">
         <f>204-BK11</f>
         <v>29.699999999999989</v>
       </c>
-      <c r="BL12" s="51"/>
-      <c r="BN12" s="52" t="s">
+      <c r="BL12" s="53"/>
+      <c r="BN12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="51">
+      <c r="BO12" s="54"/>
+      <c r="BP12" s="53">
         <f>204-BP11</f>
-        <v>59.699999999999989</v>
-      </c>
-      <c r="BQ12" s="51"/>
-      <c r="BS12" s="52" t="s">
+        <v>29.699999999999989</v>
+      </c>
+      <c r="BQ12" s="53"/>
+      <c r="BS12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="51">
+      <c r="BT12" s="54"/>
+      <c r="BU12" s="53">
         <f>204-BU11</f>
-        <v>59.699999999999989</v>
-      </c>
-      <c r="BV12" s="51"/>
-      <c r="BX12" s="52" t="s">
+        <v>29.699999999999989</v>
+      </c>
+      <c r="BV12" s="53"/>
+      <c r="BX12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="51">
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="53">
         <f>204-BZ11</f>
         <v>29.699999999999989</v>
       </c>
-      <c r="CA12" s="51"/>
+      <c r="CA12" s="53"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -3469,10 +3475,10 @@
         <v>60</v>
       </c>
       <c r="AQ14" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR14" s="5">
-        <v>-258</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="15" spans="1:79" x14ac:dyDescent="0.3">
@@ -3492,11 +3498,11 @@
         <v>124</v>
       </c>
       <c r="AP15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AR15" s="5">
         <f>AR14+AP15</f>
-        <v>-233</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3514,11 +3520,11 @@
         <v>125</v>
       </c>
       <c r="AP16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AR16" s="5">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
-        <v>-208</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3539,7 +3545,7 @@
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="0"/>
-        <v>-153</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
@@ -3558,7 +3564,7 @@
       </c>
       <c r="AR18" s="5">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
@@ -3573,7 +3579,7 @@
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="0"/>
-        <v>-63</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
@@ -3588,7 +3594,7 @@
       </c>
       <c r="AR20" s="5">
         <f t="shared" si="0"/>
-        <v>-33</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
@@ -3600,7 +3606,7 @@
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
@@ -3638,7 +3644,7 @@
         <v>121</v>
       </c>
       <c r="AP25">
-        <v>-150</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
@@ -3666,7 +3672,7 @@
         <v>136</v>
       </c>
       <c r="AP27">
-        <v>-10</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
@@ -3675,12 +3681,6 @@
       </c>
       <c r="AF28">
         <v>0.5</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP28">
-        <v>-30</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
@@ -3688,54 +3688,83 @@
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
       </c>
-      <c r="AO29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP29">
-        <v>-8</v>
-      </c>
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AO32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AP32">
         <f>SUM(AP25:AP31)</f>
-        <v>-258</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="35" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3751,56 +3780,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,7 +3829,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0826 1:29</v>
+        <v>0901 18:27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4399,7 +4393,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0826 1:29</v>
+        <v>0901 18:27</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4659,50 +4653,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="D1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="E1" s="55"/>
+      <c r="G1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="H1" s="55"/>
+      <c r="J1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="K1" s="55"/>
+      <c r="M1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="P1" s="53" t="s">
+      <c r="N1" s="55"/>
+      <c r="P1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="S1" s="53" t="s">
+      <c r="Q1" s="55"/>
+      <c r="S1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="V1" s="53" t="s">
+      <c r="T1" s="55"/>
+      <c r="V1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="Y1" s="53" t="s">
+      <c r="W1" s="55"/>
+      <c r="Y1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="Z1" s="55"/>
+      <c r="AB1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AE1" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="53"/>
+      <c r="AF1" s="55"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -5777,17 +5771,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88976EF6-92CF-4F41-A90F-200E3090E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABE489-A17C-4A55-ACDD-F5CE582BC6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -1250,8 +1250,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3646,6 +3646,9 @@
       <c r="AP25">
         <v>-170</v>
       </c>
+      <c r="AQ25">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE26" t="s">
@@ -3660,6 +3663,10 @@
       <c r="AP26">
         <v>-60</v>
       </c>
+      <c r="AQ26">
+        <f>AQ25-56</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE27" t="s">
@@ -3674,6 +3681,10 @@
       <c r="AP27">
         <v>-30</v>
       </c>
+      <c r="AQ27">
+        <f>AQ26-7.7</f>
+        <v>38.299999999999997</v>
+      </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE28" t="s">
@@ -3681,6 +3692,10 @@
       </c>
       <c r="AF28">
         <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <f>AQ27-10</f>
+        <v>28.299999999999997</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
@@ -3715,56 +3730,21 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3780,21 +3760,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,7 +3844,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0901 18:27</v>
+        <v>0905 11:52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4393,7 +4408,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0901 18:27</v>
+        <v>0905 11:52</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5771,17 +5786,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABE489-A17C-4A55-ACDD-F5CE582BC6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595198C4-35E2-4A5C-8771-F769CD2E792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -764,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +904,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1250,8 +1256,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR25" sqref="AR25"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1339,102 +1345,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="K1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="P1" s="51" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="P1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="U1" s="51" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Z1" s="51" t="s">
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Z1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AE1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AE1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AJ1" s="51" t="s">
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AJ1" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AO1" s="51" t="s">
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AO1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AT1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AY1" s="51" t="s">
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AY1" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BD1" s="51" t="s">
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BD1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BI1" s="51" t="s">
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BI1" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BN1" s="51" t="s">
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BN1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BS1" s="51" t="s">
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BS1" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BX1" s="51" t="s">
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BX1" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1943,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="AW4" s="35">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AY4" s="44" t="s">
         <v>73</v>
@@ -1955,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="BB4" s="43">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="BD4" s="44" t="s">
         <v>73</v>
@@ -2151,7 +2157,7 @@
         <v>121</v>
       </c>
       <c r="BE5" s="43">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BF5" s="44" t="s">
         <v>76</v>
@@ -2175,7 +2181,7 @@
         <v>121</v>
       </c>
       <c r="BO5" s="47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BP5" s="48" t="s">
         <v>76</v>
@@ -2187,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="BT5" s="47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BU5" s="48" t="s">
         <v>76</v>
@@ -2321,7 +2327,7 @@
         <v>121</v>
       </c>
       <c r="AU6" s="43">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AV6" s="37" t="s">
         <v>77</v>
@@ -2333,7 +2339,7 @@
         <v>121</v>
       </c>
       <c r="AZ6" s="43">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BA6" s="44" t="s">
         <v>77</v>
@@ -2393,7 +2399,7 @@
         <v>133</v>
       </c>
       <c r="BY6" s="47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BZ6" s="48" t="s">
         <v>77</v>
@@ -2535,7 +2541,7 @@
         <v>133</v>
       </c>
       <c r="BE7" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF7" s="44" t="s">
         <v>78</v>
@@ -2547,7 +2553,7 @@
         <v>133</v>
       </c>
       <c r="BJ7" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK7" s="44" t="s">
         <v>78</v>
@@ -2559,7 +2565,7 @@
         <v>133</v>
       </c>
       <c r="BO7" s="47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BP7" s="48" t="s">
         <v>78</v>
@@ -2571,7 +2577,7 @@
         <v>133</v>
       </c>
       <c r="BT7" s="47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BU7" s="48" t="s">
         <v>78</v>
@@ -2583,7 +2589,7 @@
         <v>146</v>
       </c>
       <c r="BY7" s="47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BZ7" s="48" t="s">
         <v>78</v>
@@ -2699,7 +2705,7 @@
         <v>133</v>
       </c>
       <c r="AU8" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV8" s="37" t="s">
         <v>104</v>
@@ -2712,7 +2718,7 @@
         <v>133</v>
       </c>
       <c r="AZ8" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA8" s="44" t="s">
         <v>104</v>
@@ -2743,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="BO8" s="49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BP8" s="48" t="s">
         <v>104</v>
@@ -2756,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="BT8" s="47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BU8" s="48" t="s">
         <v>104</v>
@@ -2765,11 +2771,11 @@
         <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY8" s="47">
-        <v>30</v>
+      <c r="BX8" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY8" s="51">
+        <v>40</v>
       </c>
       <c r="BZ8" s="48" t="s">
         <v>104</v>
@@ -3017,35 +3023,35 @@
       </c>
       <c r="AU10" s="35">
         <f>SUM(AU3:AU9)</f>
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AV10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="AW10" s="35">
         <f>SUM(AW4:AW8)</f>
-        <v>34.799999999999997</v>
+        <v>48.8</v>
       </c>
       <c r="AY10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="AZ10" s="43">
         <f>SUM(AZ3:AZ9)</f>
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="BA10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="BB10" s="43">
         <f>SUM(BB4:BB8)</f>
-        <v>32.299999999999997</v>
+        <v>44.8</v>
       </c>
       <c r="BD10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="BE10" s="43">
         <f>SUM(BE3:BE9)</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BF10" s="24" t="s">
         <v>83</v>
@@ -3059,7 +3065,7 @@
       </c>
       <c r="BJ10" s="43">
         <f>SUM(BJ3:BJ9)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BK10" s="24" t="s">
         <v>83</v>
@@ -3073,7 +3079,7 @@
       </c>
       <c r="BO10" s="47">
         <f>SUM(BO3:BO9)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BP10" s="24" t="s">
         <v>83</v>
@@ -3087,7 +3093,7 @@
       </c>
       <c r="BT10" s="47">
         <f>SUM(BT3:BT9)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BU10" s="24" t="s">
         <v>83</v>
@@ -3101,7 +3107,7 @@
       </c>
       <c r="BY10" s="47">
         <f>SUM(BY3:BY9)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BZ10" s="24" t="s">
         <v>83</v>
@@ -3112,296 +3118,296 @@
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="55"/>
+      <c r="F11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53">
+      <c r="G11" s="54"/>
+      <c r="H11" s="55">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="K11" s="52" t="s">
+      <c r="I11" s="55"/>
+      <c r="K11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53">
+      <c r="L11" s="54"/>
+      <c r="M11" s="55">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="53"/>
-      <c r="P11" s="52" t="s">
+      <c r="N11" s="55"/>
+      <c r="P11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53">
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="53"/>
-      <c r="U11" s="52" t="s">
+      <c r="S11" s="55"/>
+      <c r="U11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="53">
+      <c r="V11" s="54"/>
+      <c r="W11" s="55">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="53"/>
-      <c r="Z11" s="52" t="s">
+      <c r="X11" s="55"/>
+      <c r="Z11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53">
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="55">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="53"/>
-      <c r="AE11" s="52" t="s">
+      <c r="AC11" s="55"/>
+      <c r="AE11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53">
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="55">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="53"/>
-      <c r="AJ11" s="52" t="s">
+      <c r="AH11" s="55"/>
+      <c r="AJ11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="53">
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="55">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="53"/>
-      <c r="AO11" s="52" t="s">
+      <c r="AM11" s="55"/>
+      <c r="AO11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="53">
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="55">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="53"/>
-      <c r="AT11" s="52" t="s">
+      <c r="AR11" s="55"/>
+      <c r="AT11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="53">
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="55">
         <f>SUM(AW10,AU10)</f>
-        <v>179.8</v>
-      </c>
-      <c r="AW11" s="53"/>
-      <c r="AY11" s="52" t="s">
+        <v>176.8</v>
+      </c>
+      <c r="AW11" s="55"/>
+      <c r="AY11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="53">
+      <c r="AZ11" s="54"/>
+      <c r="BA11" s="55">
         <f>SUM(BB10,AZ10)</f>
-        <v>180.3</v>
-      </c>
-      <c r="BB11" s="53"/>
-      <c r="BD11" s="52" t="s">
+        <v>170.8</v>
+      </c>
+      <c r="BB11" s="55"/>
+      <c r="BD11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="53">
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="55">
         <f>SUM(BG10,BE10)</f>
-        <v>173.3</v>
-      </c>
-      <c r="BG11" s="53"/>
-      <c r="BI11" s="52" t="s">
+        <v>176.3</v>
+      </c>
+      <c r="BG11" s="55"/>
+      <c r="BI11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="53">
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="55">
         <f>SUM(BL10,BJ10)</f>
-        <v>174.3</v>
-      </c>
-      <c r="BL11" s="53"/>
-      <c r="BN11" s="52" t="s">
+        <v>172.3</v>
+      </c>
+      <c r="BL11" s="55"/>
+      <c r="BN11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="53">
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="55">
         <f>SUM(BQ10,BO10)</f>
-        <v>174.3</v>
-      </c>
-      <c r="BQ11" s="53"/>
-      <c r="BS11" s="52" t="s">
+        <v>172.3</v>
+      </c>
+      <c r="BQ11" s="55"/>
+      <c r="BS11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="53">
+      <c r="BT11" s="54"/>
+      <c r="BU11" s="55">
         <f>SUM(BV10,BT10)</f>
-        <v>174.3</v>
-      </c>
-      <c r="BV11" s="53"/>
-      <c r="BX11" s="52" t="s">
+        <v>172.3</v>
+      </c>
+      <c r="BV11" s="55"/>
+      <c r="BX11" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="53">
+      <c r="BY11" s="54"/>
+      <c r="BZ11" s="55">
         <f>SUM(CA10,BY10)</f>
-        <v>174.3</v>
-      </c>
-      <c r="CA11" s="53"/>
+        <v>172.3</v>
+      </c>
+      <c r="CA11" s="55"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="53">
+      <c r="B12" s="56"/>
+      <c r="C12" s="55">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="F12" s="54" t="s">
+      <c r="D12" s="55"/>
+      <c r="F12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="53">
+      <c r="G12" s="56"/>
+      <c r="H12" s="55">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="K12" s="54" t="s">
+      <c r="I12" s="55"/>
+      <c r="K12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="53">
+      <c r="L12" s="56"/>
+      <c r="M12" s="55">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="53"/>
-      <c r="P12" s="54" t="s">
+      <c r="N12" s="55"/>
+      <c r="P12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="53">
+      <c r="Q12" s="56"/>
+      <c r="R12" s="55">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="53"/>
-      <c r="U12" s="54" t="s">
+      <c r="S12" s="55"/>
+      <c r="U12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="54"/>
-      <c r="W12" s="53">
+      <c r="V12" s="56"/>
+      <c r="W12" s="55">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="53"/>
-      <c r="Z12" s="54" t="s">
+      <c r="X12" s="55"/>
+      <c r="Z12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="53">
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="55">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="53"/>
-      <c r="AE12" s="54" t="s">
+      <c r="AC12" s="55"/>
+      <c r="AE12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="53">
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="55">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="53"/>
-      <c r="AJ12" s="54" t="s">
+      <c r="AH12" s="55"/>
+      <c r="AJ12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="53">
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="55">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="53"/>
-      <c r="AO12" s="54" t="s">
+      <c r="AM12" s="55"/>
+      <c r="AO12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="53">
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="55">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="53"/>
-      <c r="AT12" s="54" t="s">
+      <c r="AR12" s="55"/>
+      <c r="AT12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="53">
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="55">
         <f>204-AV11</f>
-        <v>24.199999999999989</v>
-      </c>
-      <c r="AW12" s="53"/>
-      <c r="AY12" s="54" t="s">
+        <v>27.199999999999989</v>
+      </c>
+      <c r="AW12" s="55"/>
+      <c r="AY12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="53">
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="55">
         <f>204-BA11</f>
-        <v>23.699999999999989</v>
-      </c>
-      <c r="BB12" s="53"/>
-      <c r="BD12" s="54" t="s">
+        <v>33.199999999999989</v>
+      </c>
+      <c r="BB12" s="55"/>
+      <c r="BD12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="53">
+      <c r="BE12" s="56"/>
+      <c r="BF12" s="55">
         <f>204-BF11</f>
-        <v>30.699999999999989</v>
-      </c>
-      <c r="BG12" s="53"/>
-      <c r="BI12" s="54" t="s">
+        <v>27.699999999999989</v>
+      </c>
+      <c r="BG12" s="55"/>
+      <c r="BI12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="54"/>
-      <c r="BK12" s="53">
+      <c r="BJ12" s="56"/>
+      <c r="BK12" s="55">
         <f>204-BK11</f>
-        <v>29.699999999999989</v>
-      </c>
-      <c r="BL12" s="53"/>
-      <c r="BN12" s="54" t="s">
+        <v>31.699999999999989</v>
+      </c>
+      <c r="BL12" s="55"/>
+      <c r="BN12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="54"/>
-      <c r="BP12" s="53">
+      <c r="BO12" s="56"/>
+      <c r="BP12" s="55">
         <f>204-BP11</f>
-        <v>29.699999999999989</v>
-      </c>
-      <c r="BQ12" s="53"/>
-      <c r="BS12" s="54" t="s">
+        <v>31.699999999999989</v>
+      </c>
+      <c r="BQ12" s="55"/>
+      <c r="BS12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="54"/>
-      <c r="BU12" s="53">
+      <c r="BT12" s="56"/>
+      <c r="BU12" s="55">
         <f>204-BU11</f>
-        <v>29.699999999999989</v>
-      </c>
-      <c r="BV12" s="53"/>
-      <c r="BX12" s="54" t="s">
+        <v>31.699999999999989</v>
+      </c>
+      <c r="BV12" s="55"/>
+      <c r="BX12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="54"/>
-      <c r="BZ12" s="53">
+      <c r="BY12" s="56"/>
+      <c r="BZ12" s="55">
         <f>204-BZ11</f>
-        <v>29.699999999999989</v>
-      </c>
-      <c r="CA12" s="53"/>
+        <v>31.699999999999989</v>
+      </c>
+      <c r="CA12" s="55"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
@@ -3498,11 +3504,11 @@
         <v>124</v>
       </c>
       <c r="AP15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AR15" s="5">
         <f>AR14+AP15</f>
-        <v>-230</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3520,11 +3526,11 @@
         <v>125</v>
       </c>
       <c r="AP16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="5">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
-        <v>-200</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3545,7 +3551,7 @@
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="0"/>
-        <v>-145</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
@@ -3564,7 +3570,7 @@
       </c>
       <c r="AR18" s="5">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
@@ -3575,11 +3581,11 @@
         <v>128</v>
       </c>
       <c r="AP19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR19" s="5">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
@@ -3590,11 +3596,11 @@
         <v>129</v>
       </c>
       <c r="AP20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR20" s="5">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
@@ -3602,11 +3608,11 @@
         <v>130</v>
       </c>
       <c r="AP21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
@@ -3646,9 +3652,6 @@
       <c r="AP25">
         <v>-170</v>
       </c>
-      <c r="AQ25">
-        <v>102</v>
-      </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE26" t="s">
@@ -3663,10 +3666,6 @@
       <c r="AP26">
         <v>-60</v>
       </c>
-      <c r="AQ26">
-        <f>AQ25-56</f>
-        <v>46</v>
-      </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE27" t="s">
@@ -3681,10 +3680,6 @@
       <c r="AP27">
         <v>-30</v>
       </c>
-      <c r="AQ27">
-        <f>AQ26-7.7</f>
-        <v>38.299999999999997</v>
-      </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AE28" t="s">
@@ -3692,10 +3687,6 @@
       </c>
       <c r="AF28">
         <v>0.5</v>
-      </c>
-      <c r="AQ28">
-        <f>AQ27-10</f>
-        <v>28.299999999999997</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
@@ -3844,7 +3835,7 @@
       <c r="B1" s="27"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0905 11:52</v>
+        <v>0907 18:48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4408,7 +4399,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0905 11:52</v>
+        <v>0907 18:48</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4668,50 +4659,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="H1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="M1" s="55" t="s">
+      <c r="K1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="P1" s="55" t="s">
+      <c r="N1" s="57"/>
+      <c r="P1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="S1" s="55" t="s">
+      <c r="Q1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="V1" s="55" t="s">
+      <c r="T1" s="57"/>
+      <c r="V1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="Y1" s="55" t="s">
+      <c r="W1" s="57"/>
+      <c r="Y1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AB1" s="55" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AB1" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AE1" s="55" t="s">
+      <c r="AC1" s="57"/>
+      <c r="AE1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="55"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595198C4-35E2-4A5C-8771-F769CD2E792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAEF1C-6C50-49FF-BF86-B67831FB371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -592,7 +592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,7 +625,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -764,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,65 +845,8 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,50 +854,44 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,190 +1211,191 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+      <selection activeCell="AV11" sqref="AV11:AW11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.625" customWidth="1"/>
-    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.625" customWidth="1"/>
-    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.625" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="32" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.625" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2" style="2" customWidth="1"/>
-    <col min="36" max="36" width="14.625" customWidth="1"/>
-    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.625" customWidth="1"/>
-    <col min="39" max="39" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2" style="2" customWidth="1"/>
-    <col min="41" max="41" width="14.625" customWidth="1"/>
-    <col min="42" max="42" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.625" customWidth="1"/>
-    <col min="44" max="44" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2" style="2" customWidth="1"/>
-    <col min="46" max="46" width="14.625" customWidth="1"/>
-    <col min="47" max="47" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.625" customWidth="1"/>
-    <col min="49" max="49" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2" style="2" customWidth="1"/>
-    <col min="51" max="51" width="14.625" customWidth="1"/>
-    <col min="52" max="52" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.625" customWidth="1"/>
-    <col min="54" max="54" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2" style="2" customWidth="1"/>
-    <col min="56" max="56" width="14.625" customWidth="1"/>
-    <col min="57" max="57" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.625" customWidth="1"/>
-    <col min="59" max="59" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2" style="2" customWidth="1"/>
-    <col min="61" max="61" width="14.625" customWidth="1"/>
-    <col min="62" max="62" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.625" customWidth="1"/>
-    <col min="64" max="64" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2" style="2" customWidth="1"/>
-    <col min="66" max="66" width="14.625" customWidth="1"/>
-    <col min="67" max="67" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.625" customWidth="1"/>
-    <col min="69" max="69" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2" style="2" customWidth="1"/>
-    <col min="71" max="71" width="14.625" customWidth="1"/>
-    <col min="72" max="72" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.625" customWidth="1"/>
-    <col min="74" max="74" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2" style="2" customWidth="1"/>
-    <col min="76" max="76" width="14.625" customWidth="1"/>
-    <col min="77" max="77" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.625" customWidth="1"/>
-    <col min="79" max="79" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="24" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="24" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="24" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="25" customWidth="1"/>
+    <col min="22" max="22" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" style="25" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="24" customWidth="1"/>
+    <col min="26" max="26" width="14.625" style="25" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" style="25" customWidth="1"/>
+    <col min="29" max="29" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" style="24" customWidth="1"/>
+    <col min="31" max="31" width="14.625" style="25" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" style="25" customWidth="1"/>
+    <col min="34" max="34" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="24" customWidth="1"/>
+    <col min="36" max="36" width="14.625" style="25" customWidth="1"/>
+    <col min="37" max="37" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" style="25" customWidth="1"/>
+    <col min="39" max="39" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="24" customWidth="1"/>
+    <col min="41" max="41" width="14.625" style="25" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.625" style="25" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="24" customWidth="1"/>
+    <col min="46" max="46" width="14.625" style="25" customWidth="1"/>
+    <col min="47" max="47" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.625" style="25" customWidth="1"/>
+    <col min="49" max="49" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="24" customWidth="1"/>
+    <col min="51" max="51" width="14.625" style="25" customWidth="1"/>
+    <col min="52" max="52" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.625" style="25" customWidth="1"/>
+    <col min="54" max="54" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2" style="24" customWidth="1"/>
+    <col min="56" max="56" width="14.625" style="25" customWidth="1"/>
+    <col min="57" max="57" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.625" style="25" customWidth="1"/>
+    <col min="59" max="59" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2" style="24" customWidth="1"/>
+    <col min="61" max="61" width="14.625" style="25" customWidth="1"/>
+    <col min="62" max="62" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.625" style="25" customWidth="1"/>
+    <col min="64" max="64" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2" style="24" customWidth="1"/>
+    <col min="66" max="66" width="14.625" style="25" customWidth="1"/>
+    <col min="67" max="67" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.625" style="25" customWidth="1"/>
+    <col min="69" max="69" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2" style="24" customWidth="1"/>
+    <col min="71" max="71" width="14.625" style="25" customWidth="1"/>
+    <col min="72" max="72" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.625" style="25" customWidth="1"/>
+    <col min="74" max="74" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2" style="24" customWidth="1"/>
+    <col min="76" max="76" width="14.625" style="25" customWidth="1"/>
+    <col min="77" max="77" width="5.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.625" style="25" customWidth="1"/>
+    <col min="79" max="79" width="5.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2" style="24" customWidth="1"/>
+    <col min="81" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="P1" s="53" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Z1" s="53" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Z1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AE1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AJ1" s="53" t="s">
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AJ1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AO1" s="53" t="s">
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AO1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AT1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AY1" s="53" t="s">
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AY1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BD1" s="53" t="s">
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BD1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BI1" s="53" t="s">
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BI1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BN1" s="53" t="s">
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BN1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BS1" s="53" t="s">
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BS1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BX1" s="53" t="s">
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BX1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -1515,2227 +1470,2262 @@
       <c r="AC2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AG2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AK2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AL2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AM2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="36" t="s">
+      <c r="AO2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="36" t="s">
+      <c r="AP2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AQ2" s="36" t="s">
+      <c r="AQ2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="36" t="s">
+      <c r="AR2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="36" t="s">
+      <c r="AT2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="36" t="s">
+      <c r="AU2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="36" t="s">
+      <c r="AV2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="36" t="s">
+      <c r="AW2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AY2" s="42" t="s">
+      <c r="AY2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="AZ2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BA2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BB2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BD2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BE2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BF2" s="42" t="s">
+      <c r="BF2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BG2" s="42" t="s">
+      <c r="BG2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BI2" s="42" t="s">
+      <c r="BI2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BJ2" s="42" t="s">
+      <c r="BJ2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BK2" s="42" t="s">
+      <c r="BK2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BL2" s="42" t="s">
+      <c r="BL2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BN2" s="46" t="s">
+      <c r="BN2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BO2" s="46" t="s">
+      <c r="BO2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BP2" s="46" t="s">
+      <c r="BP2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BQ2" s="46" t="s">
+      <c r="BQ2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BS2" s="46" t="s">
+      <c r="BS2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="46" t="s">
+      <c r="BT2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="46" t="s">
+      <c r="BU2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="46" t="s">
+      <c r="BV2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BX2" s="46" t="s">
+      <c r="BX2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="46" t="s">
+      <c r="BY2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="46" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="46" t="s">
+      <c r="CA2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="28">
         <v>40</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="28">
         <v>25</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="28">
         <v>40</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="28">
         <v>39</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="28">
         <v>40</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="28">
         <v>31</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="28">
         <v>40</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="28">
         <v>25</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="28">
         <v>40</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="28">
         <v>51</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="28">
         <v>40</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="33">
+      <c r="AC3" s="28">
         <v>0</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="28">
         <v>40</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AG3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AH3" s="28">
         <v>45</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AJ3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="35">
+      <c r="AK3" s="28">
         <v>40</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="35">
+      <c r="AM3" s="28">
         <v>0</v>
       </c>
-      <c r="AO3" s="37" t="s">
+      <c r="AO3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="35">
+      <c r="AP3" s="28">
         <v>40</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AQ3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="35">
+      <c r="AR3" s="28">
         <v>22</v>
       </c>
-      <c r="AT3" s="37" t="s">
+      <c r="AT3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AU3" s="35">
+      <c r="AU3" s="28">
         <v>60</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="35">
+      <c r="AW3" s="28">
         <v>0</v>
       </c>
-      <c r="AY3" s="44" t="s">
+      <c r="AY3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="43">
+      <c r="AZ3" s="28">
         <v>60</v>
       </c>
-      <c r="BA3" s="24" t="s">
+      <c r="BA3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="43">
+      <c r="BB3" s="28">
         <v>0</v>
       </c>
-      <c r="BD3" s="44" t="s">
+      <c r="BD3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BE3" s="43">
+      <c r="BE3" s="28">
         <v>60</v>
       </c>
-      <c r="BF3" s="24" t="s">
+      <c r="BF3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="43">
+      <c r="BG3" s="28">
         <v>0</v>
       </c>
-      <c r="BI3" s="44" t="s">
+      <c r="BI3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BJ3" s="43">
+      <c r="BJ3" s="28">
         <v>60</v>
       </c>
-      <c r="BK3" s="24" t="s">
+      <c r="BK3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="43">
+      <c r="BL3" s="28">
         <v>0</v>
       </c>
-      <c r="BN3" s="48" t="s">
+      <c r="BN3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BO3" s="47">
+      <c r="BO3" s="28">
         <v>60</v>
       </c>
-      <c r="BP3" s="24" t="s">
+      <c r="BP3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BQ3" s="47">
+      <c r="BQ3" s="28">
         <v>0</v>
       </c>
-      <c r="BS3" s="48" t="s">
+      <c r="BS3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="28">
         <v>60</v>
       </c>
-      <c r="BU3" s="24" t="s">
+      <c r="BU3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="BV3" s="47">
+      <c r="BV3" s="28">
         <v>0</v>
       </c>
-      <c r="BX3" s="48" t="s">
+      <c r="BX3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BY3" s="47">
+      <c r="BY3" s="28">
         <v>60</v>
       </c>
-      <c r="BZ3" s="24" t="s">
+      <c r="BZ3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="CA3" s="47">
+      <c r="CA3" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="28">
         <v>7.7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="28">
         <v>10</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="28">
         <v>7.7</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="28">
         <v>6.8</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="28">
         <v>7.7</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="28">
         <v>10</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="28">
         <v>7.7</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="28">
         <v>6.3</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="28">
         <v>7.7</v>
       </c>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="28">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="Z4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="28">
         <v>7.7</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AB4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="28">
         <v>23</v>
       </c>
-      <c r="AE4" s="37" t="s">
+      <c r="AE4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4" s="28">
         <v>7.7</v>
       </c>
-      <c r="AG4" s="37" t="s">
+      <c r="AG4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="28">
         <v>20</v>
       </c>
-      <c r="AJ4" s="37" t="s">
+      <c r="AJ4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="35">
+      <c r="AK4" s="28">
         <v>7.7</v>
       </c>
-      <c r="AL4" s="37" t="s">
+      <c r="AL4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AM4" s="35">
+      <c r="AM4" s="28">
         <v>19.5</v>
       </c>
-      <c r="AO4" s="37" t="s">
+      <c r="AO4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="35">
+      <c r="AP4" s="28">
         <v>7.7</v>
       </c>
-      <c r="AQ4" s="37" t="s">
+      <c r="AQ4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AR4" s="35">
+      <c r="AR4" s="28">
         <v>34</v>
       </c>
-      <c r="AT4" s="37" t="s">
+      <c r="AT4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="35">
+      <c r="AU4" s="28">
         <v>10</v>
       </c>
-      <c r="AV4" s="37" t="s">
+      <c r="AV4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="35">
+      <c r="AW4" s="28">
         <v>34</v>
       </c>
-      <c r="AY4" s="44" t="s">
+      <c r="AY4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AZ4" s="43">
+      <c r="AZ4" s="28">
         <v>10</v>
       </c>
-      <c r="BA4" s="44" t="s">
+      <c r="BA4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="43">
+      <c r="BB4" s="28">
         <v>30</v>
       </c>
-      <c r="BD4" s="44" t="s">
+      <c r="BD4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BE4" s="43">
+      <c r="BE4" s="28">
         <v>10</v>
       </c>
-      <c r="BF4" s="44" t="s">
+      <c r="BF4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="BG4" s="43">
+      <c r="BG4" s="28">
         <v>17.5</v>
       </c>
-      <c r="BI4" s="44" t="s">
+      <c r="BI4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BJ4" s="43">
+      <c r="BJ4" s="28">
         <v>10</v>
       </c>
-      <c r="BK4" s="44" t="s">
+      <c r="BK4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="BL4" s="43">
+      <c r="BL4" s="28">
         <v>13.5</v>
       </c>
-      <c r="BN4" s="48" t="s">
+      <c r="BN4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BO4" s="47">
+      <c r="BO4" s="28">
         <v>10</v>
       </c>
-      <c r="BP4" s="48" t="s">
+      <c r="BP4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="BQ4" s="47">
+      <c r="BQ4" s="28">
         <v>13.5</v>
       </c>
-      <c r="BS4" s="48" t="s">
+      <c r="BS4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="47">
+      <c r="BT4" s="28">
         <v>10</v>
       </c>
-      <c r="BU4" s="48" t="s">
+      <c r="BU4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="BV4" s="47">
+      <c r="BV4" s="28">
         <v>13.5</v>
       </c>
-      <c r="BX4" s="48" t="s">
+      <c r="BX4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BY4" s="47">
+      <c r="BY4" s="28">
         <v>10</v>
       </c>
-      <c r="BZ4" s="48" t="s">
+      <c r="BZ4" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="CA4" s="47">
+      <c r="CA4" s="28">
         <v>13.5</v>
       </c>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="28">
         <v>20</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="28">
         <v>6</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="30">
         <v>15</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="28">
         <v>6</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="28">
         <v>15</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="28">
         <v>6</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="28">
         <v>15</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="28">
         <v>6</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="28">
         <v>15</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="33">
+      <c r="X5" s="28">
         <v>6.8</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="28">
         <v>20</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AB5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="33">
+      <c r="AC5" s="28">
         <v>6.8</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5" s="28">
         <v>20</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AG5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AH5" s="28">
         <v>6.8</v>
       </c>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="37" t="s">
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AM5" s="28">
         <v>6.8</v>
       </c>
-      <c r="AO5" s="41" t="s">
+      <c r="AO5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="40">
+      <c r="AP5" s="28">
         <v>60</v>
       </c>
-      <c r="AQ5" s="37" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AR5" s="28">
         <v>6.8</v>
       </c>
-      <c r="AT5" s="44" t="s">
+      <c r="AT5" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AU5" s="43">
+      <c r="AU5" s="28">
         <v>32</v>
       </c>
-      <c r="AV5" s="37" t="s">
+      <c r="AV5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AW5" s="35">
+      <c r="AW5" s="28">
         <v>6.8</v>
       </c>
-      <c r="AY5" s="44" t="s">
+      <c r="AY5" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="AZ5" s="28">
         <v>32</v>
       </c>
-      <c r="BA5" s="44" t="s">
+      <c r="BA5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="BB5" s="43">
+      <c r="BB5" s="28">
         <v>6.8</v>
       </c>
-      <c r="BD5" s="44" t="s">
+      <c r="BD5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BE5" s="43">
+      <c r="BE5" s="28">
         <v>60</v>
       </c>
-      <c r="BF5" s="44" t="s">
+      <c r="BF5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="BG5" s="43">
+      <c r="BG5" s="28">
         <v>6.8</v>
       </c>
-      <c r="BI5" s="44" t="s">
+      <c r="BI5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BJ5" s="43">
+      <c r="BJ5" s="28">
         <v>60</v>
       </c>
-      <c r="BK5" s="44" t="s">
+      <c r="BK5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="BL5" s="43">
+      <c r="BL5" s="28">
         <v>6.8</v>
       </c>
-      <c r="BN5" s="48" t="s">
+      <c r="BN5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BO5" s="47">
+      <c r="BO5" s="28">
         <v>40</v>
       </c>
-      <c r="BP5" s="48" t="s">
+      <c r="BP5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="BQ5" s="47">
+      <c r="BQ5" s="28">
         <v>6.8</v>
       </c>
-      <c r="BS5" s="48" t="s">
+      <c r="BS5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BT5" s="47">
+      <c r="BT5" s="28">
         <v>40</v>
       </c>
-      <c r="BU5" s="48" t="s">
+      <c r="BU5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="BV5" s="47">
+      <c r="BV5" s="28">
         <v>6.8</v>
       </c>
-      <c r="BX5" s="48" t="s">
+      <c r="BX5" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="BY5" s="47">
+      <c r="BY5" s="28">
         <v>6</v>
       </c>
-      <c r="BZ5" s="48" t="s">
+      <c r="BZ5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="CA5" s="47">
+      <c r="CA5" s="28">
         <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="28">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="28">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="30">
         <v>2.5</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="28">
         <v>2</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="28">
         <v>3</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="28">
         <v>2</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="28">
         <v>3</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="28">
         <v>2</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="28">
         <v>3</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="28">
         <v>6</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="28">
         <v>15</v>
       </c>
-      <c r="AB6" s="34" t="s">
+      <c r="AB6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AC6" s="28">
         <v>6</v>
       </c>
-      <c r="AE6" s="37" t="s">
+      <c r="AE6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="35">
+      <c r="AF6" s="28">
         <v>15</v>
       </c>
-      <c r="AG6" s="37" t="s">
+      <c r="AG6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="35">
+      <c r="AH6" s="28">
         <v>6</v>
       </c>
-      <c r="AJ6" s="37" t="s">
+      <c r="AJ6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AK6" s="35">
+      <c r="AK6" s="28">
         <v>15</v>
       </c>
-      <c r="AL6" s="37" t="s">
+      <c r="AL6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AM6" s="28">
         <v>6</v>
       </c>
-      <c r="AO6" s="44" t="s">
+      <c r="AO6" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AP6" s="43">
+      <c r="AP6" s="28">
         <v>10</v>
       </c>
-      <c r="AQ6" s="37" t="s">
+      <c r="AQ6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" s="35">
+      <c r="AR6" s="28">
         <v>6</v>
       </c>
-      <c r="AT6" s="44" t="s">
+      <c r="AT6" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="43">
+      <c r="AU6" s="28">
         <v>10</v>
       </c>
-      <c r="AV6" s="37" t="s">
+      <c r="AV6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AW6" s="35">
+      <c r="AW6" s="28">
         <v>6</v>
       </c>
-      <c r="AY6" s="44" t="s">
+      <c r="AY6" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="AZ6" s="28">
         <v>10</v>
       </c>
-      <c r="BA6" s="44" t="s">
+      <c r="BA6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BB6" s="43">
+      <c r="BB6" s="28">
         <v>6</v>
       </c>
-      <c r="BD6" s="44" t="s">
+      <c r="BD6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="BE6" s="43">
+      <c r="BE6" s="28">
         <v>6</v>
       </c>
-      <c r="BF6" s="44" t="s">
+      <c r="BF6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BG6" s="43">
+      <c r="BG6" s="28">
         <v>6</v>
       </c>
-      <c r="BI6" s="44" t="s">
+      <c r="BI6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="BJ6" s="43">
+      <c r="BJ6" s="28">
         <v>6</v>
       </c>
-      <c r="BK6" s="44" t="s">
+      <c r="BK6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BL6" s="43">
+      <c r="BL6" s="28">
         <v>6</v>
       </c>
-      <c r="BN6" s="48" t="s">
+      <c r="BN6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="BO6" s="47">
+      <c r="BO6" s="28">
         <v>6</v>
       </c>
-      <c r="BP6" s="48" t="s">
+      <c r="BP6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BQ6" s="47">
+      <c r="BQ6" s="28">
         <v>6</v>
       </c>
-      <c r="BS6" s="48" t="s">
+      <c r="BS6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="BT6" s="47">
+      <c r="BT6" s="28">
         <v>6</v>
       </c>
-      <c r="BU6" s="48" t="s">
+      <c r="BU6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="BV6" s="47">
+      <c r="BV6" s="28">
         <v>6</v>
       </c>
-      <c r="BX6" s="48" t="s">
+      <c r="BX6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="BY6" s="47">
+      <c r="BY6" s="28">
         <v>8</v>
       </c>
-      <c r="BZ6" s="48" t="s">
+      <c r="BZ6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="CA6" s="47">
+      <c r="CA6" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="28">
         <v>5</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="28">
         <v>9.4</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="28">
         <v>5</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="28">
         <v>9.4</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="28">
         <v>7</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="28">
         <v>9.4</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="28">
         <v>16.5</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="28">
         <v>9.4</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="28">
         <v>2</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="Z7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="28">
         <v>3</v>
       </c>
-      <c r="AB7" s="34" t="s">
+      <c r="AB7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="28">
         <v>2</v>
       </c>
-      <c r="AE7" s="37" t="s">
+      <c r="AE7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="35">
+      <c r="AF7" s="28">
         <v>3</v>
       </c>
-      <c r="AG7" s="37" t="s">
+      <c r="AG7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH7" s="28">
         <v>2</v>
       </c>
-      <c r="AJ7" s="37" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AK7" s="35">
+      <c r="AK7" s="28">
         <v>3</v>
       </c>
-      <c r="AL7" s="37" t="s">
+      <c r="AL7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AM7" s="28">
         <v>2</v>
       </c>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="37" t="s">
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AR7" s="35">
+      <c r="AR7" s="28">
         <v>2</v>
       </c>
-      <c r="AT7" s="44" t="s">
+      <c r="AT7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" s="43">
+      <c r="AU7" s="28">
         <v>8</v>
       </c>
-      <c r="AV7" s="37" t="s">
+      <c r="AV7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AW7" s="35">
+      <c r="AW7" s="28">
         <v>2</v>
       </c>
-      <c r="AY7" s="44" t="s">
+      <c r="AY7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AZ7" s="43">
+      <c r="AZ7" s="28">
         <v>6</v>
       </c>
-      <c r="BA7" s="44" t="s">
+      <c r="BA7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BB7" s="43">
+      <c r="BB7" s="28">
         <v>2</v>
       </c>
-      <c r="BD7" s="44" t="s">
+      <c r="BD7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="BE7" s="43">
+      <c r="BE7" s="28">
         <v>8</v>
       </c>
-      <c r="BF7" s="44" t="s">
+      <c r="BF7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BG7" s="43">
+      <c r="BG7" s="28">
         <v>2</v>
       </c>
-      <c r="BI7" s="44" t="s">
+      <c r="BI7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="BJ7" s="43">
+      <c r="BJ7" s="28">
         <v>8</v>
       </c>
-      <c r="BK7" s="44" t="s">
+      <c r="BK7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BL7" s="43">
+      <c r="BL7" s="28">
         <v>2</v>
       </c>
-      <c r="BN7" s="48" t="s">
+      <c r="BN7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="BO7" s="47">
+      <c r="BO7" s="28">
         <v>8</v>
       </c>
-      <c r="BP7" s="48" t="s">
+      <c r="BP7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BQ7" s="47">
+      <c r="BQ7" s="28">
         <v>2</v>
       </c>
-      <c r="BS7" s="48" t="s">
+      <c r="BS7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="BT7" s="47">
+      <c r="BT7" s="28">
         <v>8</v>
       </c>
-      <c r="BU7" s="48" t="s">
+      <c r="BU7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="BV7" s="47">
+      <c r="BV7" s="28">
         <v>2</v>
       </c>
-      <c r="BX7" s="48" t="s">
+      <c r="BX7" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="BY7" s="47">
+      <c r="BY7" s="28">
         <v>20</v>
       </c>
-      <c r="BZ7" s="48" t="s">
+      <c r="BZ7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="CA7" s="47">
+      <c r="CA7" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="28">
         <v>9.4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="28">
         <f>51-D9</f>
         <v>33</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="28">
         <v>10</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="28">
         <v>18</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="28">
         <v>10</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="28">
         <v>4</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="28">
         <v>45</v>
       </c>
-      <c r="R8" s="21"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="34" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="U8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="28">
         <v>45</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="28">
         <f>X3-(SUM(X4:X7))</f>
         <v>13.200000000000003</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="Z8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="28">
         <v>9.4</v>
       </c>
-      <c r="AB8" s="34" t="s">
+      <c r="AB8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" s="33" t="str">
+      <c r="AC8" s="28" t="str">
         <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="37" t="s">
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AH8" s="28">
         <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
         <v>10.200000000000003</v>
       </c>
-      <c r="AJ8" s="37" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" s="35">
+      <c r="AK8" s="28">
         <v>9.4</v>
       </c>
-      <c r="AL8" s="37" t="s">
+      <c r="AL8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AM8" s="35" t="str">
+      <c r="AM8" s="28" t="str">
         <f>IF(AM3-(SUM(AM4:AM7))&lt;=0,"0",AM3-(SUM(AM4:AM7)))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="37" t="s">
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="AR8" s="35">
+      <c r="AR8" s="28">
         <f>AR3-SUM(AR5,AR7)</f>
         <v>13.2</v>
       </c>
-      <c r="AT8" s="44" t="s">
+      <c r="AT8" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="AU8" s="43">
+      <c r="AU8" s="28">
         <v>8</v>
       </c>
-      <c r="AV8" s="37" t="s">
+      <c r="AV8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AW8" s="35" t="str">
+      <c r="AW8" s="28" t="str">
         <f>IF(AW3-(SUM(AW4:AW7))&lt;=0,"0",AW3-(SUM(AW4:AW7)))</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="44" t="s">
+      <c r="AY8" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="AZ8" s="43">
+      <c r="AZ8" s="28">
         <v>8</v>
       </c>
-      <c r="BA8" s="44" t="s">
+      <c r="BA8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="BB8" s="43" t="str">
+      <c r="BB8" s="28" t="str">
         <f>IF(BB3-(SUM(BB4:BB7))&lt;=0,"0",BB3-(SUM(BB4:BB7)))</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="44" t="s">
+      <c r="BD8" s="27"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="BG8" s="43" t="str">
+      <c r="BG8" s="28" t="str">
         <f>IF(BG3-(SUM(BG4:BG7))&lt;=0,"0",BG3-(SUM(BG4:BG7)))</f>
         <v>0</v>
       </c>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="44" t="s">
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="BL8" s="43" t="str">
+      <c r="BL8" s="28" t="str">
         <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
         <v>0</v>
       </c>
-      <c r="BN8" s="50" t="s">
+      <c r="BN8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BO8" s="49">
+      <c r="BO8" s="28">
         <v>20</v>
       </c>
-      <c r="BP8" s="48" t="s">
+      <c r="BP8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="BQ8" s="47" t="str">
+      <c r="BQ8" s="28" t="str">
         <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="48" t="s">
+      <c r="BS8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BT8" s="47">
+      <c r="BT8" s="28">
         <v>20</v>
       </c>
-      <c r="BU8" s="48" t="s">
+      <c r="BU8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="BV8" s="47" t="str">
+      <c r="BV8" s="28" t="str">
         <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="52" t="s">
+      <c r="BX8" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BY8" s="51">
+      <c r="BY8" s="28">
         <v>40</v>
       </c>
-      <c r="BZ8" s="48" t="s">
+      <c r="BZ8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="CA8" s="47" t="str">
+      <c r="CA8" s="28" t="str">
         <f>IF(CA3-(SUM(CA4:CA7))&lt;=0,"0",CA3-(SUM(CA4:CA7)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="28">
         <f>SUM(D4:D6)</f>
         <v>18</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="28">
         <v>12.6</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="28">
         <f>SUM(I4:I6)</f>
         <v>14.8</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="28">
         <v>28</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="28">
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="29"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="28"/>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="28">
         <f>SUM(S4:S6)</f>
         <v>14.3</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="7"/>
-      <c r="Z9" s="22" t="s">
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="28"/>
+      <c r="Z9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="28">
         <v>45</v>
       </c>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="33"/>
-      <c r="AE9" s="37" t="s">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="28"/>
+      <c r="AE9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="28">
         <v>45</v>
       </c>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="35"/>
-      <c r="AJ9" s="37" t="s">
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="28"/>
+      <c r="AJ9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AK9" s="35">
+      <c r="AK9" s="28">
         <v>45</v>
       </c>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="35"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="35"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="35"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="43"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="43"/>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="43"/>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="48"/>
-      <c r="BQ9" s="47"/>
-      <c r="BS9" s="48"/>
-      <c r="BT9" s="47"/>
-      <c r="BU9" s="48"/>
-      <c r="BV9" s="47"/>
-      <c r="BX9" s="48"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="48"/>
-      <c r="CA9" s="47"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="28"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="28"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="28"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="28"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="28"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="28"/>
+      <c r="BN9" s="27"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="28"/>
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="28"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="27"/>
+      <c r="CA9" s="28"/>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="28">
         <f>SUM(B3:B9)</f>
         <v>97.100000000000009</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="28">
         <f>SUM(D3:D8)</f>
         <v>81</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="28">
         <f>SUM(G3:G9)</f>
         <v>97.2</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="28">
         <f>SUM(I3:I8)</f>
         <v>76.8</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="28">
         <f>SUM(L3:L9)</f>
         <v>113.10000000000001</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="28">
         <f>SUM(N3:N8)</f>
         <v>60</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="28">
         <f>SUM(Q3:Q9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="28">
         <f>SUM(S3:S8)</f>
         <v>55.8</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="28">
         <f>SUM(V3:V9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="28">
         <f>X3</f>
         <v>51</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="28">
         <f>SUM(AA3:AA9)</f>
         <v>140.10000000000002</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="33">
+      <c r="AC10" s="28">
         <f>SUM(AC4:AC8)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AE10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="35">
+      <c r="AF10" s="28">
         <f>SUM(AF3:AF9)</f>
         <v>130.69999999999999</v>
       </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AG10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="28">
         <f>SUM(AH4:AH8)</f>
         <v>45</v>
       </c>
-      <c r="AJ10" s="24" t="s">
+      <c r="AJ10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AK10" s="35">
+      <c r="AK10" s="28">
         <f>SUM(AK3:AK9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="AL10" s="24" t="s">
+      <c r="AL10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AM10" s="35">
+      <c r="AM10" s="28">
         <f>SUM(AM4:AM8)</f>
         <v>34.299999999999997</v>
       </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AO10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AP10" s="35">
+      <c r="AP10" s="28">
         <f>SUM(AP3:AP9)</f>
         <v>117.7</v>
       </c>
-      <c r="AQ10" s="24" t="s">
+      <c r="AQ10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AR10" s="35">
+      <c r="AR10" s="28">
         <f>SUM(AR3+AR4)</f>
         <v>56</v>
       </c>
-      <c r="AT10" s="24" t="s">
+      <c r="AT10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AU10" s="35">
+      <c r="AU10" s="28">
         <f>SUM(AU3:AU9)</f>
         <v>128</v>
       </c>
-      <c r="AV10" s="24" t="s">
+      <c r="AV10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AW10" s="35">
+      <c r="AW10" s="28">
         <f>SUM(AW4:AW8)</f>
         <v>48.8</v>
       </c>
-      <c r="AY10" s="24" t="s">
+      <c r="AY10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AZ10" s="43">
+      <c r="AZ10" s="28">
         <f>SUM(AZ3:AZ9)</f>
         <v>126</v>
       </c>
-      <c r="BA10" s="24" t="s">
+      <c r="BA10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="43">
+      <c r="BB10" s="28">
         <f>SUM(BB4:BB8)</f>
         <v>44.8</v>
       </c>
-      <c r="BD10" s="24" t="s">
+      <c r="BD10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BE10" s="43">
+      <c r="BE10" s="28">
         <f>SUM(BE3:BE9)</f>
         <v>144</v>
       </c>
-      <c r="BF10" s="24" t="s">
+      <c r="BF10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BG10" s="43">
+      <c r="BG10" s="28">
         <f>SUM(BG4:BG8)</f>
         <v>32.299999999999997</v>
       </c>
-      <c r="BI10" s="24" t="s">
+      <c r="BI10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BJ10" s="43">
+      <c r="BJ10" s="28">
         <f>SUM(BJ3:BJ9)</f>
         <v>144</v>
       </c>
-      <c r="BK10" s="24" t="s">
+      <c r="BK10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BL10" s="43">
+      <c r="BL10" s="28">
         <f>SUM(BL4:BL8)</f>
         <v>28.3</v>
       </c>
-      <c r="BN10" s="24" t="s">
+      <c r="BN10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BO10" s="47">
+      <c r="BO10" s="28">
         <f>SUM(BO3:BO9)</f>
         <v>144</v>
       </c>
-      <c r="BP10" s="24" t="s">
+      <c r="BP10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BQ10" s="47">
+      <c r="BQ10" s="28">
         <f>SUM(BQ4:BQ8)</f>
         <v>28.3</v>
       </c>
-      <c r="BS10" s="24" t="s">
+      <c r="BS10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BT10" s="47">
+      <c r="BT10" s="28">
         <f>SUM(BT3:BT9)</f>
         <v>144</v>
       </c>
-      <c r="BU10" s="24" t="s">
+      <c r="BU10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BV10" s="47">
+      <c r="BV10" s="28">
         <f>SUM(BV4:BV8)</f>
         <v>28.3</v>
       </c>
-      <c r="BX10" s="24" t="s">
+      <c r="BX10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BY10" s="47">
+      <c r="BY10" s="28">
         <f>SUM(BY3:BY9)</f>
         <v>144</v>
       </c>
-      <c r="BZ10" s="24" t="s">
+      <c r="BZ10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CA10" s="47">
+      <c r="CA10" s="28">
         <f>SUM(CA4:CA8)</f>
         <v>28.3</v>
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="F11" s="54" t="s">
+      <c r="D11" s="33"/>
+      <c r="F11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55">
+      <c r="G11" s="32"/>
+      <c r="H11" s="33">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="K11" s="54" t="s">
+      <c r="I11" s="33"/>
+      <c r="K11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55">
+      <c r="L11" s="32"/>
+      <c r="M11" s="33">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="P11" s="54" t="s">
+      <c r="N11" s="33"/>
+      <c r="P11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="55"/>
-      <c r="U11" s="54" t="s">
+      <c r="S11" s="33"/>
+      <c r="U11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55">
+      <c r="V11" s="32"/>
+      <c r="W11" s="33">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="55"/>
-      <c r="Z11" s="54" t="s">
+      <c r="X11" s="33"/>
+      <c r="Z11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="55">
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="33">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="55"/>
-      <c r="AE11" s="54" t="s">
+      <c r="AC11" s="33"/>
+      <c r="AE11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="55">
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="55"/>
-      <c r="AJ11" s="54" t="s">
+      <c r="AH11" s="33"/>
+      <c r="AJ11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="55">
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="33">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="55"/>
-      <c r="AO11" s="54" t="s">
+      <c r="AM11" s="33"/>
+      <c r="AO11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="55">
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="33">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="55"/>
-      <c r="AT11" s="54" t="s">
+      <c r="AR11" s="33"/>
+      <c r="AT11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="55">
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="33">
         <f>SUM(AW10,AU10)</f>
         <v>176.8</v>
       </c>
-      <c r="AW11" s="55"/>
-      <c r="AY11" s="54" t="s">
+      <c r="AW11" s="33"/>
+      <c r="AY11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="55">
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="33">
         <f>SUM(BB10,AZ10)</f>
         <v>170.8</v>
       </c>
-      <c r="BB11" s="55"/>
-      <c r="BD11" s="54" t="s">
+      <c r="BB11" s="33"/>
+      <c r="BD11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="55">
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="33">
         <f>SUM(BG10,BE10)</f>
         <v>176.3</v>
       </c>
-      <c r="BG11" s="55"/>
-      <c r="BI11" s="54" t="s">
+      <c r="BG11" s="33"/>
+      <c r="BI11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="55">
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="33">
         <f>SUM(BL10,BJ10)</f>
         <v>172.3</v>
       </c>
-      <c r="BL11" s="55"/>
-      <c r="BN11" s="54" t="s">
+      <c r="BL11" s="33"/>
+      <c r="BN11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="54"/>
-      <c r="BP11" s="55">
+      <c r="BO11" s="32"/>
+      <c r="BP11" s="33">
         <f>SUM(BQ10,BO10)</f>
         <v>172.3</v>
       </c>
-      <c r="BQ11" s="55"/>
-      <c r="BS11" s="54" t="s">
+      <c r="BQ11" s="33"/>
+      <c r="BS11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="54"/>
-      <c r="BU11" s="55">
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="33">
         <f>SUM(BV10,BT10)</f>
         <v>172.3</v>
       </c>
-      <c r="BV11" s="55"/>
-      <c r="BX11" s="54" t="s">
+      <c r="BV11" s="33"/>
+      <c r="BX11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="54"/>
-      <c r="BZ11" s="55">
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="33">
         <f>SUM(CA10,BY10)</f>
         <v>172.3</v>
       </c>
-      <c r="CA11" s="55"/>
+      <c r="CA11" s="33"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55">
+      <c r="B12" s="34"/>
+      <c r="C12" s="33">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="F12" s="56" t="s">
+      <c r="D12" s="33"/>
+      <c r="F12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="55">
+      <c r="G12" s="34"/>
+      <c r="H12" s="33">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="K12" s="56" t="s">
+      <c r="I12" s="33"/>
+      <c r="K12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="55">
+      <c r="L12" s="34"/>
+      <c r="M12" s="33">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="P12" s="56" t="s">
+      <c r="N12" s="33"/>
+      <c r="P12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="55">
+      <c r="Q12" s="34"/>
+      <c r="R12" s="33">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="U12" s="56" t="s">
+      <c r="S12" s="33"/>
+      <c r="U12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="56"/>
-      <c r="W12" s="55">
+      <c r="V12" s="34"/>
+      <c r="W12" s="33">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="55"/>
-      <c r="Z12" s="56" t="s">
+      <c r="X12" s="33"/>
+      <c r="Z12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="55">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="33">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="55"/>
-      <c r="AE12" s="56" t="s">
+      <c r="AC12" s="33"/>
+      <c r="AE12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="55">
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="33">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="55"/>
-      <c r="AJ12" s="56" t="s">
+      <c r="AH12" s="33"/>
+      <c r="AJ12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="55">
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="33">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="55"/>
-      <c r="AO12" s="56" t="s">
+      <c r="AM12" s="33"/>
+      <c r="AO12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="55">
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="33">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="55"/>
-      <c r="AT12" s="56" t="s">
+      <c r="AR12" s="33"/>
+      <c r="AT12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="55">
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="33">
         <f>204-AV11</f>
         <v>27.199999999999989</v>
       </c>
-      <c r="AW12" s="55"/>
-      <c r="AY12" s="56" t="s">
+      <c r="AW12" s="33"/>
+      <c r="AY12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="55">
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="33">
         <f>204-BA11</f>
         <v>33.199999999999989</v>
       </c>
-      <c r="BB12" s="55"/>
-      <c r="BD12" s="56" t="s">
+      <c r="BB12" s="33"/>
+      <c r="BD12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="56"/>
-      <c r="BF12" s="55">
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="33">
         <f>204-BF11</f>
         <v>27.699999999999989</v>
       </c>
-      <c r="BG12" s="55"/>
-      <c r="BI12" s="56" t="s">
+      <c r="BG12" s="33"/>
+      <c r="BI12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="56"/>
-      <c r="BK12" s="55">
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="33">
         <f>204-BK11</f>
         <v>31.699999999999989</v>
       </c>
-      <c r="BL12" s="55"/>
-      <c r="BN12" s="56" t="s">
+      <c r="BL12" s="33"/>
+      <c r="BN12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="56"/>
-      <c r="BP12" s="55">
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="33">
         <f>204-BP11</f>
         <v>31.699999999999989</v>
       </c>
-      <c r="BQ12" s="55"/>
-      <c r="BS12" s="56" t="s">
+      <c r="BQ12" s="33"/>
+      <c r="BS12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="56"/>
-      <c r="BU12" s="55">
+      <c r="BT12" s="34"/>
+      <c r="BU12" s="33">
         <f>204-BU11</f>
         <v>31.699999999999989</v>
       </c>
-      <c r="BV12" s="55"/>
-      <c r="BX12" s="56" t="s">
+      <c r="BV12" s="33"/>
+      <c r="BX12" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="56"/>
-      <c r="BZ12" s="55">
+      <c r="BY12" s="34"/>
+      <c r="BZ12" s="33">
         <f>204-BZ11</f>
         <v>31.699999999999989</v>
       </c>
-      <c r="CA12" s="55"/>
+      <c r="CA12" s="33"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+      <c r="H13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="35">
         <v>-4</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="35">
         <v>-4</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="25">
         <v>20</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
+      <c r="H14" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="35">
         <f>I3-4</f>
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="35">
         <f>N3-4</f>
         <v>27</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="25">
         <f>AA5+AA13</f>
         <v>20</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="25">
         <f>AF5+AF13</f>
         <v>40</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="25">
         <f>AF14+AK13</f>
         <v>60</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="25">
         <v>60</v>
       </c>
-      <c r="AQ14" s="45" t="s">
+      <c r="AQ14" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AR14" s="35">
         <v>-260</v>
       </c>
     </row>
     <row r="15" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="M15" t="s">
+      <c r="M15" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="35">
         <v>12</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="35">
         <v>12</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO15" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="25">
         <v>10</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AR15" s="35">
         <f>AR14+AP15</f>
         <v>-250</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="P16">
+      <c r="P16" s="25">
         <f>85+55</f>
         <v>140</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="25">
         <v>300</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AO16" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" s="25">
         <v>10</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="AR16" s="35">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
         <v>-240</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="25">
         <v>145</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO17" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" s="25">
         <v>55</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="AR17" s="35">
         <f t="shared" si="0"/>
         <v>-185</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AA18">
+      <c r="AA18" s="25">
         <f>AA16-AA17</f>
         <v>155</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="25">
         <v>66</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO18" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" s="25">
         <v>60</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="AR18" s="35">
         <f t="shared" si="0"/>
         <v>-125</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK19">
+      <c r="AK19" s="25">
         <v>20</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" s="25">
         <v>40</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="AR19" s="35">
         <f t="shared" si="0"/>
         <v>-85</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK20">
+      <c r="AK20" s="25">
         <v>86</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AO20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" s="25">
         <v>40</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AR20" s="35">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO21" t="s">
+      <c r="AO21" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" s="25">
         <v>40</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AR21" s="35">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE22" t="s">
+      <c r="AE22" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE23" t="s">
+      <c r="AE23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE24" t="s">
+      <c r="AE24" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="25">
         <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE25" t="s">
+      <c r="AE25" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="25">
         <v>0.8</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AO25" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AP25">
+      <c r="AP25" s="25">
         <v>-170</v>
       </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE26" t="s">
+      <c r="AE26" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="25">
         <v>0.8</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AO26" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="25">
         <v>-60</v>
       </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE27" t="s">
+      <c r="AE27" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="25">
         <v>2</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AO27" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="AP27">
+      <c r="AP27" s="25">
         <v>-30</v>
       </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE28" t="s">
+      <c r="AE28" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AF29">
+      <c r="AF29" s="25">
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
       </c>
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO32" t="s">
+      <c r="AO32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AP32">
+      <c r="AP32" s="25">
         <f>SUM(AP25:AP31)</f>
         <v>-260</v>
       </c>
     </row>
     <row r="35" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO35" t="s">
+      <c r="AO35" s="25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="36" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO36" t="s">
+      <c r="AO36" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO37" t="s">
+      <c r="AO37" s="25" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3751,56 +3741,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,10 +3787,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="27"/>
+      <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0907 18:48</v>
+        <v>0913 17:18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4399,7 +4354,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0907 18:48</v>
+        <v>0913 17:18</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4659,50 +4614,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="M1" s="57" t="s">
+      <c r="K1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="P1" s="57" t="s">
+      <c r="N1" s="22"/>
+      <c r="P1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="S1" s="57" t="s">
+      <c r="Q1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="V1" s="57" t="s">
+      <c r="T1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="57" t="s">
+      <c r="W1" s="22"/>
+      <c r="Y1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AB1" s="57" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AE1" s="57" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AE1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="57"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -5777,17 +5732,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAEF1C-6C50-49FF-BF86-B67831FB371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52287A-FA05-4AB7-8107-8F0015F6C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="지출 기록" sheetId="2" r:id="rId3"/>
     <sheet name="(구)지출 목록" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="147">
   <si>
     <t>보증금</t>
   </si>
@@ -848,12 +848,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,6 +872,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,11 +890,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,2467 +1210,2443 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AV11" sqref="AV11:AW11"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="24" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="24" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="24" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="25" customWidth="1"/>
-    <col min="22" max="22" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" style="25" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" style="24" customWidth="1"/>
-    <col min="26" max="26" width="14.625" style="25" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.625" style="25" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2" style="24" customWidth="1"/>
-    <col min="31" max="31" width="14.625" style="25" customWidth="1"/>
-    <col min="32" max="32" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.625" style="25" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2" style="24" customWidth="1"/>
-    <col min="36" max="36" width="14.625" style="25" customWidth="1"/>
-    <col min="37" max="37" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.625" style="25" customWidth="1"/>
-    <col min="39" max="39" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2" style="24" customWidth="1"/>
-    <col min="41" max="41" width="14.625" style="25" customWidth="1"/>
-    <col min="42" max="42" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.625" style="25" customWidth="1"/>
-    <col min="44" max="44" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2" style="24" customWidth="1"/>
-    <col min="46" max="46" width="14.625" style="25" customWidth="1"/>
-    <col min="47" max="47" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.625" style="25" customWidth="1"/>
-    <col min="49" max="49" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2" style="24" customWidth="1"/>
-    <col min="51" max="51" width="14.625" style="25" customWidth="1"/>
-    <col min="52" max="52" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.625" style="25" customWidth="1"/>
-    <col min="54" max="54" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2" style="24" customWidth="1"/>
-    <col min="56" max="56" width="14.625" style="25" customWidth="1"/>
-    <col min="57" max="57" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.625" style="25" customWidth="1"/>
-    <col min="59" max="59" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2" style="24" customWidth="1"/>
-    <col min="61" max="61" width="14.625" style="25" customWidth="1"/>
-    <col min="62" max="62" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.625" style="25" customWidth="1"/>
-    <col min="64" max="64" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2" style="24" customWidth="1"/>
-    <col min="66" max="66" width="14.625" style="25" customWidth="1"/>
-    <col min="67" max="67" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.625" style="25" customWidth="1"/>
-    <col min="69" max="69" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2" style="24" customWidth="1"/>
-    <col min="71" max="71" width="14.625" style="25" customWidth="1"/>
-    <col min="72" max="72" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.625" style="25" customWidth="1"/>
-    <col min="74" max="74" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2" style="24" customWidth="1"/>
-    <col min="76" max="76" width="14.625" style="25" customWidth="1"/>
-    <col min="77" max="77" width="5.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.625" style="25" customWidth="1"/>
-    <col min="79" max="79" width="5.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2" style="24" customWidth="1"/>
-    <col min="81" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="14.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="22" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="22" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="22" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="23" customWidth="1"/>
+    <col min="22" max="22" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="22" customWidth="1"/>
+    <col min="26" max="26" width="14.625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" style="22" customWidth="1"/>
+    <col min="31" max="31" width="14.625" style="23" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" style="23" customWidth="1"/>
+    <col min="34" max="34" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="22" customWidth="1"/>
+    <col min="36" max="36" width="14.625" style="23" customWidth="1"/>
+    <col min="37" max="37" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" style="23" customWidth="1"/>
+    <col min="39" max="39" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="22" customWidth="1"/>
+    <col min="41" max="41" width="14.625" style="23" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.625" style="23" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="22" customWidth="1"/>
+    <col min="46" max="46" width="14.625" style="23" customWidth="1"/>
+    <col min="47" max="47" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.625" style="23" customWidth="1"/>
+    <col min="49" max="49" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="22" customWidth="1"/>
+    <col min="51" max="51" width="14.625" style="23" customWidth="1"/>
+    <col min="52" max="52" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.625" style="23" customWidth="1"/>
+    <col min="54" max="54" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2" style="22" customWidth="1"/>
+    <col min="56" max="56" width="14.625" style="23" customWidth="1"/>
+    <col min="57" max="57" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.625" style="23" customWidth="1"/>
+    <col min="59" max="59" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2" style="22" customWidth="1"/>
+    <col min="61" max="61" width="14.625" style="23" customWidth="1"/>
+    <col min="62" max="62" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.625" style="23" customWidth="1"/>
+    <col min="64" max="64" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2" style="22" customWidth="1"/>
+    <col min="66" max="66" width="14.625" style="23" customWidth="1"/>
+    <col min="67" max="67" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.625" style="23" customWidth="1"/>
+    <col min="69" max="69" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2" style="22" customWidth="1"/>
+    <col min="71" max="71" width="14.625" style="23" customWidth="1"/>
+    <col min="72" max="72" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.625" style="23" customWidth="1"/>
+    <col min="74" max="74" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2" style="22" customWidth="1"/>
+    <col min="76" max="76" width="14.625" style="23" customWidth="1"/>
+    <col min="77" max="77" width="5.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.625" style="23" customWidth="1"/>
+    <col min="79" max="79" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2" style="22" customWidth="1"/>
+    <col min="81" max="16384" width="8.875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="P1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="U1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Z1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AE1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AJ1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AO1" s="23" t="s">
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AO1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AT1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AY1" s="23" t="s">
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AY1" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BD1" s="23" t="s">
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BD1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BI1" s="23" t="s">
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BI1" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BN1" s="23" t="s">
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BN1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BS1" s="23" t="s">
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BS1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BX1" s="23" t="s">
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BX1" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AH2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AK2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AM2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="26" t="s">
+      <c r="AP2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AQ2" s="26" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AR2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="26" t="s">
+      <c r="AT2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="26" t="s">
+      <c r="AU2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="26" t="s">
+      <c r="AV2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="26" t="s">
+      <c r="AW2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AY2" s="26" t="s">
+      <c r="AY2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="26" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="26" t="s">
+      <c r="BA2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BD2" s="26" t="s">
+      <c r="BD2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" s="26" t="s">
+      <c r="BE2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BF2" s="26" t="s">
+      <c r="BF2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BG2" s="26" t="s">
+      <c r="BG2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BI2" s="26" t="s">
+      <c r="BI2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BJ2" s="26" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BK2" s="26" t="s">
+      <c r="BK2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BL2" s="26" t="s">
+      <c r="BL2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BN2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BO2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BP2" s="26" t="s">
+      <c r="BP2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BQ2" s="26" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BS2" s="26" t="s">
+      <c r="BS2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="26" t="s">
+      <c r="BT2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="26" t="s">
+      <c r="BU2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="26" t="s">
+      <c r="BV2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BX2" s="26" t="s">
+      <c r="BX2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="26" t="s">
+      <c r="BY2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>40</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>25</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>40</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <v>39</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="26">
         <v>40</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="26">
         <v>31</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="26">
         <v>40</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="26">
         <v>25</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="26">
         <v>40</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="26">
         <v>51</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="26">
         <v>40</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AB3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="26">
         <v>0</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="26">
         <v>40</v>
       </c>
-      <c r="AG3" s="29" t="s">
+      <c r="AG3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="26">
         <v>45</v>
       </c>
-      <c r="AJ3" s="27" t="s">
+      <c r="AJ3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="26">
         <v>40</v>
       </c>
-      <c r="AL3" s="29" t="s">
+      <c r="AL3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="26">
         <v>0</v>
       </c>
-      <c r="AO3" s="27" t="s">
+      <c r="AO3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="26">
         <v>40</v>
       </c>
-      <c r="AQ3" s="29" t="s">
+      <c r="AQ3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="28">
+      <c r="AR3" s="26">
         <v>22</v>
       </c>
-      <c r="AT3" s="27" t="s">
+      <c r="AT3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AU3" s="28">
+      <c r="AU3" s="26">
         <v>60</v>
       </c>
-      <c r="AV3" s="29" t="s">
+      <c r="AV3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="28">
+      <c r="AW3" s="26">
         <v>0</v>
       </c>
-      <c r="AY3" s="27" t="s">
+      <c r="AY3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="28">
+      <c r="AZ3" s="26">
         <v>60</v>
       </c>
-      <c r="BA3" s="29" t="s">
+      <c r="BA3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="28">
+      <c r="BB3" s="26">
         <v>0</v>
       </c>
-      <c r="BD3" s="27" t="s">
+      <c r="BD3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BE3" s="28">
+      <c r="BE3" s="26">
         <v>60</v>
       </c>
-      <c r="BF3" s="29" t="s">
+      <c r="BF3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="28">
+      <c r="BG3" s="26">
         <v>0</v>
       </c>
-      <c r="BI3" s="27" t="s">
+      <c r="BI3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BJ3" s="28">
+      <c r="BJ3" s="26">
         <v>60</v>
       </c>
-      <c r="BK3" s="29" t="s">
+      <c r="BK3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="28">
+      <c r="BL3" s="26">
         <v>0</v>
       </c>
-      <c r="BN3" s="27" t="s">
+      <c r="BN3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BO3" s="28">
+      <c r="BO3" s="26">
         <v>60</v>
       </c>
-      <c r="BP3" s="29" t="s">
+      <c r="BP3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="BQ3" s="28">
+      <c r="BQ3" s="26">
         <v>0</v>
       </c>
-      <c r="BS3" s="27" t="s">
+      <c r="BS3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BT3" s="28">
+      <c r="BT3" s="26">
         <v>60</v>
       </c>
-      <c r="BU3" s="29" t="s">
+      <c r="BU3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="BV3" s="28">
+      <c r="BV3" s="26">
         <v>0</v>
       </c>
-      <c r="BX3" s="27" t="s">
+      <c r="BX3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BY3" s="28">
+      <c r="BY3" s="26">
         <v>60</v>
       </c>
-      <c r="BZ3" s="29" t="s">
+      <c r="BZ3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="CA3" s="28">
+      <c r="CA3" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>7.7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>10</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>7.7</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <v>6.8</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="26">
         <v>7.7</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="26">
         <v>10</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="26">
         <v>7.7</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="26">
         <v>6.3</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="26">
         <v>7.7</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="26">
         <v>23</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="26">
         <v>7.7</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="26">
         <v>23</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AF4" s="26">
         <v>7.7</v>
       </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AG4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="26">
         <v>20</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AK4" s="26">
         <v>7.7</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AL4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AM4" s="28">
+      <c r="AM4" s="26">
         <v>19.5</v>
       </c>
-      <c r="AO4" s="27" t="s">
+      <c r="AO4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="28">
+      <c r="AP4" s="26">
         <v>7.7</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AQ4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AR4" s="28">
+      <c r="AR4" s="26">
         <v>34</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AT4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="28">
+      <c r="AU4" s="26">
         <v>10</v>
       </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AV4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="28">
-        <v>34</v>
-      </c>
-      <c r="AY4" s="27" t="s">
+      <c r="AW4" s="26">
+        <v>30</v>
+      </c>
+      <c r="AY4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AZ4" s="28">
+      <c r="AZ4" s="26">
         <v>10</v>
       </c>
-      <c r="BA4" s="27" t="s">
+      <c r="BA4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="28">
-        <v>30</v>
-      </c>
-      <c r="BD4" s="27" t="s">
+      <c r="BB4" s="26">
+        <v>27.5</v>
+      </c>
+      <c r="BD4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BE4" s="28">
+      <c r="BE4" s="26">
         <v>10</v>
       </c>
-      <c r="BF4" s="27" t="s">
+      <c r="BF4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BG4" s="28">
-        <v>17.5</v>
-      </c>
-      <c r="BI4" s="27" t="s">
+      <c r="BG4" s="26">
+        <v>18</v>
+      </c>
+      <c r="BI4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BJ4" s="28">
+      <c r="BJ4" s="26">
         <v>10</v>
       </c>
-      <c r="BK4" s="27" t="s">
+      <c r="BK4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BL4" s="28">
-        <v>13.5</v>
-      </c>
-      <c r="BN4" s="27" t="s">
+      <c r="BL4" s="26">
+        <v>18</v>
+      </c>
+      <c r="BN4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BO4" s="28">
+      <c r="BO4" s="26">
         <v>10</v>
       </c>
-      <c r="BP4" s="27" t="s">
+      <c r="BP4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BQ4" s="28">
-        <v>13.5</v>
-      </c>
-      <c r="BS4" s="27" t="s">
+      <c r="BQ4" s="26">
+        <v>18</v>
+      </c>
+      <c r="BS4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="28">
+      <c r="BT4" s="26">
         <v>10</v>
       </c>
-      <c r="BU4" s="27" t="s">
+      <c r="BU4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BV4" s="28">
-        <v>13.5</v>
-      </c>
-      <c r="BX4" s="27" t="s">
+      <c r="BV4" s="26">
+        <v>18</v>
+      </c>
+      <c r="BX4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BY4" s="28">
+      <c r="BY4" s="26">
         <v>10</v>
       </c>
-      <c r="BZ4" s="27" t="s">
+      <c r="BZ4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="CA4" s="28">
-        <v>13.5</v>
+      <c r="CA4" s="26">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>20</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>6</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <v>15</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>6</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>15</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="26">
         <v>6</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <v>15</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="26">
         <v>6</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="26">
         <v>15</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="26">
         <v>6.8</v>
       </c>
-      <c r="Z5" s="27" t="s">
+      <c r="Z5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="26">
         <v>20</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="26">
         <v>6.8</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AE5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AF5" s="26">
         <v>20</v>
       </c>
-      <c r="AG5" s="27" t="s">
+      <c r="AG5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="26">
         <v>6.8</v>
       </c>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="27" t="s">
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="26">
         <v>6.8</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AO5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AP5" s="26">
         <v>60</v>
       </c>
-      <c r="AQ5" s="27" t="s">
+      <c r="AQ5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AR5" s="28">
+      <c r="AR5" s="26">
         <v>6.8</v>
       </c>
-      <c r="AT5" s="27" t="s">
+      <c r="AT5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AU5" s="28">
+      <c r="AU5" s="26">
         <v>32</v>
       </c>
-      <c r="AV5" s="27" t="s">
+      <c r="AV5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AW5" s="28">
+      <c r="AW5" s="26">
         <v>6.8</v>
       </c>
-      <c r="AY5" s="27" t="s">
+      <c r="AY5" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AZ5" s="28">
+      <c r="AZ5" s="26">
         <v>32</v>
       </c>
-      <c r="BA5" s="27" t="s">
+      <c r="BA5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BB5" s="28">
+      <c r="BB5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BD5" s="27" t="s">
+      <c r="BD5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BE5" s="28">
+      <c r="BE5" s="26">
         <v>60</v>
       </c>
-      <c r="BF5" s="27" t="s">
+      <c r="BF5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BG5" s="28">
+      <c r="BG5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BI5" s="27" t="s">
+      <c r="BI5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BJ5" s="28">
+      <c r="BJ5" s="26">
         <v>60</v>
       </c>
-      <c r="BK5" s="27" t="s">
+      <c r="BK5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BL5" s="28">
+      <c r="BL5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BN5" s="27" t="s">
+      <c r="BN5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BO5" s="28">
+      <c r="BO5" s="26">
         <v>40</v>
       </c>
-      <c r="BP5" s="27" t="s">
+      <c r="BP5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BQ5" s="28">
+      <c r="BQ5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BS5" s="27" t="s">
+      <c r="BS5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BT5" s="28">
+      <c r="BT5" s="26">
         <v>40</v>
       </c>
-      <c r="BU5" s="27" t="s">
+      <c r="BU5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BV5" s="28">
+      <c r="BV5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BX5" s="27" t="s">
+      <c r="BX5" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BY5" s="28">
+      <c r="BY5" s="26">
         <v>6</v>
       </c>
-      <c r="BZ5" s="27" t="s">
+      <c r="BZ5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="CA5" s="28">
+      <c r="CA5" s="26">
         <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="28">
         <v>2.5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>2</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>3</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="26">
         <v>2</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <v>3</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="26">
         <v>2</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="26">
         <v>3</v>
       </c>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="26">
         <v>6</v>
       </c>
-      <c r="Z6" s="27" t="s">
+      <c r="Z6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AA6" s="26">
         <v>15</v>
       </c>
-      <c r="AB6" s="27" t="s">
+      <c r="AB6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AC6" s="26">
         <v>6</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AE6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="28">
+      <c r="AF6" s="26">
         <v>15</v>
       </c>
-      <c r="AG6" s="27" t="s">
+      <c r="AG6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="28">
+      <c r="AH6" s="26">
         <v>6</v>
       </c>
-      <c r="AJ6" s="27" t="s">
+      <c r="AJ6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AK6" s="28">
+      <c r="AK6" s="26">
         <v>15</v>
       </c>
-      <c r="AL6" s="27" t="s">
+      <c r="AL6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AM6" s="28">
+      <c r="AM6" s="26">
         <v>6</v>
       </c>
-      <c r="AO6" s="27" t="s">
+      <c r="AO6" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AP6" s="28">
+      <c r="AP6" s="26">
         <v>10</v>
       </c>
-      <c r="AQ6" s="27" t="s">
+      <c r="AQ6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" s="28">
+      <c r="AR6" s="26">
         <v>6</v>
       </c>
-      <c r="AT6" s="27" t="s">
+      <c r="AT6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="28">
+      <c r="AU6" s="26">
         <v>10</v>
       </c>
-      <c r="AV6" s="27" t="s">
+      <c r="AV6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AW6" s="28">
+      <c r="AW6" s="26">
         <v>6</v>
       </c>
-      <c r="AY6" s="27" t="s">
+      <c r="AY6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="AZ6" s="28">
+      <c r="AZ6" s="26">
         <v>10</v>
       </c>
-      <c r="BA6" s="27" t="s">
+      <c r="BA6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BB6" s="28">
+      <c r="BB6" s="26">
         <v>6</v>
       </c>
-      <c r="BD6" s="27" t="s">
+      <c r="BD6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BE6" s="28">
+      <c r="BE6" s="26">
         <v>6</v>
       </c>
-      <c r="BF6" s="27" t="s">
+      <c r="BF6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BG6" s="28">
+      <c r="BG6" s="26">
         <v>6</v>
       </c>
-      <c r="BI6" s="27" t="s">
+      <c r="BI6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BJ6" s="28">
+      <c r="BJ6" s="26">
         <v>6</v>
       </c>
-      <c r="BK6" s="27" t="s">
+      <c r="BK6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BL6" s="28">
+      <c r="BL6" s="26">
         <v>6</v>
       </c>
-      <c r="BN6" s="27" t="s">
+      <c r="BN6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BO6" s="28">
+      <c r="BO6" s="26">
         <v>6</v>
       </c>
-      <c r="BP6" s="27" t="s">
+      <c r="BP6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BQ6" s="28">
+      <c r="BQ6" s="26">
         <v>6</v>
       </c>
-      <c r="BS6" s="27" t="s">
+      <c r="BS6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="BT6" s="28">
+      <c r="BT6" s="26">
         <v>6</v>
       </c>
-      <c r="BU6" s="27" t="s">
+      <c r="BU6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BV6" s="28">
+      <c r="BV6" s="26">
         <v>6</v>
       </c>
-      <c r="BX6" s="27" t="s">
+      <c r="BX6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="BY6" s="28">
+      <c r="BY6" s="26">
         <v>8</v>
       </c>
-      <c r="BZ6" s="27" t="s">
+      <c r="BZ6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="CA6" s="28">
+      <c r="CA6" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>9.4</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <v>5</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <v>9.4</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="26">
         <v>7</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <v>9.4</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="26">
         <v>16.5</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="26">
         <v>9.4</v>
       </c>
-      <c r="W7" s="27" t="s">
+      <c r="W7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="26">
         <v>2</v>
       </c>
-      <c r="Z7" s="27" t="s">
+      <c r="Z7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AA7" s="26">
         <v>3</v>
       </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AB7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="26">
         <v>2</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="28">
+      <c r="AF7" s="26">
         <v>3</v>
       </c>
-      <c r="AG7" s="27" t="s">
+      <c r="AG7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AH7" s="26">
         <v>2</v>
       </c>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AK7" s="28">
+      <c r="AK7" s="26">
         <v>3</v>
       </c>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="26">
         <v>2</v>
       </c>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="27" t="s">
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AR7" s="28">
+      <c r="AR7" s="26">
         <v>2</v>
       </c>
-      <c r="AT7" s="27" t="s">
+      <c r="AT7" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" s="28">
+      <c r="AU7" s="26">
         <v>8</v>
       </c>
-      <c r="AV7" s="27" t="s">
+      <c r="AV7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AW7" s="28">
+      <c r="AW7" s="26">
         <v>2</v>
       </c>
-      <c r="AY7" s="27" t="s">
+      <c r="AY7" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="AZ7" s="28">
+      <c r="AZ7" s="26">
         <v>6</v>
       </c>
-      <c r="BA7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB7" s="28">
-        <v>2</v>
-      </c>
-      <c r="BD7" s="27" t="s">
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="26"/>
+      <c r="BD7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="BE7" s="28">
+      <c r="BE7" s="26">
         <v>8</v>
       </c>
-      <c r="BF7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG7" s="28">
-        <v>2</v>
-      </c>
-      <c r="BI7" s="27" t="s">
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="26"/>
+      <c r="BI7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="BJ7" s="28">
+      <c r="BJ7" s="26">
         <v>8</v>
       </c>
-      <c r="BK7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL7" s="28">
-        <v>2</v>
-      </c>
-      <c r="BN7" s="27" t="s">
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="26"/>
+      <c r="BN7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="BO7" s="28">
+      <c r="BO7" s="26">
         <v>8</v>
       </c>
-      <c r="BP7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ7" s="28">
-        <v>2</v>
-      </c>
-      <c r="BS7" s="27" t="s">
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="26"/>
+      <c r="BS7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="BT7" s="28">
+      <c r="BT7" s="26">
         <v>8</v>
       </c>
-      <c r="BU7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV7" s="28">
-        <v>2</v>
-      </c>
-      <c r="BX7" s="27" t="s">
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="26"/>
+      <c r="BX7" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="BY7" s="28">
+      <c r="BY7" s="26">
         <v>20</v>
       </c>
-      <c r="BZ7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA7" s="28">
-        <v>2</v>
-      </c>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="26"/>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>9.4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>51-D9</f>
         <v>33</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>10</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>18</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="26">
         <v>10</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="26">
         <v>4</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <v>45</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="U8" s="27" t="s">
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
+      <c r="U8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="26">
         <v>45</v>
       </c>
-      <c r="W8" s="27" t="s">
+      <c r="W8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="26">
         <f>X3-(SUM(X4:X7))</f>
         <v>13.200000000000003</v>
       </c>
-      <c r="Z8" s="27" t="s">
+      <c r="Z8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AA8" s="26">
         <v>9.4</v>
       </c>
-      <c r="AB8" s="27" t="s">
+      <c r="AB8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" s="28" t="str">
+      <c r="AC8" s="26" t="str">
         <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="27" t="s">
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" s="28">
+      <c r="AH8" s="26">
         <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
         <v>10.200000000000003</v>
       </c>
-      <c r="AJ8" s="27" t="s">
+      <c r="AJ8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" s="28">
+      <c r="AK8" s="26">
         <v>9.4</v>
       </c>
-      <c r="AL8" s="27" t="s">
+      <c r="AL8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AM8" s="28" t="str">
+      <c r="AM8" s="26" t="str">
         <f>IF(AM3-(SUM(AM4:AM7))&lt;=0,"0",AM3-(SUM(AM4:AM7)))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="27" t="s">
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="AR8" s="28">
+      <c r="AR8" s="26">
         <f>AR3-SUM(AR5,AR7)</f>
         <v>13.2</v>
       </c>
-      <c r="AT8" s="27" t="s">
+      <c r="AT8" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="AU8" s="28">
+      <c r="AU8" s="26">
         <v>8</v>
       </c>
-      <c r="AV8" s="27" t="s">
+      <c r="AV8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AW8" s="28" t="str">
+      <c r="AW8" s="26" t="str">
         <f>IF(AW3-(SUM(AW4:AW7))&lt;=0,"0",AW3-(SUM(AW4:AW7)))</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="27" t="s">
+      <c r="AY8" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="AZ8" s="28">
+      <c r="AZ8" s="26">
         <v>8</v>
       </c>
-      <c r="BA8" s="27" t="s">
+      <c r="BA8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BB8" s="28" t="str">
+      <c r="BB8" s="26" t="str">
         <f>IF(BB3-(SUM(BB4:BB7))&lt;=0,"0",BB3-(SUM(BB4:BB7)))</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="27"/>
-      <c r="BE8" s="28"/>
-      <c r="BF8" s="27" t="s">
+      <c r="BD8" s="25"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BG8" s="28" t="str">
+      <c r="BG8" s="26" t="str">
         <f>IF(BG3-(SUM(BG4:BG7))&lt;=0,"0",BG3-(SUM(BG4:BG7)))</f>
         <v>0</v>
       </c>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="27" t="s">
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="26"/>
+      <c r="BK8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BL8" s="28" t="str">
+      <c r="BL8" s="26" t="str">
         <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
         <v>0</v>
       </c>
-      <c r="BN8" s="27" t="s">
+      <c r="BN8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BO8" s="28">
+      <c r="BO8" s="26">
         <v>20</v>
       </c>
-      <c r="BP8" s="27" t="s">
+      <c r="BP8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BQ8" s="28" t="str">
+      <c r="BQ8" s="26" t="str">
         <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="27" t="s">
+      <c r="BS8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BT8" s="28">
+      <c r="BT8" s="26">
         <v>20</v>
       </c>
-      <c r="BU8" s="27" t="s">
+      <c r="BU8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BV8" s="28" t="str">
+      <c r="BV8" s="26" t="str">
         <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="27" t="s">
+      <c r="BX8" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="BY8" s="28">
+      <c r="BY8" s="26">
         <v>40</v>
       </c>
-      <c r="BZ8" s="27" t="s">
+      <c r="BZ8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CA8" s="28" t="str">
+      <c r="CA8" s="26" t="str">
         <f>IF(CA3-(SUM(CA4:CA7))&lt;=0,"0",CA3-(SUM(CA4:CA7)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f>SUM(D4:D6)</f>
         <v>18</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>12.6</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f>SUM(I4:I6)</f>
         <v>14.8</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>28</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="26">
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="26">
         <f>SUM(S4:S6)</f>
         <v>14.3</v>
       </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="28"/>
-      <c r="Z9" s="27" t="s">
+      <c r="U9" s="25"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
+      <c r="Z9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="AA9" s="26">
         <v>45</v>
       </c>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="26"/>
+      <c r="AE9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AF9" s="26">
         <v>45</v>
       </c>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="28"/>
-      <c r="AJ9" s="27" t="s">
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="26"/>
+      <c r="AJ9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AK9" s="28">
+      <c r="AK9" s="26">
         <v>45</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="28"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="28"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="28"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="28"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="28"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="28"/>
-      <c r="BN9" s="27"/>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="28"/>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="28"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="27"/>
-      <c r="CA9" s="28"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="26"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="26"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="26"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="26"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="26"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="26"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="26"/>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="26"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="26"/>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <f>SUM(B3:B9)</f>
         <v>97.100000000000009</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <f>SUM(D3:D8)</f>
         <v>81</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f>SUM(G3:G9)</f>
         <v>97.2</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f>SUM(I3:I8)</f>
         <v>76.8</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <f>SUM(L3:L9)</f>
         <v>113.10000000000001</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <f>SUM(N3:N8)</f>
         <v>60</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="26">
         <f>SUM(Q3:Q9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="26">
         <f>SUM(S3:S8)</f>
         <v>55.8</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="U10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="26">
         <f>SUM(V3:V9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="W10" s="29" t="s">
+      <c r="W10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="26">
         <f>X3</f>
         <v>51</v>
       </c>
-      <c r="Z10" s="29" t="s">
+      <c r="Z10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="28">
+      <c r="AA10" s="26">
         <f>SUM(AA3:AA9)</f>
         <v>140.10000000000002</v>
       </c>
-      <c r="AB10" s="29" t="s">
+      <c r="AB10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="28">
+      <c r="AC10" s="26">
         <f>SUM(AC4:AC8)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="AE10" s="29" t="s">
+      <c r="AE10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="28">
+      <c r="AF10" s="26">
         <f>SUM(AF3:AF9)</f>
         <v>130.69999999999999</v>
       </c>
-      <c r="AG10" s="29" t="s">
+      <c r="AG10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AH10" s="28">
+      <c r="AH10" s="26">
         <f>SUM(AH4:AH8)</f>
         <v>45</v>
       </c>
-      <c r="AJ10" s="29" t="s">
+      <c r="AJ10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="26">
         <f>SUM(AK3:AK9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="AL10" s="29" t="s">
+      <c r="AL10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="26">
         <f>SUM(AM4:AM8)</f>
         <v>34.299999999999997</v>
       </c>
-      <c r="AO10" s="29" t="s">
+      <c r="AO10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AP10" s="28">
+      <c r="AP10" s="26">
         <f>SUM(AP3:AP9)</f>
         <v>117.7</v>
       </c>
-      <c r="AQ10" s="29" t="s">
+      <c r="AQ10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AR10" s="28">
+      <c r="AR10" s="26">
         <f>SUM(AR3+AR4)</f>
         <v>56</v>
       </c>
-      <c r="AT10" s="29" t="s">
+      <c r="AT10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AU10" s="28">
+      <c r="AU10" s="26">
         <f>SUM(AU3:AU9)</f>
         <v>128</v>
       </c>
-      <c r="AV10" s="29" t="s">
+      <c r="AV10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AW10" s="28">
+      <c r="AW10" s="26">
         <f>SUM(AW4:AW8)</f>
-        <v>48.8</v>
-      </c>
-      <c r="AY10" s="29" t="s">
+        <v>44.8</v>
+      </c>
+      <c r="AY10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AZ10" s="28">
+      <c r="AZ10" s="26">
         <f>SUM(AZ3:AZ9)</f>
         <v>126</v>
       </c>
-      <c r="BA10" s="29" t="s">
+      <c r="BA10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="28">
+      <c r="BB10" s="26">
         <f>SUM(BB4:BB8)</f>
-        <v>44.8</v>
-      </c>
-      <c r="BD10" s="29" t="s">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="BE10" s="28">
+      <c r="BE10" s="26">
         <f>SUM(BE3:BE9)</f>
         <v>144</v>
       </c>
-      <c r="BF10" s="29" t="s">
+      <c r="BF10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BG10" s="28">
+      <c r="BG10" s="26">
         <f>SUM(BG4:BG8)</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="BI10" s="29" t="s">
+        <v>30.8</v>
+      </c>
+      <c r="BI10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="BJ10" s="28">
+      <c r="BJ10" s="26">
         <f>SUM(BJ3:BJ9)</f>
         <v>144</v>
       </c>
-      <c r="BK10" s="29" t="s">
+      <c r="BK10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BL10" s="28">
+      <c r="BL10" s="26">
         <f>SUM(BL4:BL8)</f>
-        <v>28.3</v>
-      </c>
-      <c r="BN10" s="29" t="s">
+        <v>30.8</v>
+      </c>
+      <c r="BN10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="BO10" s="28">
+      <c r="BO10" s="26">
         <f>SUM(BO3:BO9)</f>
         <v>144</v>
       </c>
-      <c r="BP10" s="29" t="s">
+      <c r="BP10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BQ10" s="28">
+      <c r="BQ10" s="26">
         <f>SUM(BQ4:BQ8)</f>
-        <v>28.3</v>
-      </c>
-      <c r="BS10" s="29" t="s">
+        <v>30.8</v>
+      </c>
+      <c r="BS10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="BT10" s="28">
+      <c r="BT10" s="26">
         <f>SUM(BT3:BT9)</f>
         <v>144</v>
       </c>
-      <c r="BU10" s="29" t="s">
+      <c r="BU10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="BV10" s="28">
+      <c r="BV10" s="26">
         <f>SUM(BV4:BV8)</f>
-        <v>28.3</v>
-      </c>
-      <c r="BX10" s="29" t="s">
+        <v>30.8</v>
+      </c>
+      <c r="BX10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="BY10" s="28">
+      <c r="BY10" s="26">
         <f>SUM(BY3:BY9)</f>
         <v>144</v>
       </c>
-      <c r="BZ10" s="29" t="s">
+      <c r="BZ10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="CA10" s="28">
+      <c r="CA10" s="26">
         <f>SUM(CA4:CA8)</f>
-        <v>28.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="34"/>
+      <c r="F11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33">
+      <c r="G11" s="33"/>
+      <c r="H11" s="34">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="K11" s="32" t="s">
+      <c r="I11" s="34"/>
+      <c r="K11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33">
+      <c r="L11" s="33"/>
+      <c r="M11" s="34">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="34"/>
+      <c r="P11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="U11" s="32" t="s">
+      <c r="S11" s="34"/>
+      <c r="U11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33">
+      <c r="V11" s="33"/>
+      <c r="W11" s="34">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="33"/>
-      <c r="Z11" s="32" t="s">
+      <c r="X11" s="34"/>
+      <c r="Z11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33">
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="33"/>
-      <c r="AE11" s="32" t="s">
+      <c r="AC11" s="34"/>
+      <c r="AE11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="33">
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="33"/>
-      <c r="AJ11" s="32" t="s">
+      <c r="AH11" s="34"/>
+      <c r="AJ11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="33">
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="34">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="33"/>
-      <c r="AO11" s="32" t="s">
+      <c r="AM11" s="34"/>
+      <c r="AO11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="33">
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="33"/>
-      <c r="AT11" s="32" t="s">
+      <c r="AR11" s="34"/>
+      <c r="AT11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33">
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="34">
         <f>SUM(AW10,AU10)</f>
-        <v>176.8</v>
-      </c>
-      <c r="AW11" s="33"/>
-      <c r="AY11" s="32" t="s">
+        <v>172.8</v>
+      </c>
+      <c r="AW11" s="34"/>
+      <c r="AY11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="33">
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34">
         <f>SUM(BB10,AZ10)</f>
-        <v>170.8</v>
-      </c>
-      <c r="BB11" s="33"/>
-      <c r="BD11" s="32" t="s">
+        <v>166.3</v>
+      </c>
+      <c r="BB11" s="34"/>
+      <c r="BD11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="33">
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="34">
         <f>SUM(BG10,BE10)</f>
-        <v>176.3</v>
-      </c>
-      <c r="BG11" s="33"/>
-      <c r="BI11" s="32" t="s">
+        <v>174.8</v>
+      </c>
+      <c r="BG11" s="34"/>
+      <c r="BI11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33">
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="34">
         <f>SUM(BL10,BJ10)</f>
-        <v>172.3</v>
-      </c>
-      <c r="BL11" s="33"/>
-      <c r="BN11" s="32" t="s">
+        <v>174.8</v>
+      </c>
+      <c r="BL11" s="34"/>
+      <c r="BN11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="33">
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="34">
         <f>SUM(BQ10,BO10)</f>
-        <v>172.3</v>
-      </c>
-      <c r="BQ11" s="33"/>
-      <c r="BS11" s="32" t="s">
+        <v>174.8</v>
+      </c>
+      <c r="BQ11" s="34"/>
+      <c r="BS11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="32"/>
-      <c r="BU11" s="33">
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34">
         <f>SUM(BV10,BT10)</f>
-        <v>172.3</v>
-      </c>
-      <c r="BV11" s="33"/>
-      <c r="BX11" s="32" t="s">
+        <v>174.8</v>
+      </c>
+      <c r="BV11" s="34"/>
+      <c r="BX11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="32"/>
-      <c r="BZ11" s="33">
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="34">
         <f>SUM(CA10,BY10)</f>
-        <v>172.3</v>
-      </c>
-      <c r="CA11" s="33"/>
+        <v>174.8</v>
+      </c>
+      <c r="CA11" s="34"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33">
+      <c r="B12" s="35"/>
+      <c r="C12" s="34">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="F12" s="34" t="s">
+      <c r="D12" s="34"/>
+      <c r="F12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33">
+      <c r="G12" s="35"/>
+      <c r="H12" s="34">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="K12" s="34" t="s">
+      <c r="I12" s="34"/>
+      <c r="K12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="33">
+      <c r="L12" s="35"/>
+      <c r="M12" s="34">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="P12" s="34" t="s">
+      <c r="N12" s="34"/>
+      <c r="P12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="33">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="34">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="U12" s="34" t="s">
+      <c r="S12" s="34"/>
+      <c r="U12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="33">
+      <c r="V12" s="35"/>
+      <c r="W12" s="34">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="33"/>
-      <c r="Z12" s="34" t="s">
+      <c r="X12" s="34"/>
+      <c r="Z12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="33">
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="34">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="33"/>
-      <c r="AE12" s="34" t="s">
+      <c r="AC12" s="34"/>
+      <c r="AE12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="33">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="34">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="33"/>
-      <c r="AJ12" s="34" t="s">
+      <c r="AH12" s="34"/>
+      <c r="AJ12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="33">
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="34">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="33"/>
-      <c r="AO12" s="34" t="s">
+      <c r="AM12" s="34"/>
+      <c r="AO12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="33">
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="34">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="33"/>
-      <c r="AT12" s="34" t="s">
+      <c r="AR12" s="34"/>
+      <c r="AT12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="33">
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="34">
         <f>204-AV11</f>
-        <v>27.199999999999989</v>
-      </c>
-      <c r="AW12" s="33"/>
-      <c r="AY12" s="34" t="s">
+        <v>31.199999999999989</v>
+      </c>
+      <c r="AW12" s="34"/>
+      <c r="AY12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="33">
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="34">
         <f>204-BA11</f>
-        <v>33.199999999999989</v>
-      </c>
-      <c r="BB12" s="33"/>
-      <c r="BD12" s="34" t="s">
+        <v>37.699999999999989</v>
+      </c>
+      <c r="BB12" s="34"/>
+      <c r="BD12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="33">
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="34">
         <f>204-BF11</f>
-        <v>27.699999999999989</v>
-      </c>
-      <c r="BG12" s="33"/>
-      <c r="BI12" s="34" t="s">
+        <v>29.199999999999989</v>
+      </c>
+      <c r="BG12" s="34"/>
+      <c r="BI12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="33">
+      <c r="BJ12" s="35"/>
+      <c r="BK12" s="34">
         <f>204-BK11</f>
-        <v>31.699999999999989</v>
-      </c>
-      <c r="BL12" s="33"/>
-      <c r="BN12" s="34" t="s">
+        <v>29.199999999999989</v>
+      </c>
+      <c r="BL12" s="34"/>
+      <c r="BN12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="33">
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="34">
         <f>204-BP11</f>
-        <v>31.699999999999989</v>
-      </c>
-      <c r="BQ12" s="33"/>
-      <c r="BS12" s="34" t="s">
+        <v>29.199999999999989</v>
+      </c>
+      <c r="BQ12" s="34"/>
+      <c r="BS12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="33">
+      <c r="BT12" s="35"/>
+      <c r="BU12" s="34">
         <f>204-BU11</f>
-        <v>31.699999999999989</v>
-      </c>
-      <c r="BV12" s="33"/>
-      <c r="BX12" s="34" t="s">
+        <v>29.199999999999989</v>
+      </c>
+      <c r="BV12" s="34"/>
+      <c r="BX12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="34"/>
-      <c r="BZ12" s="33">
+      <c r="BY12" s="35"/>
+      <c r="BZ12" s="34">
         <f>204-BZ11</f>
-        <v>31.699999999999989</v>
-      </c>
-      <c r="CA12" s="33"/>
+        <v>29.199999999999989</v>
+      </c>
+      <c r="CA12" s="34"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="30">
         <v>-4</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="30">
         <v>-4</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" s="25" t="s">
+      <c r="AE13" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AF13" s="25">
+      <c r="AF13" s="23">
         <v>20</v>
       </c>
-      <c r="AJ13" s="25" t="s">
+      <c r="AJ13" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AK13" s="23">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="30">
         <f>I3-4</f>
         <v>35</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="30">
         <f>N3-4</f>
         <v>27</v>
       </c>
-      <c r="Z14" s="25" t="s">
+      <c r="Z14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AA14" s="23">
         <f>AA5+AA13</f>
         <v>20</v>
       </c>
-      <c r="AE14" s="25" t="s">
+      <c r="AE14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AF14" s="25">
+      <c r="AF14" s="23">
         <f>AF5+AF13</f>
         <v>40</v>
       </c>
-      <c r="AJ14" s="25" t="s">
+      <c r="AJ14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14" s="23">
         <f>AF14+AK13</f>
         <v>60</v>
       </c>
-      <c r="AO14" s="25" t="s">
+      <c r="AO14" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AP14" s="25">
+      <c r="AP14" s="23">
         <v>60</v>
       </c>
-      <c r="AQ14" s="36" t="s">
+      <c r="AQ14" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="AR14" s="35">
-        <v>-260</v>
+      <c r="AR14" s="30">
+        <v>-280</v>
       </c>
     </row>
     <row r="15" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="30">
         <v>12</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="30">
         <v>12</v>
       </c>
-      <c r="AO15" s="25" t="s">
+      <c r="AO15" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="AP15" s="25">
+      <c r="AP15" s="23">
         <v>10</v>
       </c>
-      <c r="AR15" s="35">
+      <c r="AR15" s="30">
         <f>AR14+AP15</f>
-        <v>-250</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="P16" s="25">
+      <c r="P16" s="23">
         <f>85+55</f>
         <v>140</v>
       </c>
-      <c r="Z16" s="25" t="s">
+      <c r="Z16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="25">
+      <c r="AA16" s="23">
         <v>300</v>
       </c>
-      <c r="AO16" s="25" t="s">
+      <c r="AO16" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AP16" s="25">
+      <c r="AP16" s="23">
         <v>10</v>
       </c>
-      <c r="AR16" s="35">
+      <c r="AR16" s="30">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
-        <v>-240</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="Z17" s="25" t="s">
+      <c r="Z17" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="AA17" s="23">
         <v>145</v>
       </c>
-      <c r="AO17" s="25" t="s">
+      <c r="AO17" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="AP17" s="25">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="35">
+      <c r="AP17" s="23">
+        <v>60</v>
+      </c>
+      <c r="AR17" s="30">
         <f t="shared" si="0"/>
-        <v>-185</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AA18" s="25">
+      <c r="AA18" s="23">
         <f>AA16-AA17</f>
         <v>155</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="23">
         <v>66</v>
       </c>
-      <c r="AO18" s="25" t="s">
+      <c r="AO18" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="AP18" s="25">
+      <c r="AP18" s="23">
         <v>60</v>
       </c>
-      <c r="AR18" s="35">
+      <c r="AR18" s="30">
         <f t="shared" si="0"/>
-        <v>-125</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK19" s="25">
+      <c r="AK19" s="23">
         <v>20</v>
       </c>
-      <c r="AO19" s="25" t="s">
+      <c r="AO19" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AP19" s="25">
+      <c r="AP19" s="23">
         <v>40</v>
       </c>
-      <c r="AR19" s="35">
+      <c r="AR19" s="30">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK20" s="25">
+      <c r="AK20" s="23">
         <v>86</v>
       </c>
-      <c r="AO20" s="25" t="s">
+      <c r="AO20" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="AP20" s="25">
+      <c r="AP20" s="23">
         <v>40</v>
       </c>
-      <c r="AR20" s="35">
+      <c r="AR20" s="30">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO21" s="25" t="s">
+      <c r="AO21" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AP21" s="25">
+      <c r="AP21" s="23">
         <v>40</v>
       </c>
-      <c r="AR21" s="35">
+      <c r="AR21" s="30">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE22" s="25" t="s">
+      <c r="AE22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AF22" s="25">
+      <c r="AF22" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE23" s="25" t="s">
+      <c r="AE23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AF23" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE24" s="25" t="s">
+      <c r="AE24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AF24" s="25">
+      <c r="AF24" s="23">
         <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="23">
         <v>0.8</v>
       </c>
-      <c r="AO25" s="25" t="s">
+      <c r="AO25" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AP25" s="25">
+      <c r="AP25" s="23">
         <v>-170</v>
       </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE26" s="25" t="s">
+      <c r="AE26" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="23">
         <v>0.8</v>
       </c>
-      <c r="AO26" s="25" t="s">
+      <c r="AO26" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AP26" s="25">
+      <c r="AP26" s="23">
         <v>-60</v>
       </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE27" s="25" t="s">
+      <c r="AE27" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="23">
         <v>2</v>
       </c>
-      <c r="AO27" s="25" t="s">
+      <c r="AO27" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AP27" s="25">
+      <c r="AP27" s="23">
         <v>-30</v>
       </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE28" s="25" t="s">
+      <c r="AE28" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AF28" s="25">
+      <c r="AF28" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AF29" s="25">
+      <c r="AF29" s="23">
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
       </c>
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO32" s="25" t="s">
+      <c r="AO32" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AP32" s="25">
+      <c r="AP32" s="23">
         <f>SUM(AP25:AP31)</f>
         <v>-260</v>
       </c>
     </row>
     <row r="35" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO35" s="25" t="s">
+      <c r="AO35" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="36" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO36" s="25" t="s">
+      <c r="AO36" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO37" s="25" t="s">
+      <c r="AO37" s="23" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3790,7 +3766,7 @@
       <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0913 17:18</v>
+        <v>0919 18:30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4354,7 +4330,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0913 17:18</v>
+        <v>0919 18:30</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4614,50 +4590,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="36"/>
+      <c r="S1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="T1" s="36"/>
+      <c r="V1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="W1" s="36"/>
+      <c r="Y1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AB1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AC1" s="36"/>
+      <c r="AE1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="22"/>
+      <c r="AF1" s="36"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52287A-FA05-4AB7-8107-8F0015F6C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD14F3E-8E08-49D8-BF8A-A7BA7B70EACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="지출 기록" sheetId="2" r:id="rId3"/>
     <sheet name="(구)지출 목록" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="146">
   <si>
     <t>보증금</t>
   </si>
@@ -499,10 +499,6 @@
   </si>
   <si>
     <t>9월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1211,7 +1207,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1361,37 +1357,37 @@
       <c r="AV1" s="32"/>
       <c r="AW1" s="32"/>
       <c r="AY1" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ1" s="32"/>
       <c r="BA1" s="32"/>
       <c r="BB1" s="32"/>
       <c r="BD1" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BE1" s="32"/>
       <c r="BF1" s="32"/>
       <c r="BG1" s="32"/>
       <c r="BI1" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BJ1" s="32"/>
       <c r="BK1" s="32"/>
       <c r="BL1" s="32"/>
       <c r="BN1" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO1" s="32"/>
       <c r="BP1" s="32"/>
       <c r="BQ1" s="32"/>
       <c r="BS1" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BT1" s="32"/>
       <c r="BU1" s="32"/>
       <c r="BV1" s="32"/>
       <c r="BX1" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
@@ -1709,9 +1705,7 @@
       <c r="AV3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="26">
-        <v>0</v>
-      </c>
+      <c r="AW3" s="26"/>
       <c r="AY3" s="25" t="s">
         <v>74</v>
       </c>
@@ -2267,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="AO6" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AP6" s="26">
         <v>10</v>
@@ -2278,12 +2272,8 @@
       <c r="AR6" s="26">
         <v>6</v>
       </c>
-      <c r="AT6" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU6" s="26">
-        <v>10</v>
-      </c>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="26"/>
       <c r="AV6" s="25" t="s">
         <v>77</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="BX6" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BY6" s="26">
         <v>8</v>
@@ -2489,7 +2479,7 @@
       <c r="BA7" s="25"/>
       <c r="BB7" s="26"/>
       <c r="BD7" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BE7" s="26">
         <v>8</v>
@@ -2497,7 +2487,7 @@
       <c r="BF7" s="25"/>
       <c r="BG7" s="26"/>
       <c r="BI7" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BJ7" s="26">
         <v>8</v>
@@ -2505,7 +2495,7 @@
       <c r="BK7" s="25"/>
       <c r="BL7" s="26"/>
       <c r="BN7" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BO7" s="26">
         <v>8</v>
@@ -2513,7 +2503,7 @@
       <c r="BP7" s="25"/>
       <c r="BQ7" s="26"/>
       <c r="BS7" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BT7" s="26">
         <v>8</v>
@@ -2521,7 +2511,7 @@
       <c r="BU7" s="25"/>
       <c r="BV7" s="26"/>
       <c r="BX7" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BY7" s="26">
         <v>20</v>
@@ -2633,7 +2623,7 @@
         <v>13.2</v>
       </c>
       <c r="AT8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU8" s="26">
         <v>8</v>
@@ -2641,12 +2631,11 @@
       <c r="AV8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AW8" s="26" t="str">
-        <f>IF(AW3-(SUM(AW4:AW7))&lt;=0,"0",AW3-(SUM(AW4:AW7)))</f>
-        <v>0</v>
+      <c r="AW8" s="26">
+        <v>10.8</v>
       </c>
       <c r="AY8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AZ8" s="26">
         <v>8</v>
@@ -2954,14 +2943,14 @@
       </c>
       <c r="AU10" s="26">
         <f>SUM(AU3:AU9)</f>
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AV10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="AW10" s="26">
         <f>SUM(AW4:AW8)</f>
-        <v>44.8</v>
+        <v>55.599999999999994</v>
       </c>
       <c r="AY10" s="27" t="s">
         <v>84</v>
@@ -3136,7 +3125,7 @@
       <c r="AU11" s="33"/>
       <c r="AV11" s="34">
         <f>SUM(AW10,AU10)</f>
-        <v>172.8</v>
+        <v>173.6</v>
       </c>
       <c r="AW11" s="34"/>
       <c r="AY11" s="33" t="s">
@@ -3282,7 +3271,7 @@
       <c r="AU12" s="35"/>
       <c r="AV12" s="34">
         <f>204-AV11</f>
-        <v>31.199999999999989</v>
+        <v>30.400000000000006</v>
       </c>
       <c r="AW12" s="34"/>
       <c r="AY12" s="35" t="s">
@@ -3412,7 +3401,7 @@
         <v>60</v>
       </c>
       <c r="AQ14" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR14" s="30">
         <v>-280</v>
@@ -3431,15 +3420,9 @@
       <c r="S15" s="30">
         <v>12</v>
       </c>
-      <c r="AO15" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP15" s="23">
-        <v>10</v>
-      </c>
       <c r="AR15" s="30">
         <f>AR14+AP15</f>
-        <v>-270</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3454,14 +3437,14 @@
         <v>300</v>
       </c>
       <c r="AO16" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AP16" s="23">
         <v>10</v>
       </c>
       <c r="AR16" s="30">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
-        <v>-260</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3475,14 +3458,14 @@
         <v>145</v>
       </c>
       <c r="AO17" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AP17" s="23">
         <v>60</v>
       </c>
       <c r="AR17" s="30">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
@@ -3494,14 +3477,14 @@
         <v>66</v>
       </c>
       <c r="AO18" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP18" s="23">
         <v>60</v>
       </c>
       <c r="AR18" s="30">
         <f t="shared" si="0"/>
-        <v>-140</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
@@ -3509,14 +3492,14 @@
         <v>20</v>
       </c>
       <c r="AO19" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP19" s="23">
         <v>40</v>
       </c>
       <c r="AR19" s="30">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
@@ -3524,26 +3507,26 @@
         <v>86</v>
       </c>
       <c r="AO20" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AP20" s="23">
         <v>40</v>
       </c>
       <c r="AR20" s="30">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AO21" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AP21" s="23">
         <v>40</v>
       </c>
       <c r="AR21" s="30">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
@@ -3592,7 +3575,7 @@
         <v>0.8</v>
       </c>
       <c r="AO26" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AP26" s="23">
         <v>-60</v>
@@ -3606,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="AO27" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP27" s="23">
         <v>-30</v>
@@ -3628,7 +3611,7 @@
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
       <c r="AO32" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP32" s="23">
         <f>SUM(AP25:AP31)</f>
@@ -3637,71 +3620,36 @@
     </row>
     <row r="35" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO35" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO36" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="41:41" x14ac:dyDescent="0.3">
       <c r="AO37" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3717,21 +3665,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3766,7 +3749,7 @@
       <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0919 18:30</v>
+        <v>0926 16:39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4330,7 +4313,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0919 18:30</v>
+        <v>0926 16:39</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5708,17 +5691,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD14F3E-8E08-49D8-BF8A-A7BA7B70EACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D707683-D481-4FF7-A3CE-58B2C1C98A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="148">
   <si>
     <t>보증금</t>
   </si>
@@ -581,6 +581,14 @@
   </si>
   <si>
     <t>누나 보증금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 월급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +881,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,8 +1220,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE5" sqref="BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1296,102 +1310,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="P1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="U1" s="32" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="U1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Z1" s="32" t="s">
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Z1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AE1" s="32" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AE1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AJ1" s="32" t="s">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AJ1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AO1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AT1" s="32" t="s">
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AT1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AY1" s="32" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AY1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BD1" s="32" t="s">
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BD1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BI1" s="32" t="s">
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BI1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BN1" s="32" t="s">
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BN1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BS1" s="32" t="s">
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BS1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BX1" s="32" t="s">
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BX1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -1916,7 +1930,7 @@
         <v>73</v>
       </c>
       <c r="BE4" s="26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF4" s="25" t="s">
         <v>75</v>
@@ -2091,10 +2105,10 @@
         <v>6.8</v>
       </c>
       <c r="AY5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ5" s="26">
-        <v>32</v>
+        <v>122</v>
+      </c>
+      <c r="AZ5" s="32">
+        <v>3.7</v>
       </c>
       <c r="BA5" s="25" t="s">
         <v>76</v>
@@ -2102,12 +2116,8 @@
       <c r="BB5" s="26">
         <v>6.8</v>
       </c>
-      <c r="BD5" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE5" s="26">
-        <v>60</v>
-      </c>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="26"/>
       <c r="BF5" s="25" t="s">
         <v>76</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>121</v>
       </c>
       <c r="BJ5" s="26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="BK5" s="25" t="s">
         <v>76</v>
@@ -2139,10 +2149,10 @@
         <v>6.8</v>
       </c>
       <c r="BS5" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT5" s="26">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="BT5" s="33">
+        <v>6</v>
       </c>
       <c r="BU5" s="25" t="s">
         <v>76</v>
@@ -2281,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="AY6" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ6" s="26">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="AZ6" s="32">
+        <v>8</v>
       </c>
       <c r="BA6" s="25" t="s">
         <v>77</v>
@@ -2329,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="BS6" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT6" s="26">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="BT6" s="33">
+        <v>8</v>
       </c>
       <c r="BU6" s="25" t="s">
         <v>77</v>
@@ -2470,12 +2480,8 @@
       <c r="AW7" s="26">
         <v>2</v>
       </c>
-      <c r="AY7" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ7" s="26">
-        <v>6</v>
-      </c>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="26"/>
       <c r="BA7" s="25"/>
       <c r="BB7" s="26"/>
       <c r="BD7" s="25" t="s">
@@ -2503,10 +2509,10 @@
       <c r="BP7" s="25"/>
       <c r="BQ7" s="26"/>
       <c r="BS7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT7" s="26">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="BT7" s="33">
+        <v>20</v>
       </c>
       <c r="BU7" s="25"/>
       <c r="BV7" s="26"/>
@@ -2634,36 +2640,29 @@
       <c r="AW8" s="26">
         <v>10.8</v>
       </c>
-      <c r="AY8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ8" s="26">
-        <v>8</v>
-      </c>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="26"/>
       <c r="BA8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BB8" s="26" t="str">
-        <f>IF(BB3-(SUM(BB4:BB7))&lt;=0,"0",BB3-(SUM(BB4:BB7)))</f>
-        <v>0</v>
+      <c r="BB8" s="26">
+        <v>34</v>
       </c>
       <c r="BD8" s="25"/>
       <c r="BE8" s="26"/>
       <c r="BF8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BG8" s="26" t="str">
-        <f>IF(BG3-(SUM(BG4:BG7))&lt;=0,"0",BG3-(SUM(BG4:BG7)))</f>
-        <v>0</v>
+      <c r="BG8" s="26">
+        <v>60</v>
       </c>
       <c r="BI8" s="25"/>
       <c r="BJ8" s="26"/>
       <c r="BK8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="BL8" s="26" t="str">
-        <f>IF(BL3-(SUM(BL4:BL7))&lt;=0,"0",BL3-(SUM(BL4:BL7)))</f>
-        <v>0</v>
+      <c r="BL8" s="26">
+        <v>30</v>
       </c>
       <c r="BN8" s="25" t="s">
         <v>44</v>
@@ -2678,12 +2677,8 @@
         <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT8" s="26">
-        <v>20</v>
-      </c>
+      <c r="BS8" s="25"/>
+      <c r="BT8" s="26"/>
       <c r="BU8" s="25" t="s">
         <v>104</v>
       </c>
@@ -2691,12 +2686,8 @@
         <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY8" s="26">
-        <v>40</v>
-      </c>
+      <c r="BX8" s="25"/>
+      <c r="BY8" s="26"/>
       <c r="BZ8" s="25" t="s">
         <v>104</v>
       </c>
@@ -2957,42 +2948,42 @@
       </c>
       <c r="AZ10" s="26">
         <f>SUM(AZ3:AZ9)</f>
-        <v>126</v>
+        <v>81.7</v>
       </c>
       <c r="BA10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BB10" s="26">
         <f>SUM(BB4:BB8)</f>
-        <v>40.299999999999997</v>
+        <v>74.3</v>
       </c>
       <c r="BD10" s="27" t="s">
         <v>84</v>
       </c>
       <c r="BE10" s="26">
         <f>SUM(BE3:BE9)</f>
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="BF10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BG10" s="26">
         <f>SUM(BG4:BG8)</f>
-        <v>30.8</v>
+        <v>90.8</v>
       </c>
       <c r="BI10" s="27" t="s">
         <v>84</v>
       </c>
       <c r="BJ10" s="26">
         <f>SUM(BJ3:BJ9)</f>
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="BK10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BL10" s="26">
         <f>SUM(BL4:BL8)</f>
-        <v>30.8</v>
+        <v>60.8</v>
       </c>
       <c r="BN10" s="27" t="s">
         <v>84</v>
@@ -3013,7 +3004,7 @@
       </c>
       <c r="BT10" s="26">
         <f>SUM(BT3:BT9)</f>
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="BU10" s="27" t="s">
         <v>83</v>
@@ -3027,7 +3018,7 @@
       </c>
       <c r="BY10" s="26">
         <f>SUM(BY3:BY9)</f>
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="BZ10" s="27" t="s">
         <v>83</v>
@@ -3038,296 +3029,296 @@
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="F11" s="33" t="s">
+      <c r="D11" s="36"/>
+      <c r="F11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="K11" s="33" t="s">
+      <c r="I11" s="36"/>
+      <c r="K11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34">
+      <c r="L11" s="35"/>
+      <c r="M11" s="36">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="P11" s="33" t="s">
+      <c r="N11" s="36"/>
+      <c r="P11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="34">
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="U11" s="33" t="s">
+      <c r="S11" s="36"/>
+      <c r="U11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34">
+      <c r="V11" s="35"/>
+      <c r="W11" s="36">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="34"/>
-      <c r="Z11" s="33" t="s">
+      <c r="X11" s="36"/>
+      <c r="Z11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34">
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="34"/>
-      <c r="AE11" s="33" t="s">
+      <c r="AC11" s="36"/>
+      <c r="AE11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="34">
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="36">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="34"/>
-      <c r="AJ11" s="33" t="s">
+      <c r="AH11" s="36"/>
+      <c r="AJ11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="34">
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="36">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="34"/>
-      <c r="AO11" s="33" t="s">
+      <c r="AM11" s="36"/>
+      <c r="AO11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="34">
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="36">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="34"/>
-      <c r="AT11" s="33" t="s">
+      <c r="AR11" s="36"/>
+      <c r="AT11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="34">
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="36">
         <f>SUM(AW10,AU10)</f>
         <v>173.6</v>
       </c>
-      <c r="AW11" s="34"/>
-      <c r="AY11" s="33" t="s">
+      <c r="AW11" s="36"/>
+      <c r="AY11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="34">
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="36">
         <f>SUM(BB10,AZ10)</f>
-        <v>166.3</v>
-      </c>
-      <c r="BB11" s="34"/>
-      <c r="BD11" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB11" s="36"/>
+      <c r="BD11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="34">
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="36">
         <f>SUM(BG10,BE10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="BG11" s="34"/>
-      <c r="BI11" s="33" t="s">
+        <v>171.8</v>
+      </c>
+      <c r="BG11" s="36"/>
+      <c r="BI11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="34">
+      <c r="BJ11" s="35"/>
+      <c r="BK11" s="36">
         <f>SUM(BL10,BJ10)</f>
         <v>174.8</v>
       </c>
-      <c r="BL11" s="34"/>
-      <c r="BN11" s="33" t="s">
+      <c r="BL11" s="36"/>
+      <c r="BN11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="34">
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="36">
         <f>SUM(BQ10,BO10)</f>
         <v>174.8</v>
       </c>
-      <c r="BQ11" s="34"/>
-      <c r="BS11" s="33" t="s">
+      <c r="BQ11" s="36"/>
+      <c r="BS11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="34">
+      <c r="BT11" s="35"/>
+      <c r="BU11" s="36">
         <f>SUM(BV10,BT10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="BV11" s="34"/>
-      <c r="BX11" s="33" t="s">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="BV11" s="36"/>
+      <c r="BX11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="34">
+      <c r="BY11" s="35"/>
+      <c r="BZ11" s="36">
         <f>SUM(CA10,BY10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="CA11" s="34"/>
+        <v>134.80000000000001</v>
+      </c>
+      <c r="CA11" s="36"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="34">
+      <c r="B12" s="37"/>
+      <c r="C12" s="36">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="F12" s="35" t="s">
+      <c r="D12" s="36"/>
+      <c r="F12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34">
+      <c r="G12" s="37"/>
+      <c r="H12" s="36">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="K12" s="35" t="s">
+      <c r="I12" s="36"/>
+      <c r="K12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="34">
+      <c r="L12" s="37"/>
+      <c r="M12" s="36">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="P12" s="35" t="s">
+      <c r="N12" s="36"/>
+      <c r="P12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="34">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="U12" s="35" t="s">
+      <c r="S12" s="36"/>
+      <c r="U12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="35"/>
-      <c r="W12" s="34">
+      <c r="V12" s="37"/>
+      <c r="W12" s="36">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="34"/>
-      <c r="Z12" s="35" t="s">
+      <c r="X12" s="36"/>
+      <c r="Z12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="34">
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="36">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="34"/>
-      <c r="AE12" s="35" t="s">
+      <c r="AC12" s="36"/>
+      <c r="AE12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="34">
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="36">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="34"/>
-      <c r="AJ12" s="35" t="s">
+      <c r="AH12" s="36"/>
+      <c r="AJ12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="34">
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="36">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="34"/>
-      <c r="AO12" s="35" t="s">
+      <c r="AM12" s="36"/>
+      <c r="AO12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="34">
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="36">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="34"/>
-      <c r="AT12" s="35" t="s">
+      <c r="AR12" s="36"/>
+      <c r="AT12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="34">
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="36">
         <f>204-AV11</f>
         <v>30.400000000000006</v>
       </c>
-      <c r="AW12" s="34"/>
-      <c r="AY12" s="35" t="s">
+      <c r="AW12" s="36"/>
+      <c r="AY12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="34">
-        <f>204-BA11</f>
-        <v>37.699999999999989</v>
-      </c>
-      <c r="BB12" s="34"/>
-      <c r="BD12" s="35" t="s">
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="36">
+        <f>166-BA11</f>
+        <v>10</v>
+      </c>
+      <c r="BB12" s="36"/>
+      <c r="BD12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="34">
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="36">
         <f>204-BF11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="BG12" s="34"/>
-      <c r="BI12" s="35" t="s">
+        <v>32.199999999999989</v>
+      </c>
+      <c r="BG12" s="36"/>
+      <c r="BI12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="34">
+      <c r="BJ12" s="37"/>
+      <c r="BK12" s="36">
         <f>204-BK11</f>
         <v>29.199999999999989</v>
       </c>
-      <c r="BL12" s="34"/>
-      <c r="BN12" s="35" t="s">
+      <c r="BL12" s="36"/>
+      <c r="BN12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="35"/>
-      <c r="BP12" s="34">
+      <c r="BO12" s="37"/>
+      <c r="BP12" s="36">
         <f>204-BP11</f>
         <v>29.199999999999989</v>
       </c>
-      <c r="BQ12" s="34"/>
-      <c r="BS12" s="35" t="s">
+      <c r="BQ12" s="36"/>
+      <c r="BS12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="35"/>
-      <c r="BU12" s="34">
+      <c r="BT12" s="37"/>
+      <c r="BU12" s="36">
         <f>204-BU11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="BV12" s="34"/>
-      <c r="BX12" s="35" t="s">
+        <v>69.199999999999989</v>
+      </c>
+      <c r="BV12" s="36"/>
+      <c r="BX12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="34">
+      <c r="BY12" s="37"/>
+      <c r="BZ12" s="36">
         <f>204-BZ11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="CA12" s="34"/>
+        <v>69.199999999999989</v>
+      </c>
+      <c r="CA12" s="36"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H13" s="23" t="s">
@@ -3423,6 +3414,18 @@
       <c r="AR15" s="30">
         <f>AR14+AP15</f>
         <v>-280</v>
+      </c>
+      <c r="BI15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ15" s="23">
+        <v>400</v>
+      </c>
+      <c r="BK15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL15" s="30">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3445,6 +3448,12 @@
       <c r="AR16" s="30">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
         <v>-270</v>
+      </c>
+      <c r="BI16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ16" s="23">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3749,7 +3758,7 @@
       <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0926 16:39</v>
+        <v>1124 10:49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4313,7 +4322,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0926 16:39</v>
+        <v>1124 10:49</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4573,50 +4582,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="K1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="P1" s="36" t="s">
+      <c r="N1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="S1" s="36" t="s">
+      <c r="Q1" s="38"/>
+      <c r="S1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="T1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="Y1" s="36" t="s">
+      <c r="W1" s="38"/>
+      <c r="Y1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AB1" s="36" t="s">
+      <c r="Z1" s="38"/>
+      <c r="AB1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AE1" s="36" t="s">
+      <c r="AC1" s="38"/>
+      <c r="AE1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="36"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D707683-D481-4FF7-A3CE-58B2C1C98A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169099BE-474C-4F3B-A8F4-16C97ABC17C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="149">
   <si>
     <t>보증금</t>
   </si>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t>퇴직금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +885,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,8 +1227,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BK15" sqref="BK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1310,102 +1317,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="P1" s="34" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Z1" s="34" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Z1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AE1" s="34" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AO1" s="34" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AO1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AT1" s="34" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AT1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AY1" s="34" t="s">
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AY1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BD1" s="34" t="s">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BD1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BI1" s="34" t="s">
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BI1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BN1" s="34" t="s">
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BN1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BS1" s="34" t="s">
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BS1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BX1" s="34" t="s">
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BX1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -1936,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="BG4" s="26">
-        <v>18</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="BI4" s="25" t="s">
         <v>73</v>
@@ -1948,7 +1955,7 @@
         <v>75</v>
       </c>
       <c r="BL4" s="26">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BN4" s="25" t="s">
         <v>73</v>
@@ -1960,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="BQ4" s="26">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BS4" s="25" t="s">
         <v>73</v>
@@ -1972,7 +1979,7 @@
         <v>75</v>
       </c>
       <c r="BV4" s="26">
-        <v>18</v>
+        <v>13.2</v>
       </c>
       <c r="BX4" s="25" t="s">
         <v>73</v>
@@ -2125,10 +2132,10 @@
         <v>6.8</v>
       </c>
       <c r="BI5" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ5" s="26">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="BJ5" s="34">
+        <v>6</v>
       </c>
       <c r="BK5" s="25" t="s">
         <v>76</v>
@@ -2140,7 +2147,7 @@
         <v>121</v>
       </c>
       <c r="BO5" s="26">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="BP5" s="25" t="s">
         <v>76</v>
@@ -2315,10 +2322,10 @@
         <v>6</v>
       </c>
       <c r="BI6" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ6" s="26">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="BJ6" s="34">
+        <v>8</v>
       </c>
       <c r="BK6" s="25" t="s">
         <v>77</v>
@@ -2492,12 +2499,8 @@
       </c>
       <c r="BF7" s="25"/>
       <c r="BG7" s="26"/>
-      <c r="BI7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ7" s="26">
-        <v>8</v>
-      </c>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="26"/>
       <c r="BK7" s="25"/>
       <c r="BL7" s="26"/>
       <c r="BN7" s="25" t="s">
@@ -2648,13 +2651,17 @@
       <c r="BB8" s="26">
         <v>34</v>
       </c>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="26"/>
+      <c r="BD8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE8" s="26">
+        <v>12</v>
+      </c>
       <c r="BF8" s="25" t="s">
         <v>104</v>
       </c>
       <c r="BG8" s="26">
-        <v>60</v>
+        <v>42.6</v>
       </c>
       <c r="BI8" s="25"/>
       <c r="BJ8" s="26"/>
@@ -2662,7 +2669,7 @@
         <v>104</v>
       </c>
       <c r="BL8" s="26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="BN8" s="25" t="s">
         <v>44</v>
@@ -2781,8 +2788,12 @@
       <c r="AZ9" s="26"/>
       <c r="BA9" s="25"/>
       <c r="BB9" s="26"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="26"/>
+      <c r="BD9" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE9" s="26">
+        <v>8</v>
+      </c>
       <c r="BF9" s="25"/>
       <c r="BG9" s="26"/>
       <c r="BI9" s="25"/>
@@ -2962,42 +2973,42 @@
       </c>
       <c r="BE10" s="26">
         <f>SUM(BE3:BE9)</f>
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BF10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BG10" s="26">
         <f>SUM(BG4:BG8)</f>
-        <v>90.8</v>
+        <v>88.199999999999989</v>
       </c>
       <c r="BI10" s="27" t="s">
         <v>84</v>
       </c>
       <c r="BJ10" s="26">
         <f>SUM(BJ3:BJ9)</f>
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="BK10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BL10" s="26">
         <f>SUM(BL4:BL8)</f>
-        <v>60.8</v>
+        <v>59.8</v>
       </c>
       <c r="BN10" s="27" t="s">
         <v>84</v>
       </c>
       <c r="BO10" s="26">
         <f>SUM(BO3:BO9)</f>
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="BP10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="BQ10" s="26">
         <f>SUM(BQ4:BQ8)</f>
-        <v>30.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="BS10" s="27" t="s">
         <v>84</v>
@@ -3011,7 +3022,7 @@
       </c>
       <c r="BV10" s="26">
         <f>SUM(BV4:BV8)</f>
-        <v>30.8</v>
+        <v>26</v>
       </c>
       <c r="BX10" s="27" t="s">
         <v>84</v>
@@ -3029,296 +3040,296 @@
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="37"/>
+      <c r="F11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="K11" s="35" t="s">
+      <c r="I11" s="37"/>
+      <c r="K11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36">
+      <c r="L11" s="36"/>
+      <c r="M11" s="37">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="P11" s="35" t="s">
+      <c r="N11" s="37"/>
+      <c r="P11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="U11" s="35" t="s">
+      <c r="S11" s="37"/>
+      <c r="U11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36">
+      <c r="V11" s="36"/>
+      <c r="W11" s="37">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="36"/>
-      <c r="Z11" s="35" t="s">
+      <c r="X11" s="37"/>
+      <c r="Z11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="36">
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="36"/>
-      <c r="AE11" s="35" t="s">
+      <c r="AC11" s="37"/>
+      <c r="AE11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36">
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="37">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="36"/>
-      <c r="AJ11" s="35" t="s">
+      <c r="AH11" s="37"/>
+      <c r="AJ11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="36">
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="37">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="36"/>
-      <c r="AO11" s="35" t="s">
+      <c r="AM11" s="37"/>
+      <c r="AO11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="36">
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="37">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="36"/>
-      <c r="AT11" s="35" t="s">
+      <c r="AR11" s="37"/>
+      <c r="AT11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="36">
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="37">
         <f>SUM(AW10,AU10)</f>
         <v>173.6</v>
       </c>
-      <c r="AW11" s="36"/>
-      <c r="AY11" s="35" t="s">
+      <c r="AW11" s="37"/>
+      <c r="AY11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="36">
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="37">
         <f>SUM(BB10,AZ10)</f>
         <v>156</v>
       </c>
-      <c r="BB11" s="36"/>
-      <c r="BD11" s="35" t="s">
+      <c r="BB11" s="37"/>
+      <c r="BD11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="36">
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="37">
         <f>SUM(BG10,BE10)</f>
-        <v>171.8</v>
-      </c>
-      <c r="BG11" s="36"/>
-      <c r="BI11" s="35" t="s">
+        <v>189.2</v>
+      </c>
+      <c r="BG11" s="37"/>
+      <c r="BI11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36">
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="37">
         <f>SUM(BL10,BJ10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="BL11" s="36"/>
-      <c r="BN11" s="35" t="s">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="BL11" s="37"/>
+      <c r="BN11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="36">
+      <c r="BO11" s="36"/>
+      <c r="BP11" s="37">
         <f>SUM(BQ10,BO10)</f>
-        <v>174.8</v>
-      </c>
-      <c r="BQ11" s="36"/>
-      <c r="BS11" s="35" t="s">
+        <v>173.8</v>
+      </c>
+      <c r="BQ11" s="37"/>
+      <c r="BS11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="36">
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="37">
         <f>SUM(BV10,BT10)</f>
-        <v>134.80000000000001</v>
-      </c>
-      <c r="BV11" s="36"/>
-      <c r="BX11" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV11" s="37"/>
+      <c r="BX11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="36">
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="37">
         <f>SUM(CA10,BY10)</f>
         <v>134.80000000000001</v>
       </c>
-      <c r="CA11" s="36"/>
+      <c r="CA11" s="37"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36">
+      <c r="B12" s="38"/>
+      <c r="C12" s="37">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36">
+      <c r="G12" s="38"/>
+      <c r="H12" s="37">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="K12" s="37" t="s">
+      <c r="I12" s="37"/>
+      <c r="K12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36">
+      <c r="L12" s="38"/>
+      <c r="M12" s="37">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="P12" s="37" t="s">
+      <c r="N12" s="37"/>
+      <c r="P12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="36">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="37">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="U12" s="37" t="s">
+      <c r="S12" s="37"/>
+      <c r="U12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="36">
+      <c r="V12" s="38"/>
+      <c r="W12" s="37">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="36"/>
-      <c r="Z12" s="37" t="s">
+      <c r="X12" s="37"/>
+      <c r="Z12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="36">
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="37">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="36"/>
-      <c r="AE12" s="37" t="s">
+      <c r="AC12" s="37"/>
+      <c r="AE12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="36">
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="37">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="36"/>
-      <c r="AJ12" s="37" t="s">
+      <c r="AH12" s="37"/>
+      <c r="AJ12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="36">
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="37">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="36"/>
-      <c r="AO12" s="37" t="s">
+      <c r="AM12" s="37"/>
+      <c r="AO12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="36">
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="37">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="36"/>
-      <c r="AT12" s="37" t="s">
+      <c r="AR12" s="37"/>
+      <c r="AT12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="36">
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="37">
         <f>204-AV11</f>
         <v>30.400000000000006</v>
       </c>
-      <c r="AW12" s="36"/>
-      <c r="AY12" s="37" t="s">
+      <c r="AW12" s="37"/>
+      <c r="AY12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="36">
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="37">
         <f>166-BA11</f>
         <v>10</v>
       </c>
-      <c r="BB12" s="36"/>
-      <c r="BD12" s="37" t="s">
+      <c r="BB12" s="37"/>
+      <c r="BD12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="37"/>
-      <c r="BF12" s="36">
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="37">
         <f>204-BF11</f>
-        <v>32.199999999999989</v>
-      </c>
-      <c r="BG12" s="36"/>
-      <c r="BI12" s="37" t="s">
+        <v>14.800000000000011</v>
+      </c>
+      <c r="BG12" s="37"/>
+      <c r="BI12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="37"/>
-      <c r="BK12" s="36">
-        <f>204-BK11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="BL12" s="36"/>
-      <c r="BN12" s="37" t="s">
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="37">
+        <f>170-BK11</f>
+        <v>26.199999999999989</v>
+      </c>
+      <c r="BL12" s="37"/>
+      <c r="BN12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="36">
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="37">
         <f>204-BP11</f>
-        <v>29.199999999999989</v>
-      </c>
-      <c r="BQ12" s="36"/>
-      <c r="BS12" s="37" t="s">
+        <v>30.199999999999989</v>
+      </c>
+      <c r="BQ12" s="37"/>
+      <c r="BS12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="37"/>
-      <c r="BU12" s="36">
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="37">
         <f>204-BU11</f>
-        <v>69.199999999999989</v>
-      </c>
-      <c r="BV12" s="36"/>
-      <c r="BX12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV12" s="37"/>
+      <c r="BX12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="37"/>
-      <c r="BZ12" s="36">
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="37">
         <f>204-BZ11</f>
         <v>69.199999999999989</v>
       </c>
-      <c r="CA12" s="36"/>
+      <c r="CA12" s="37"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H13" s="23" t="s">
@@ -3419,7 +3430,7 @@
         <v>147</v>
       </c>
       <c r="BJ15" s="23">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BK15" s="23" t="s">
         <v>121</v>
@@ -3453,7 +3464,7 @@
         <v>146</v>
       </c>
       <c r="BJ16" s="23">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3644,21 +3655,56 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3674,56 +3720,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3758,7 +3769,7 @@
       <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1124 10:49</v>
+        <v>1129 11:34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4322,7 +4333,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1124 10:49</v>
+        <v>1129 11:34</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4582,50 +4593,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="N1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="S1" s="38" t="s">
+      <c r="Q1" s="39"/>
+      <c r="S1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="T1" s="39"/>
+      <c r="V1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="W1" s="39"/>
+      <c r="Y1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AB1" s="38" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AB1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="38"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AE1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="38"/>
+      <c r="AF1" s="39"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -5700,17 +5711,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169099BE-474C-4F3B-A8F4-16C97ABC17C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7C74B-76C9-4091-9F0B-46176B5ECAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BK15" sqref="BK15"/>
+      <selection activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2313,7 +2313,7 @@
         <v>122</v>
       </c>
       <c r="BE6" s="26">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="BF6" s="25" t="s">
         <v>77</v>
@@ -2655,7 +2655,7 @@
         <v>54</v>
       </c>
       <c r="BE8" s="26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BF8" s="25" t="s">
         <v>104</v>
@@ -2792,7 +2792,7 @@
         <v>148</v>
       </c>
       <c r="BE9" s="26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="25"/>
       <c r="BG9" s="26"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="BE10" s="26">
         <f>SUM(BE3:BE9)</f>
-        <v>101</v>
+        <v>88.7</v>
       </c>
       <c r="BF10" s="27" t="s">
         <v>83</v>
@@ -3145,7 +3145,7 @@
       <c r="BE11" s="36"/>
       <c r="BF11" s="37">
         <f>SUM(BG10,BE10)</f>
-        <v>189.2</v>
+        <v>176.89999999999998</v>
       </c>
       <c r="BG11" s="37"/>
       <c r="BI11" s="36" t="s">
@@ -3290,8 +3290,8 @@
       </c>
       <c r="BE12" s="38"/>
       <c r="BF12" s="37">
-        <f>204-BF11</f>
-        <v>14.800000000000011</v>
+        <f>202-BF11</f>
+        <v>25.100000000000023</v>
       </c>
       <c r="BG12" s="37"/>
       <c r="BI12" s="38" t="s">
@@ -3655,56 +3655,21 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3720,21 +3685,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3769,7 +3769,7 @@
       <c r="B1" s="21"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1129 11:34</v>
+        <v>1205 12:04</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1129 11:34</v>
+        <v>1205 12:04</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5711,17 +5711,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7C74B-76C9-4091-9F0B-46176B5ECAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92C008-F247-42D0-BE34-ADD4364AD32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -789,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,9 +812,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,9 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,15 +876,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,2448 +1210,2483 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE8" sqref="BE8"/>
+      <selection activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="22" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="22" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="22" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" style="23" customWidth="1"/>
-    <col min="24" max="24" width="7.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" style="22" customWidth="1"/>
-    <col min="26" max="26" width="14.625" style="23" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.625" style="23" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2" style="22" customWidth="1"/>
-    <col min="31" max="31" width="14.625" style="23" customWidth="1"/>
-    <col min="32" max="32" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.625" style="23" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2" style="22" customWidth="1"/>
-    <col min="36" max="36" width="14.625" style="23" customWidth="1"/>
-    <col min="37" max="37" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.625" style="23" customWidth="1"/>
-    <col min="39" max="39" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2" style="22" customWidth="1"/>
-    <col min="41" max="41" width="14.625" style="23" customWidth="1"/>
-    <col min="42" max="42" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.625" style="23" customWidth="1"/>
-    <col min="44" max="44" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2" style="22" customWidth="1"/>
-    <col min="46" max="46" width="14.625" style="23" customWidth="1"/>
-    <col min="47" max="47" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.625" style="23" customWidth="1"/>
-    <col min="49" max="49" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2" style="22" customWidth="1"/>
-    <col min="51" max="51" width="14.625" style="23" customWidth="1"/>
-    <col min="52" max="52" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.625" style="23" customWidth="1"/>
-    <col min="54" max="54" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2" style="22" customWidth="1"/>
-    <col min="56" max="56" width="14.625" style="23" customWidth="1"/>
-    <col min="57" max="57" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.625" style="23" customWidth="1"/>
-    <col min="59" max="59" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2" style="22" customWidth="1"/>
-    <col min="61" max="61" width="14.625" style="23" customWidth="1"/>
-    <col min="62" max="62" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.625" style="23" customWidth="1"/>
-    <col min="64" max="64" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="2" style="22" customWidth="1"/>
-    <col min="66" max="66" width="14.625" style="23" customWidth="1"/>
-    <col min="67" max="67" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.625" style="23" customWidth="1"/>
-    <col min="69" max="69" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2" style="22" customWidth="1"/>
-    <col min="71" max="71" width="14.625" style="23" customWidth="1"/>
-    <col min="72" max="72" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.625" style="23" customWidth="1"/>
-    <col min="74" max="74" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2" style="22" customWidth="1"/>
-    <col min="76" max="76" width="14.625" style="23" customWidth="1"/>
-    <col min="77" max="77" width="5.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.625" style="23" customWidth="1"/>
-    <col min="79" max="79" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2" style="22" customWidth="1"/>
-    <col min="81" max="16384" width="8.875" style="23"/>
+    <col min="1" max="1" width="14.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="19" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="19" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="19" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="19" customWidth="1"/>
+    <col min="26" max="26" width="14.625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" style="20" customWidth="1"/>
+    <col min="29" max="29" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" style="19" customWidth="1"/>
+    <col min="31" max="31" width="14.625" style="20" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="19" customWidth="1"/>
+    <col min="36" max="36" width="14.625" style="20" customWidth="1"/>
+    <col min="37" max="37" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" style="20" customWidth="1"/>
+    <col min="39" max="39" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="19" customWidth="1"/>
+    <col min="41" max="41" width="14.625" style="20" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.625" style="20" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="19" customWidth="1"/>
+    <col min="46" max="46" width="14.625" style="20" customWidth="1"/>
+    <col min="47" max="47" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.625" style="20" customWidth="1"/>
+    <col min="49" max="49" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="19" customWidth="1"/>
+    <col min="51" max="51" width="14.625" style="20" customWidth="1"/>
+    <col min="52" max="52" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.625" style="20" customWidth="1"/>
+    <col min="54" max="54" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2" style="19" customWidth="1"/>
+    <col min="56" max="56" width="14.625" style="20" customWidth="1"/>
+    <col min="57" max="57" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.625" style="20" customWidth="1"/>
+    <col min="59" max="59" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="2" style="19" customWidth="1"/>
+    <col min="61" max="61" width="14.625" style="20" customWidth="1"/>
+    <col min="62" max="62" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.625" style="20" customWidth="1"/>
+    <col min="64" max="64" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="2" style="19" customWidth="1"/>
+    <col min="66" max="66" width="14.625" style="20" customWidth="1"/>
+    <col min="67" max="67" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.625" style="20" customWidth="1"/>
+    <col min="69" max="69" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2" style="19" customWidth="1"/>
+    <col min="71" max="71" width="14.625" style="20" customWidth="1"/>
+    <col min="72" max="72" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.625" style="20" customWidth="1"/>
+    <col min="74" max="74" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2" style="19" customWidth="1"/>
+    <col min="76" max="76" width="14.625" style="20" customWidth="1"/>
+    <col min="77" max="77" width="5.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.625" style="20" customWidth="1"/>
+    <col min="79" max="79" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="2" style="19" customWidth="1"/>
+    <col min="81" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="P1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="35" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="U1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Z1" s="35" t="s">
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Z1" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AE1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AJ1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AO1" s="35" t="s">
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AO1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AT1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AY1" s="35" t="s">
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AY1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BD1" s="35" t="s">
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BD1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BI1" s="35" t="s">
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BI1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BN1" s="35" t="s">
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BN1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BS1" s="35" t="s">
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BS1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BX1" s="35" t="s">
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BX1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BP2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BS2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BT2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BZ2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="23">
         <v>40</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="23">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="23">
         <v>40</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <v>39</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="23">
         <v>40</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="23">
         <v>31</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="23">
         <v>40</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="23">
         <v>25</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="23">
         <v>40</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="23">
         <v>51</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AA3" s="23">
         <v>40</v>
       </c>
-      <c r="AB3" s="27" t="s">
+      <c r="AB3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="23">
         <v>0</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="26">
+      <c r="AF3" s="23">
         <v>40</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" s="26">
+      <c r="AH3" s="23">
         <v>45</v>
       </c>
-      <c r="AJ3" s="25" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AK3" s="23">
         <v>40</v>
       </c>
-      <c r="AL3" s="27" t="s">
+      <c r="AL3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="26">
+      <c r="AM3" s="23">
         <v>0</v>
       </c>
-      <c r="AO3" s="25" t="s">
+      <c r="AO3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AP3" s="26">
+      <c r="AP3" s="23">
         <v>40</v>
       </c>
-      <c r="AQ3" s="27" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AR3" s="23">
         <v>22</v>
       </c>
-      <c r="AT3" s="25" t="s">
+      <c r="AT3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AU3" s="26">
+      <c r="AU3" s="23">
         <v>60</v>
       </c>
-      <c r="AV3" s="27" t="s">
+      <c r="AV3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="26"/>
-      <c r="AY3" s="25" t="s">
+      <c r="AW3" s="23"/>
+      <c r="AY3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="26">
+      <c r="AZ3" s="23">
         <v>60</v>
       </c>
-      <c r="BA3" s="27" t="s">
+      <c r="BA3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="BB3" s="26">
+      <c r="BB3" s="23">
         <v>0</v>
       </c>
-      <c r="BD3" s="25" t="s">
+      <c r="BD3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BE3" s="26">
+      <c r="BE3" s="23">
         <v>60</v>
       </c>
-      <c r="BF3" s="27" t="s">
+      <c r="BF3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="BG3" s="26">
+      <c r="BG3" s="23">
         <v>0</v>
       </c>
-      <c r="BI3" s="25" t="s">
+      <c r="BI3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BJ3" s="26">
+      <c r="BJ3" s="23">
         <v>60</v>
       </c>
-      <c r="BK3" s="27" t="s">
+      <c r="BK3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="BL3" s="26">
+      <c r="BL3" s="23">
         <v>0</v>
       </c>
-      <c r="BN3" s="25" t="s">
+      <c r="BN3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BO3" s="26">
+      <c r="BO3" s="23">
         <v>60</v>
       </c>
-      <c r="BP3" s="27" t="s">
+      <c r="BP3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="BQ3" s="26">
+      <c r="BQ3" s="23">
         <v>0</v>
       </c>
-      <c r="BS3" s="25" t="s">
+      <c r="BS3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BT3" s="26">
+      <c r="BT3" s="23">
         <v>60</v>
       </c>
-      <c r="BU3" s="27" t="s">
+      <c r="BU3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="BV3" s="26">
+      <c r="BV3" s="23">
         <v>0</v>
       </c>
-      <c r="BX3" s="25" t="s">
+      <c r="BX3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BY3" s="26">
+      <c r="BY3" s="23">
         <v>60</v>
       </c>
-      <c r="BZ3" s="27" t="s">
+      <c r="BZ3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="CA3" s="26">
+      <c r="CA3" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>7.7</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>10</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <v>7.7</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>6.8</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="23">
         <v>7.7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
         <v>10</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <v>7.7</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="23">
         <v>6.3</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="23">
         <v>7.7</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="23">
         <v>23</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="23">
         <v>7.7</v>
       </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AB4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="23">
         <v>23</v>
       </c>
-      <c r="AE4" s="25" t="s">
+      <c r="AE4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AF4" s="23">
         <v>7.7</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="23">
         <v>20</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AJ4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="26">
+      <c r="AK4" s="23">
         <v>7.7</v>
       </c>
-      <c r="AL4" s="25" t="s">
+      <c r="AL4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AM4" s="26">
+      <c r="AM4" s="23">
         <v>19.5</v>
       </c>
-      <c r="AO4" s="25" t="s">
+      <c r="AO4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="26">
+      <c r="AP4" s="23">
         <v>7.7</v>
       </c>
-      <c r="AQ4" s="25" t="s">
+      <c r="AQ4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AR4" s="26">
+      <c r="AR4" s="23">
         <v>34</v>
       </c>
-      <c r="AT4" s="25" t="s">
+      <c r="AT4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="26">
+      <c r="AU4" s="23">
         <v>10</v>
       </c>
-      <c r="AV4" s="25" t="s">
+      <c r="AV4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="26">
+      <c r="AW4" s="23">
         <v>30</v>
       </c>
-      <c r="AY4" s="25" t="s">
+      <c r="AY4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AZ4" s="26">
+      <c r="AZ4" s="23">
         <v>10</v>
       </c>
-      <c r="BA4" s="25" t="s">
+      <c r="BA4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="26">
+      <c r="BB4" s="23">
         <v>27.5</v>
       </c>
-      <c r="BD4" s="25" t="s">
+      <c r="BD4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BE4" s="26">
+      <c r="BE4" s="23">
         <v>7</v>
       </c>
-      <c r="BF4" s="25" t="s">
+      <c r="BF4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BG4" s="26">
+      <c r="BG4" s="23">
         <v>32.799999999999997</v>
       </c>
-      <c r="BI4" s="25" t="s">
+      <c r="BI4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BJ4" s="26">
+      <c r="BJ4" s="23">
         <v>10</v>
       </c>
-      <c r="BK4" s="25" t="s">
+      <c r="BK4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BL4" s="26">
+      <c r="BL4" s="23">
         <v>27</v>
       </c>
-      <c r="BN4" s="25" t="s">
+      <c r="BN4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BO4" s="26">
+      <c r="BO4" s="23">
         <v>10</v>
       </c>
-      <c r="BP4" s="25" t="s">
+      <c r="BP4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BQ4" s="26">
+      <c r="BQ4" s="23">
         <v>27</v>
       </c>
-      <c r="BS4" s="25" t="s">
+      <c r="BS4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BT4" s="26">
+      <c r="BT4" s="23">
         <v>10</v>
       </c>
-      <c r="BU4" s="25" t="s">
+      <c r="BU4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BV4" s="26">
+      <c r="BV4" s="23">
         <v>13.2</v>
       </c>
-      <c r="BX4" s="25" t="s">
+      <c r="BX4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BY4" s="26">
+      <c r="BY4" s="23">
         <v>10</v>
       </c>
-      <c r="BZ4" s="25" t="s">
+      <c r="BZ4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="CA4" s="26">
+      <c r="CA4" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>20</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <v>6</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>15</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>6</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="23">
         <v>15</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <v>6</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <v>15</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="23">
         <v>6</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="23">
         <v>15</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="W5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="23">
         <v>6.8</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="23">
         <v>20</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="26">
+      <c r="AC5" s="23">
         <v>6.8</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AE5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="26">
+      <c r="AF5" s="23">
         <v>20</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="AG5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AH5" s="26">
+      <c r="AH5" s="23">
         <v>6.8</v>
       </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="25" t="s">
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AM5" s="23">
         <v>6.8</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="AO5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AP5" s="26">
+      <c r="AP5" s="23">
         <v>60</v>
       </c>
-      <c r="AQ5" s="25" t="s">
+      <c r="AQ5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AR5" s="26">
+      <c r="AR5" s="23">
         <v>6.8</v>
       </c>
-      <c r="AT5" s="25" t="s">
+      <c r="AT5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AU5" s="26">
+      <c r="AU5" s="23">
         <v>32</v>
       </c>
-      <c r="AV5" s="25" t="s">
+      <c r="AV5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AW5" s="26">
+      <c r="AW5" s="23">
         <v>6.8</v>
       </c>
-      <c r="AY5" s="25" t="s">
+      <c r="AY5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AZ5" s="32">
+      <c r="AZ5" s="23">
         <v>3.7</v>
       </c>
-      <c r="BA5" s="25" t="s">
+      <c r="BA5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BB5" s="26">
+      <c r="BB5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="25" t="s">
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BG5" s="26">
+      <c r="BG5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BI5" s="25" t="s">
+      <c r="BI5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BJ5" s="34">
+      <c r="BJ5" s="23">
         <v>6</v>
       </c>
-      <c r="BK5" s="25" t="s">
+      <c r="BK5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BL5" s="26">
+      <c r="BL5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BN5" s="25" t="s">
+      <c r="BN5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="BO5" s="26">
+      <c r="BO5" s="23">
         <v>30</v>
       </c>
-      <c r="BP5" s="25" t="s">
+      <c r="BP5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BQ5" s="26">
+      <c r="BQ5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BS5" s="25" t="s">
+      <c r="BS5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BT5" s="33">
+      <c r="BT5" s="23">
         <v>6</v>
       </c>
-      <c r="BU5" s="25" t="s">
+      <c r="BU5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BV5" s="26">
+      <c r="BV5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BX5" s="25" t="s">
+      <c r="BX5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BY5" s="26">
+      <c r="BY5" s="23">
         <v>6</v>
       </c>
-      <c r="BZ5" s="25" t="s">
+      <c r="BZ5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="CA5" s="26">
+      <c r="CA5" s="23">
         <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>2.5</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>2</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="23">
         <v>3</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="23">
         <v>2</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>3</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="23">
         <v>2</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="23">
         <v>3</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="W6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="23">
         <v>6</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AA6" s="23">
         <v>15</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="23">
         <v>6</v>
       </c>
-      <c r="AE6" s="25" t="s">
+      <c r="AE6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AF6" s="26">
+      <c r="AF6" s="23">
         <v>15</v>
       </c>
-      <c r="AG6" s="25" t="s">
+      <c r="AG6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="26">
+      <c r="AH6" s="23">
         <v>6</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AJ6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AK6" s="26">
+      <c r="AK6" s="23">
         <v>15</v>
       </c>
-      <c r="AL6" s="25" t="s">
+      <c r="AL6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AM6" s="26">
+      <c r="AM6" s="23">
         <v>6</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="AO6" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="AP6" s="26">
+      <c r="AP6" s="23">
         <v>10</v>
       </c>
-      <c r="AQ6" s="25" t="s">
+      <c r="AQ6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AR6" s="26">
+      <c r="AR6" s="23">
         <v>6</v>
       </c>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="25" t="s">
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AW6" s="26">
+      <c r="AW6" s="23">
         <v>6</v>
       </c>
-      <c r="AY6" s="25" t="s">
+      <c r="AY6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AZ6" s="32">
+      <c r="AZ6" s="23">
         <v>8</v>
       </c>
-      <c r="BA6" s="25" t="s">
+      <c r="BA6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BB6" s="26">
+      <c r="BB6" s="23">
         <v>6</v>
       </c>
-      <c r="BD6" s="25" t="s">
+      <c r="BD6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BE6" s="26">
+      <c r="BE6" s="23">
         <v>3.7</v>
       </c>
-      <c r="BF6" s="25" t="s">
+      <c r="BF6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BG6" s="26">
+      <c r="BG6" s="23">
         <v>6</v>
       </c>
-      <c r="BI6" s="25" t="s">
+      <c r="BI6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="BJ6" s="34">
+      <c r="BJ6" s="23">
         <v>8</v>
       </c>
-      <c r="BK6" s="25" t="s">
+      <c r="BK6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BL6" s="26">
+      <c r="BL6" s="23">
         <v>6</v>
       </c>
-      <c r="BN6" s="25" t="s">
+      <c r="BN6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="BO6" s="26">
+      <c r="BO6" s="23">
         <v>6</v>
       </c>
-      <c r="BP6" s="25" t="s">
+      <c r="BP6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BQ6" s="26">
+      <c r="BQ6" s="23">
         <v>6</v>
       </c>
-      <c r="BS6" s="25" t="s">
+      <c r="BS6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="BT6" s="33">
+      <c r="BT6" s="23">
         <v>8</v>
       </c>
-      <c r="BU6" s="25" t="s">
+      <c r="BU6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BV6" s="26">
+      <c r="BV6" s="23">
         <v>6</v>
       </c>
-      <c r="BX6" s="25" t="s">
+      <c r="BX6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="BY6" s="26">
+      <c r="BY6" s="23">
         <v>8</v>
       </c>
-      <c r="BZ6" s="25" t="s">
+      <c r="BZ6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="CA6" s="26">
+      <c r="CA6" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="23">
         <v>5</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>9.4</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>5</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="23">
         <v>9.4</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <v>7</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <v>9.4</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="23">
         <v>16.5</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="23">
         <v>9.4</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="23">
         <v>2</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AA7" s="23">
         <v>3</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="23">
         <v>2</v>
       </c>
-      <c r="AE7" s="25" t="s">
+      <c r="AE7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="26">
+      <c r="AF7" s="23">
         <v>3</v>
       </c>
-      <c r="AG7" s="25" t="s">
+      <c r="AG7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AH7" s="26">
+      <c r="AH7" s="23">
         <v>2</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AK7" s="26">
+      <c r="AK7" s="23">
         <v>3</v>
       </c>
-      <c r="AL7" s="25" t="s">
+      <c r="AL7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AM7" s="26">
+      <c r="AM7" s="23">
         <v>2</v>
       </c>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="25" t="s">
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AR7" s="26">
+      <c r="AR7" s="23">
         <v>2</v>
       </c>
-      <c r="AT7" s="25" t="s">
+      <c r="AT7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AU7" s="26">
+      <c r="AU7" s="23">
         <v>8</v>
       </c>
-      <c r="AV7" s="25" t="s">
+      <c r="AV7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AW7" s="26">
+      <c r="AW7" s="23">
         <v>2</v>
       </c>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="26"/>
-      <c r="BD7" s="25" t="s">
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="23"/>
+      <c r="BD7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="BE7" s="26">
+      <c r="BE7" s="23">
         <v>8</v>
       </c>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="26"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="26"/>
-      <c r="BN7" s="25" t="s">
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="23"/>
+      <c r="BI7" s="22"/>
+      <c r="BJ7" s="23"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="23"/>
+      <c r="BN7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="BO7" s="26">
+      <c r="BO7" s="23">
         <v>8</v>
       </c>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="26"/>
-      <c r="BS7" s="25" t="s">
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="23"/>
+      <c r="BS7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BT7" s="33">
+      <c r="BT7" s="23">
         <v>20</v>
       </c>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="26"/>
-      <c r="BX7" s="25" t="s">
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="23"/>
+      <c r="BX7" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="BY7" s="26">
+      <c r="BY7" s="23">
         <v>20</v>
       </c>
-      <c r="BZ7" s="25"/>
-      <c r="CA7" s="26"/>
+      <c r="BZ7" s="22"/>
+      <c r="CA7" s="23"/>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="23">
         <v>9.4</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <f>51-D9</f>
         <v>33</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>10</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>18</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="23">
         <v>10</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="23">
         <v>4</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="23">
         <v>45</v>
       </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
-      <c r="U8" s="25" t="s">
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+      <c r="U8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="23">
         <v>45</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="23">
         <f>X3-(SUM(X4:X7))</f>
         <v>13.200000000000003</v>
       </c>
-      <c r="Z8" s="25" t="s">
+      <c r="Z8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AA8" s="23">
         <v>9.4</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" s="26" t="str">
+      <c r="AC8" s="23" t="str">
         <f>IF(AC3-(SUM(AC4:AC7))&lt;=0,"0",AC3-(SUM(AC4:AC7)))</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="25" t="s">
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" s="26">
+      <c r="AH8" s="23">
         <f>IF(AH3-(SUM(AH4:AH7))&lt;=0,"0",AH3-(SUM(AH4:AH7)))</f>
         <v>10.200000000000003</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="AJ8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" s="26">
+      <c r="AK8" s="23">
         <v>9.4</v>
       </c>
-      <c r="AL8" s="25" t="s">
+      <c r="AL8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AM8" s="26" t="str">
+      <c r="AM8" s="23" t="str">
         <f>IF(AM3-(SUM(AM4:AM7))&lt;=0,"0",AM3-(SUM(AM4:AM7)))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="25" t="s">
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AR8" s="26">
+      <c r="AR8" s="23">
         <f>AR3-SUM(AR5,AR7)</f>
         <v>13.2</v>
       </c>
-      <c r="AT8" s="25" t="s">
+      <c r="AT8" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AU8" s="26">
+      <c r="AU8" s="23">
         <v>8</v>
       </c>
-      <c r="AV8" s="25" t="s">
+      <c r="AV8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AW8" s="26">
+      <c r="AW8" s="23">
         <v>10.8</v>
       </c>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="25" t="s">
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BB8" s="26">
+      <c r="BB8" s="23">
         <v>34</v>
       </c>
-      <c r="BD8" s="25" t="s">
+      <c r="BD8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BE8" s="26">
+      <c r="BE8" s="23">
         <v>5</v>
       </c>
-      <c r="BF8" s="25" t="s">
+      <c r="BF8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BG8" s="26">
+      <c r="BG8" s="23">
         <v>42.6</v>
       </c>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="25" t="s">
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="23"/>
+      <c r="BK8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BL8" s="26">
+      <c r="BL8" s="23">
+        <v>41</v>
+      </c>
+      <c r="BN8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO8" s="23">
         <v>20</v>
       </c>
-      <c r="BN8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO8" s="26">
-        <v>20</v>
-      </c>
-      <c r="BP8" s="25" t="s">
+      <c r="BP8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BQ8" s="26" t="str">
+      <c r="BQ8" s="23" t="str">
         <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="25"/>
-      <c r="BT8" s="26"/>
-      <c r="BU8" s="25" t="s">
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="23"/>
+      <c r="BU8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BV8" s="26" t="str">
+      <c r="BV8" s="23" t="str">
         <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="25"/>
-      <c r="BY8" s="26"/>
-      <c r="BZ8" s="25" t="s">
+      <c r="BX8" s="22"/>
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="CA8" s="26" t="str">
+      <c r="CA8" s="23" t="str">
         <f>IF(CA3-(SUM(CA4:CA7))&lt;=0,"0",CA3-(SUM(CA4:CA7)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <f>SUM(D4:D6)</f>
         <v>18</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>12.6</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f>SUM(I4:I6)</f>
         <v>14.8</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="23">
         <v>28</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="23">
         <f>SUM(N4:N6)</f>
         <v>18</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27" t="s">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="23">
         <f>SUM(S4:S6)</f>
         <v>14.3</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
-      <c r="Z9" s="25" t="s">
+      <c r="U9" s="22"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Z9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AA9" s="23">
         <v>45</v>
       </c>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="26"/>
-      <c r="AE9" s="25" t="s">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="23"/>
+      <c r="AE9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF9" s="23">
         <v>45</v>
       </c>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="26"/>
-      <c r="AJ9" s="25" t="s">
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="23"/>
+      <c r="AJ9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AK9" s="26">
+      <c r="AK9" s="23">
         <v>45</v>
       </c>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="26"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="26"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="26"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="26"/>
-      <c r="BD9" s="25" t="s">
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="23"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="23"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="23"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="23"/>
+      <c r="BD9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="BE9" s="26">
+      <c r="BE9" s="23">
         <v>5</v>
       </c>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="26"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="26"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="26"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="26"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="26"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="23"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="23"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="23"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="23"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="23"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="23"/>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <f>SUM(B3:B9)</f>
         <v>97.100000000000009</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <f>SUM(D3:D8)</f>
         <v>81</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <f>SUM(G3:G9)</f>
         <v>97.2</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <f>SUM(I3:I8)</f>
         <v>76.8</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <f>SUM(L3:L9)</f>
         <v>113.10000000000001</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="23">
         <f>SUM(N3:N8)</f>
         <v>60</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="23">
         <f>SUM(Q3:Q9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="23">
         <f>SUM(S3:S8)</f>
         <v>55.8</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="23">
         <f>SUM(V3:V9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="W10" s="27" t="s">
+      <c r="W10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="23">
         <f>X3</f>
         <v>51</v>
       </c>
-      <c r="Z10" s="27" t="s">
+      <c r="Z10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="23">
         <f>SUM(AA3:AA9)</f>
         <v>140.10000000000002</v>
       </c>
-      <c r="AB10" s="27" t="s">
+      <c r="AB10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="23">
         <f>SUM(AC4:AC8)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="AE10" s="27" t="s">
+      <c r="AE10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="26">
+      <c r="AF10" s="23">
         <f>SUM(AF3:AF9)</f>
         <v>130.69999999999999</v>
       </c>
-      <c r="AG10" s="27" t="s">
+      <c r="AG10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AH10" s="26">
+      <c r="AH10" s="23">
         <f>SUM(AH4:AH8)</f>
         <v>45</v>
       </c>
-      <c r="AJ10" s="27" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AK10" s="26">
+      <c r="AK10" s="23">
         <f>SUM(AK3:AK9)</f>
         <v>120.10000000000001</v>
       </c>
-      <c r="AL10" s="27" t="s">
+      <c r="AL10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AM10" s="26">
+      <c r="AM10" s="23">
         <f>SUM(AM4:AM8)</f>
         <v>34.299999999999997</v>
       </c>
-      <c r="AO10" s="27" t="s">
+      <c r="AO10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AP10" s="26">
+      <c r="AP10" s="23">
         <f>SUM(AP3:AP9)</f>
         <v>117.7</v>
       </c>
-      <c r="AQ10" s="27" t="s">
+      <c r="AQ10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AR10" s="26">
+      <c r="AR10" s="23">
         <f>SUM(AR3+AR4)</f>
         <v>56</v>
       </c>
-      <c r="AT10" s="27" t="s">
+      <c r="AT10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AU10" s="26">
+      <c r="AU10" s="23">
         <f>SUM(AU3:AU9)</f>
         <v>118</v>
       </c>
-      <c r="AV10" s="27" t="s">
+      <c r="AV10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AW10" s="26">
+      <c r="AW10" s="23">
         <f>SUM(AW4:AW8)</f>
         <v>55.599999999999994</v>
       </c>
-      <c r="AY10" s="27" t="s">
+      <c r="AY10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AZ10" s="26">
+      <c r="AZ10" s="23">
         <f>SUM(AZ3:AZ9)</f>
         <v>81.7</v>
       </c>
-      <c r="BA10" s="27" t="s">
+      <c r="BA10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BB10" s="26">
+      <c r="BB10" s="23">
         <f>SUM(BB4:BB8)</f>
         <v>74.3</v>
       </c>
-      <c r="BD10" s="27" t="s">
+      <c r="BD10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BE10" s="26">
+      <c r="BE10" s="23">
         <f>SUM(BE3:BE9)</f>
         <v>88.7</v>
       </c>
-      <c r="BF10" s="27" t="s">
+      <c r="BF10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BG10" s="26">
+      <c r="BG10" s="23">
         <f>SUM(BG4:BG8)</f>
         <v>88.199999999999989</v>
       </c>
-      <c r="BI10" s="27" t="s">
+      <c r="BI10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BJ10" s="26">
+      <c r="BJ10" s="23">
         <f>SUM(BJ3:BJ9)</f>
         <v>84</v>
       </c>
-      <c r="BK10" s="27" t="s">
+      <c r="BK10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BL10" s="26">
+      <c r="BL10" s="23">
         <f>SUM(BL4:BL8)</f>
-        <v>59.8</v>
-      </c>
-      <c r="BN10" s="27" t="s">
+        <v>80.8</v>
+      </c>
+      <c r="BN10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BO10" s="26">
+      <c r="BO10" s="23">
         <f>SUM(BO3:BO9)</f>
         <v>134</v>
       </c>
-      <c r="BP10" s="27" t="s">
+      <c r="BP10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BQ10" s="26">
+      <c r="BQ10" s="23">
         <f>SUM(BQ4:BQ8)</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="BS10" s="27" t="s">
+      <c r="BS10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BT10" s="26">
+      <c r="BT10" s="23">
         <f>SUM(BT3:BT9)</f>
         <v>104</v>
       </c>
-      <c r="BU10" s="27" t="s">
+      <c r="BU10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BV10" s="26">
+      <c r="BV10" s="23">
         <f>SUM(BV4:BV8)</f>
         <v>26</v>
       </c>
-      <c r="BX10" s="27" t="s">
+      <c r="BX10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BY10" s="26">
+      <c r="BY10" s="23">
         <f>SUM(BY3:BY9)</f>
         <v>104</v>
       </c>
-      <c r="BZ10" s="27" t="s">
+      <c r="BZ10" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="CA10" s="26">
+      <c r="CA10" s="23">
         <f>SUM(CA4:CA8)</f>
         <v>30.8</v>
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31">
         <f>SUM(D10,B10)</f>
         <v>178.10000000000002</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="31"/>
+      <c r="F11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37">
+      <c r="G11" s="30"/>
+      <c r="H11" s="31">
         <f>SUM(I10,G10)</f>
         <v>174</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="K11" s="36" t="s">
+      <c r="I11" s="31"/>
+      <c r="K11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37">
+      <c r="L11" s="30"/>
+      <c r="M11" s="31">
         <f>SUM(N10,L10)</f>
         <v>173.10000000000002</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="P11" s="36" t="s">
+      <c r="N11" s="31"/>
+      <c r="P11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31">
         <f>SUM(S10,Q10)</f>
         <v>175.9</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="U11" s="36" t="s">
+      <c r="S11" s="31"/>
+      <c r="U11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37">
+      <c r="V11" s="30"/>
+      <c r="W11" s="31">
         <f>SUM(X10,V10)</f>
         <v>171.10000000000002</v>
       </c>
-      <c r="X11" s="37"/>
-      <c r="Z11" s="36" t="s">
+      <c r="X11" s="31"/>
+      <c r="Z11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37">
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31">
         <f>SUM(AC10,AA10)</f>
         <v>177.90000000000003</v>
       </c>
-      <c r="AC11" s="37"/>
-      <c r="AE11" s="36" t="s">
+      <c r="AC11" s="31"/>
+      <c r="AE11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="37">
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="31">
         <f>SUM(AH10,AF10)</f>
         <v>175.7</v>
       </c>
-      <c r="AH11" s="37"/>
-      <c r="AJ11" s="36" t="s">
+      <c r="AH11" s="31"/>
+      <c r="AJ11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="37">
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="31">
         <f>SUM(AM10,AK10)</f>
         <v>154.4</v>
       </c>
-      <c r="AM11" s="37"/>
-      <c r="AO11" s="36" t="s">
+      <c r="AM11" s="31"/>
+      <c r="AO11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="37">
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="31">
         <f>SUM(AR10,AP10)</f>
         <v>173.7</v>
       </c>
-      <c r="AR11" s="37"/>
-      <c r="AT11" s="36" t="s">
+      <c r="AR11" s="31"/>
+      <c r="AT11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="37">
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="31">
         <f>SUM(AW10,AU10)</f>
         <v>173.6</v>
       </c>
-      <c r="AW11" s="37"/>
-      <c r="AY11" s="36" t="s">
+      <c r="AW11" s="31"/>
+      <c r="AY11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="37">
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="31">
         <f>SUM(BB10,AZ10)</f>
         <v>156</v>
       </c>
-      <c r="BB11" s="37"/>
-      <c r="BD11" s="36" t="s">
+      <c r="BB11" s="31"/>
+      <c r="BD11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="37">
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="31">
         <f>SUM(BG10,BE10)</f>
         <v>176.89999999999998</v>
       </c>
-      <c r="BG11" s="37"/>
-      <c r="BI11" s="36" t="s">
+      <c r="BG11" s="31"/>
+      <c r="BI11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="BJ11" s="36"/>
-      <c r="BK11" s="37">
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="31">
         <f>SUM(BL10,BJ10)</f>
-        <v>143.80000000000001</v>
-      </c>
-      <c r="BL11" s="37"/>
-      <c r="BN11" s="36" t="s">
+        <v>164.8</v>
+      </c>
+      <c r="BL11" s="31"/>
+      <c r="BN11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="37">
+      <c r="BO11" s="30"/>
+      <c r="BP11" s="31">
         <f>SUM(BQ10,BO10)</f>
         <v>173.8</v>
       </c>
-      <c r="BQ11" s="37"/>
-      <c r="BS11" s="36" t="s">
+      <c r="BQ11" s="31"/>
+      <c r="BS11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="BT11" s="36"/>
-      <c r="BU11" s="37">
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="31">
         <f>SUM(BV10,BT10)</f>
         <v>130</v>
       </c>
-      <c r="BV11" s="37"/>
-      <c r="BX11" s="36" t="s">
+      <c r="BV11" s="31"/>
+      <c r="BX11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="37">
+      <c r="BY11" s="30"/>
+      <c r="BZ11" s="31">
         <f>SUM(CA10,BY10)</f>
         <v>134.80000000000001</v>
       </c>
-      <c r="CA11" s="37"/>
+      <c r="CA11" s="31"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37">
+      <c r="B12" s="32"/>
+      <c r="C12" s="31">
         <f>196-C11</f>
         <v>17.899999999999977</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="31"/>
+      <c r="F12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37">
+      <c r="G12" s="32"/>
+      <c r="H12" s="31">
         <f>204-H11</f>
         <v>30</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="I12" s="31"/>
+      <c r="K12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37">
+      <c r="L12" s="32"/>
+      <c r="M12" s="31">
         <f>204-M11</f>
         <v>30.899999999999977</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="P12" s="38" t="s">
+      <c r="N12" s="31"/>
+      <c r="P12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="37">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="31">
         <f>204-R11</f>
         <v>28.099999999999994</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="U12" s="38" t="s">
+      <c r="S12" s="31"/>
+      <c r="U12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="37">
+      <c r="V12" s="32"/>
+      <c r="W12" s="31">
         <f>204-W11</f>
         <v>32.899999999999977</v>
       </c>
-      <c r="X12" s="37"/>
-      <c r="Z12" s="38" t="s">
+      <c r="X12" s="31"/>
+      <c r="Z12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="37">
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="31">
         <f>202-AB11</f>
         <v>24.099999999999966</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AE12" s="38" t="s">
+      <c r="AC12" s="31"/>
+      <c r="AE12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="37">
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="31">
         <f>204-AG11</f>
         <v>28.300000000000011</v>
       </c>
-      <c r="AH12" s="37"/>
-      <c r="AJ12" s="38" t="s">
+      <c r="AH12" s="31"/>
+      <c r="AJ12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="37">
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="31">
         <f>204-AL11</f>
         <v>49.599999999999994</v>
       </c>
-      <c r="AM12" s="37"/>
-      <c r="AO12" s="38" t="s">
+      <c r="AM12" s="31"/>
+      <c r="AO12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="37">
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="31">
         <f>204-AQ11</f>
         <v>30.300000000000011</v>
       </c>
-      <c r="AR12" s="37"/>
-      <c r="AT12" s="38" t="s">
+      <c r="AR12" s="31"/>
+      <c r="AT12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="37">
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="31">
         <f>204-AV11</f>
         <v>30.400000000000006</v>
       </c>
-      <c r="AW12" s="37"/>
-      <c r="AY12" s="38" t="s">
+      <c r="AW12" s="31"/>
+      <c r="AY12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="37">
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="31">
         <f>166-BA11</f>
         <v>10</v>
       </c>
-      <c r="BB12" s="37"/>
-      <c r="BD12" s="38" t="s">
+      <c r="BB12" s="31"/>
+      <c r="BD12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="37">
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="31">
         <f>202-BF11</f>
         <v>25.100000000000023</v>
       </c>
-      <c r="BG12" s="37"/>
-      <c r="BI12" s="38" t="s">
+      <c r="BG12" s="31"/>
+      <c r="BI12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="37">
-        <f>170-BK11</f>
-        <v>26.199999999999989</v>
-      </c>
-      <c r="BL12" s="37"/>
-      <c r="BN12" s="38" t="s">
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="31">
+        <f>204-BK11</f>
+        <v>39.199999999999989</v>
+      </c>
+      <c r="BL12" s="31"/>
+      <c r="BN12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BO12" s="38"/>
-      <c r="BP12" s="37">
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="31">
         <f>204-BP11</f>
         <v>30.199999999999989</v>
       </c>
-      <c r="BQ12" s="37"/>
-      <c r="BS12" s="38" t="s">
+      <c r="BQ12" s="31"/>
+      <c r="BS12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BT12" s="38"/>
-      <c r="BU12" s="37">
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="31">
         <f>204-BU11</f>
         <v>74</v>
       </c>
-      <c r="BV12" s="37"/>
-      <c r="BX12" s="38" t="s">
+      <c r="BV12" s="31"/>
+      <c r="BX12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="37">
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="31">
         <f>204-BZ11</f>
         <v>69.199999999999989</v>
       </c>
-      <c r="CA12" s="37"/>
+      <c r="CA12" s="31"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="27">
         <v>-4</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="27">
         <v>-4</v>
       </c>
-      <c r="Z13" s="23" t="s">
+      <c r="Z13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" s="23" t="s">
+      <c r="AE13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AF13" s="23">
+      <c r="AF13" s="20">
         <v>20</v>
       </c>
-      <c r="AJ13" s="23" t="s">
+      <c r="AJ13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AK13" s="23">
+      <c r="AK13" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="27">
         <f>I3-4</f>
         <v>35</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <f>N3-4</f>
         <v>27</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AA14" s="20">
         <f>AA5+AA13</f>
         <v>20</v>
       </c>
-      <c r="AE14" s="23" t="s">
+      <c r="AE14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="20">
         <f>AF5+AF13</f>
         <v>40</v>
       </c>
-      <c r="AJ14" s="23" t="s">
+      <c r="AJ14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AK14" s="23">
+      <c r="AK14" s="20">
         <f>AF14+AK13</f>
         <v>60</v>
       </c>
-      <c r="AO14" s="23" t="s">
+      <c r="AO14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AP14" s="23">
+      <c r="AP14" s="20">
         <v>60</v>
       </c>
-      <c r="AQ14" s="31" t="s">
+      <c r="AQ14" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AR14" s="30">
+      <c r="AR14" s="27">
         <v>-280</v>
       </c>
     </row>
     <row r="15" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="27">
         <v>12</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="27">
         <v>12</v>
       </c>
-      <c r="AR15" s="30">
+      <c r="AR15" s="27">
         <f>AR14+AP15</f>
         <v>-280</v>
       </c>
-      <c r="BI15" s="23" t="s">
+      <c r="BI15" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="BJ15" s="23">
+      <c r="BJ15" s="20">
         <v>350</v>
       </c>
-      <c r="BK15" s="23" t="s">
+      <c r="BK15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="BL15" s="30">
+      <c r="BL15" s="27">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="P16" s="23">
+      <c r="P16" s="20">
         <f>85+55</f>
         <v>140</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="Z16" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AA16" s="20">
         <v>300</v>
       </c>
-      <c r="AO16" s="23" t="s">
+      <c r="AO16" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AP16" s="23">
+      <c r="AP16" s="20">
         <v>10</v>
       </c>
-      <c r="AR16" s="30">
+      <c r="AR16" s="27">
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
         <v>-270</v>
       </c>
-      <c r="BI16" s="23" t="s">
+      <c r="BI16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BJ16" s="23">
+      <c r="BJ16" s="20">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="Z17" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AA17" s="20">
         <v>145</v>
       </c>
-      <c r="AO17" s="23" t="s">
+      <c r="AO17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AP17" s="23">
+      <c r="AP17" s="20">
         <v>60</v>
       </c>
-      <c r="AR17" s="30">
+      <c r="AR17" s="27">
         <f t="shared" si="0"/>
         <v>-210</v>
       </c>
     </row>
     <row r="18" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AA18" s="23">
+      <c r="AA18" s="20">
         <f>AA16-AA17</f>
         <v>155</v>
       </c>
-      <c r="AK18" s="23">
+      <c r="AK18" s="20">
         <v>66</v>
       </c>
-      <c r="AO18" s="23" t="s">
+      <c r="AO18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AP18" s="23">
+      <c r="AP18" s="20">
         <v>60</v>
       </c>
-      <c r="AR18" s="30">
+      <c r="AR18" s="27">
         <f t="shared" si="0"/>
         <v>-150</v>
       </c>
     </row>
     <row r="19" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK19" s="23">
+      <c r="AK19" s="20">
         <v>20</v>
       </c>
-      <c r="AO19" s="23" t="s">
+      <c r="AO19" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AP19" s="23">
+      <c r="AP19" s="20">
         <v>40</v>
       </c>
-      <c r="AR19" s="30">
+      <c r="AR19" s="27">
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
     </row>
     <row r="20" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AK20" s="23">
+      <c r="AK20" s="20">
         <v>86</v>
       </c>
-      <c r="AO20" s="23" t="s">
+      <c r="AO20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AP20" s="23">
+      <c r="AP20" s="20">
         <v>40</v>
       </c>
-      <c r="AR20" s="30">
+      <c r="AR20" s="27">
         <f t="shared" si="0"/>
         <v>-70</v>
       </c>
     </row>
     <row r="21" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO21" s="23" t="s">
+      <c r="AO21" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="AP21" s="23">
+      <c r="AP21" s="20">
         <v>40</v>
       </c>
-      <c r="AR21" s="30">
+      <c r="AR21" s="27">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
     </row>
     <row r="22" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE22" s="23" t="s">
+      <c r="AE22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE23" s="23" t="s">
+      <c r="AE23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AF23" s="23">
+      <c r="AF23" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE24" s="23" t="s">
+      <c r="AE24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="AF24" s="23">
+      <c r="AF24" s="20">
         <v>6.3</v>
       </c>
     </row>
     <row r="25" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE25" s="23" t="s">
+      <c r="AE25" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="20">
         <v>0.8</v>
       </c>
-      <c r="AO25" s="23" t="s">
+      <c r="AO25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AP25" s="23">
+      <c r="AP25" s="20">
         <v>-170</v>
       </c>
     </row>
     <row r="26" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE26" s="23" t="s">
+      <c r="AE26" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="20">
         <v>0.8</v>
       </c>
-      <c r="AO26" s="23" t="s">
+      <c r="AO26" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AP26" s="23">
+      <c r="AP26" s="20">
         <v>-60</v>
       </c>
     </row>
     <row r="27" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE27" s="23" t="s">
+      <c r="AE27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="20">
         <v>2</v>
       </c>
-      <c r="AO27" s="23" t="s">
+      <c r="AO27" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AP27" s="23">
+      <c r="AP27" s="20">
         <v>-30</v>
       </c>
     </row>
     <row r="28" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AE28" s="23" t="s">
+      <c r="AE28" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="AF28" s="23">
+      <c r="AF28" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AF29" s="23">
+      <c r="AF29" s="20">
         <f>SUM(AF22:AF28)</f>
         <v>14.400000000000002</v>
       </c>
     </row>
     <row r="32" spans="14:44" x14ac:dyDescent="0.3">
-      <c r="AO32" s="23" t="s">
+      <c r="AO32" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AP32" s="23">
+      <c r="AP32" s="20">
         <f>SUM(AP25:AP31)</f>
         <v>-260</v>
       </c>
     </row>
     <row r="35" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO35" s="23" t="s">
+      <c r="AO35" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="36" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO36" s="23" t="s">
+      <c r="AO36" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="41:41" x14ac:dyDescent="0.3">
-      <c r="AO37" s="23" t="s">
+      <c r="AO37" s="20" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3685,56 +3702,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3756,550 +3738,550 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
+      <c r="B1" s="18"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1205 12:04</v>
+        <v>1214 11:07</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <f>B3-50</f>
         <v>-30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <f>C3</f>
         <v>-30</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <f>B3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <f>1200-B3</f>
         <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A25" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="1" t="str">
         <f>IF(0&lt; B4,B4-50,"-")</f>
         <v>-</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="1" t="str">
         <f>IF(0&lt;B4,D3+C4,"-")</f>
         <v>-</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="1" t="str">
         <f>IF(0&lt;B4,SUM(E3,B4),"-")</f>
         <v>-</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="1" t="str">
         <f>IF(0&lt;B4,F3-B4,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" ref="C5:C25" si="1">IF(0&lt; B5,B5-50,"-")</f>
         <v>-</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" ref="D5:D12" si="2">IF(0&lt;B5,D4+C5,"-")</f>
         <v>-</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="1" t="str">
         <f t="shared" ref="E5:E12" si="3">IF(0&lt;B5,SUM(E4,B5),"-")</f>
         <v>-</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="1" t="str">
         <f t="shared" ref="F5:F12" si="4">IF(0&lt;B5,F4-B5,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" ref="D13:D25" si="5">IF(0&lt;B13,D12+C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="1" t="str">
         <f t="shared" ref="E13:E25" si="6">IF(0&lt;B13,SUM(E12,B13),"-")</f>
         <v>-</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" ref="F13:F25" si="7">IF(0&lt;B13,F12-B13,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D25" s="1" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="1" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="1" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
@@ -4323,7 +4305,7 @@
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -4333,26 +4315,26 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1205 12:04</v>
+        <v>1214 11:07</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4365,7 +4347,7 @@
         <f>VLOOKUP('(구)지출 목록'!A3,'(구)지출 목록'!A3:BL92,1,0)</f>
         <v>보증금</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="1" t="str">
         <f>IF(B3="보증금","정재진","-")</f>
         <v>정재진</v>
       </c>
@@ -4388,7 +4370,7 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C12" si="1">IF(B4="보증금","정재진","-")</f>
         <v>정재진</v>
       </c>
@@ -4411,7 +4393,7 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>정재진</v>
       </c>
@@ -4434,7 +4416,7 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>정재진</v>
       </c>
@@ -4457,7 +4439,7 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>정재진</v>
       </c>
@@ -4477,7 +4459,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4491,7 +4473,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4505,7 +4487,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4519,7 +4501,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4533,7 +4515,7 @@
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4573,207 +4555,207 @@
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="1"/>
     <col min="15" max="15" width="2" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="5"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="1"/>
     <col min="18" max="18" width="2" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2" style="2" customWidth="1"/>
     <col min="22" max="22" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" style="2" customWidth="1"/>
     <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2" style="2" customWidth="1"/>
     <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" style="2" customWidth="1"/>
     <col min="31" max="31" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="H1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="V1" s="39" t="s">
+      <c r="T1" s="33"/>
+      <c r="V1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="W1" s="33"/>
+      <c r="Y1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Z1" s="33"/>
+      <c r="AB1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AE1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="39"/>
+      <c r="AF1" s="33"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>50</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>50</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>50</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>50</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="6">
         <v>75</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="6">
         <v>60</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="12">
         <v>21</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="12">
         <v>24</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="12">
         <v>25</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="12">
         <v>25</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="12">
         <v>17.7</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AJ3">
@@ -4781,357 +4763,357 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="6">
         <v>75</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <v>5</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="13">
         <v>10</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="13">
         <v>10</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="13">
         <v>10</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="13">
         <v>10</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="13">
         <v>10</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AI4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="10">
         <f>AJ3-100</f>
         <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>70</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="6">
         <v>10</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="6">
         <v>25</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <v>10</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="14">
         <v>6</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="14">
         <v>6</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="14">
         <v>6</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="14">
         <v>6</v>
       </c>
-      <c r="AI5" s="5"/>
+      <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>74</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <v>5</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="6">
         <v>80</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="15">
         <v>4</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="15">
         <v>3</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="15">
         <v>3</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" s="17">
+      <c r="AC6" s="15">
         <v>3</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="15">
         <v>3</v>
       </c>
-      <c r="AI6" s="5"/>
+      <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>10</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="6">
         <v>28</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="S7" s="18" t="s">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="S7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="16">
         <v>40</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="16">
         <v>34</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="16">
         <v>32</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="16">
         <v>0</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="16">
         <v>7.7</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AI7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ7">
         <v>20</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AL7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>40</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>56</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>5</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>25</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="S8" s="9" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="6">
         <v>5</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>7.3</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>5.3</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="6">
         <v>5.3</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AE8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="6">
         <v>5</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AI8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AJ8">
         <v>39</v>
       </c>
-      <c r="AL8" s="5" t="s">
+      <c r="AL8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AM8">
@@ -5139,394 +5121,394 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>25</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="S9" s="9" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="6">
         <v>48</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>5</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="Y9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>7.7</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="6">
         <v>7.7</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AE9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AF9" s="6">
         <v>40</v>
       </c>
-      <c r="AI9" s="5"/>
+      <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="S10" s="9" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="6">
         <v>20</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>40</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <v>40</v>
       </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="6">
         <v>40</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="6">
         <v>60</v>
       </c>
-      <c r="AI10" s="5"/>
+      <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>55</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>35</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="V11" s="7" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="V11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>10</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>20</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="6">
         <v>60</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="6">
         <v>15</v>
       </c>
-      <c r="AI11" s="5"/>
+      <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="V12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>12</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>15</v>
       </c>
-      <c r="AB12" s="7" t="s">
+      <c r="AB12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>15</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AI12" s="5"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>SUM(B3:B12)</f>
         <v>195</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f>SUM(E3:E12)</f>
         <v>186</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f>SUM(H3:H12)</f>
         <v>179</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f>SUM(K3:K12)</f>
         <v>170</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>SUM(N3:N12)</f>
         <v>193</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <f>SUM(Q3:Q12)</f>
         <v>170</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <f>SUM(T3:T12)</f>
         <v>158</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <f>SUM(W3:W12)</f>
         <v>151.30000000000001</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <f>SUM(Z3:Z12)</f>
         <v>164</v>
       </c>
-      <c r="AB13" s="7" t="s">
+      <c r="AB13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="6">
         <f>SUM(AC3:AC12)</f>
         <v>172</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AE13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="6">
         <f>SUM(AF3:AF11)</f>
         <v>164.4</v>
       </c>
-      <c r="AI13" s="5"/>
+      <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>194-B13</f>
         <v>-1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>194-E13</f>
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>197-H13</f>
         <v>18</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f>194-K13</f>
         <v>24</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f>194-N13</f>
         <v>1</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <f>194-Q13</f>
         <v>24</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <f>194-T13</f>
         <v>36</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <f>194-W13</f>
         <v>42.699999999999989</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <f>194-Z13</f>
         <v>30</v>
       </c>
-      <c r="AB14" s="7" t="s">
+      <c r="AB14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="6">
         <f>194-AC13</f>
         <v>22</v>
       </c>
-      <c r="AE14" s="7" t="s">
+      <c r="AE14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="6">
         <f>194-AF13</f>
         <v>29.599999999999994</v>
       </c>
-      <c r="AI14" s="5"/>
+      <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="V15" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="1">
         <f>SUM(W4:W6)</f>
         <v>19</v>
       </c>
       <c r="Y15" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="1">
         <f>SUM(Z4:Z6)</f>
         <v>19</v>
       </c>
       <c r="AB15" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="1">
         <f>SUM(AC4:AC6)</f>
         <v>19</v>
       </c>
       <c r="AE15" t="s">
         <v>52</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AF15" s="1">
         <f>SUM(AF4:AF6)</f>
         <v>19</v>
       </c>
-      <c r="AI15" s="13" t="s">
+      <c r="AI15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AJ15" s="10">
         <f>SUM(AJ7:AJ14)</f>
         <v>59</v>
       </c>
@@ -5535,35 +5517,35 @@
       <c r="V16" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="1">
         <f>42-19</f>
         <v>23</v>
       </c>
       <c r="Y16" t="s">
         <v>51</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="1">
         <f>50-19</f>
         <v>31</v>
       </c>
       <c r="AB16" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="1">
         <f>50-19</f>
         <v>31</v>
       </c>
       <c r="AE16" t="s">
         <v>51</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AF16" s="1">
         <f>50-19</f>
         <v>31</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AI16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AJ16" s="10">
         <v>380</v>
       </c>
     </row>
@@ -5571,32 +5553,32 @@
       <c r="V17" t="s">
         <v>53</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="1">
         <f>SUM(W3:W8)</f>
         <v>84.3</v>
       </c>
       <c r="Y17" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="1">
         <f>SUM(Z3:Z8)</f>
         <v>81.3</v>
       </c>
       <c r="AB17" t="s">
         <v>53</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="1">
         <f>SUM(AC3:AC8)</f>
         <v>49.3</v>
       </c>
       <c r="AE17" t="s">
         <v>53</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="1">
         <f>SUM(AF3:AF8)</f>
         <v>49.400000000000006</v>
       </c>
-      <c r="AI17" s="5" t="s">
+      <c r="AI17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AJ17">
@@ -5608,7 +5590,7 @@
       <c r="S18" t="s">
         <v>46</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="1">
         <f>SUM(T3:T7)</f>
         <v>85</v>
       </c>
@@ -5711,17 +5693,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92C008-F247-42D0-BE34-ADD4364AD32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA65392-0354-442C-8B2F-71EA51358BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="149">
   <si>
     <t>보증금</t>
   </si>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BL8" sqref="BL8"/>
+      <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1931,7 +1931,7 @@
         <v>73</v>
       </c>
       <c r="BJ4" s="23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK4" s="22" t="s">
         <v>75</v>
@@ -1943,13 +1943,13 @@
         <v>73</v>
       </c>
       <c r="BO4" s="23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP4" s="22" t="s">
         <v>75</v>
       </c>
       <c r="BQ4" s="23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BS4" s="22" t="s">
         <v>73</v>
@@ -2134,9 +2134,7 @@
       <c r="BP5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BQ5" s="23">
-        <v>6.8</v>
-      </c>
+      <c r="BQ5" s="23"/>
       <c r="BS5" s="22" t="s">
         <v>122</v>
       </c>
@@ -2325,7 +2323,7 @@
         <v>77</v>
       </c>
       <c r="BQ6" s="23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BS6" s="22" t="s">
         <v>132</v>
@@ -2651,20 +2649,15 @@
         <v>104</v>
       </c>
       <c r="BL8" s="23">
-        <v>41</v>
-      </c>
-      <c r="BN8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO8" s="23">
-        <v>20</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="23"/>
       <c r="BP8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BQ8" s="23" t="str">
-        <f>IF(BQ3-(SUM(BQ4:BQ7))&lt;=0,"0",BQ3-(SUM(BQ4:BQ7)))</f>
-        <v>0</v>
+      <c r="BQ8" s="23">
+        <v>18</v>
       </c>
       <c r="BS8" s="22"/>
       <c r="BT8" s="23"/>
@@ -2969,28 +2962,28 @@
       </c>
       <c r="BJ10" s="23">
         <f>SUM(BJ3:BJ9)</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="BK10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="BL10" s="23">
         <f>SUM(BL4:BL8)</f>
-        <v>80.8</v>
+        <v>93.8</v>
       </c>
       <c r="BN10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="BO10" s="23">
         <f>SUM(BO3:BO9)</f>
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="BP10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="BQ10" s="23">
         <f>SUM(BQ4:BQ8)</f>
-        <v>39.799999999999997</v>
+        <v>60</v>
       </c>
       <c r="BS10" s="24" t="s">
         <v>84</v>
@@ -3136,7 +3129,7 @@
       <c r="BJ11" s="30"/>
       <c r="BK11" s="31">
         <f>SUM(BL10,BJ10)</f>
-        <v>164.8</v>
+        <v>174.8</v>
       </c>
       <c r="BL11" s="31"/>
       <c r="BN11" s="30" t="s">
@@ -3145,7 +3138,7 @@
       <c r="BO11" s="30"/>
       <c r="BP11" s="31">
         <f>SUM(BQ10,BO10)</f>
-        <v>173.8</v>
+        <v>171</v>
       </c>
       <c r="BQ11" s="31"/>
       <c r="BS11" s="30" t="s">
@@ -3282,7 +3275,7 @@
       <c r="BJ12" s="32"/>
       <c r="BK12" s="31">
         <f>204-BK11</f>
-        <v>39.199999999999989</v>
+        <v>29.199999999999989</v>
       </c>
       <c r="BL12" s="31"/>
       <c r="BN12" s="32" t="s">
@@ -3291,7 +3284,7 @@
       <c r="BO12" s="32"/>
       <c r="BP12" s="31">
         <f>204-BP11</f>
-        <v>30.199999999999989</v>
+        <v>33</v>
       </c>
       <c r="BQ12" s="31"/>
       <c r="BS12" s="32" t="s">
@@ -3408,17 +3401,17 @@
         <f>AR14+AP15</f>
         <v>-280</v>
       </c>
-      <c r="BI15" s="20" t="s">
+      <c r="BN15" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="BJ15" s="20">
+      <c r="BO15" s="20">
         <v>350</v>
       </c>
-      <c r="BK15" s="20" t="s">
+      <c r="BP15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="BL15" s="27">
-        <v>200</v>
+      <c r="BQ15" s="27">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3442,11 +3435,11 @@
         <f t="shared" ref="AR16:AR21" si="0">AR15+AP16</f>
         <v>-270</v>
       </c>
-      <c r="BI16" s="20" t="s">
+      <c r="BN16" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BJ16" s="20">
-        <v>170</v>
+      <c r="BO16" s="20">
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3751,7 +3744,7 @@
       <c r="B1" s="18"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1214 11:07</v>
+        <v>1226 13:36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4315,7 +4308,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1214 11:07</v>
+        <v>1226 13:36</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA65392-0354-442C-8B2F-71EA51358BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE33D5-B3CB-4C4D-BB5A-3A60F16C528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="146">
   <si>
     <t>보증금</t>
   </si>
@@ -569,18 +569,6 @@
   </si>
   <si>
     <t>2023_2월 지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023_3월 지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023_4월 지출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누나 보증금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1209,8 +1197,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BJ5" sqref="BJ5"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BO15" sqref="BO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1383,15 +1371,11 @@
       <c r="BO1" s="29"/>
       <c r="BP1" s="29"/>
       <c r="BQ1" s="29"/>
-      <c r="BS1" s="29" t="s">
-        <v>143</v>
-      </c>
+      <c r="BS1" s="29"/>
       <c r="BT1" s="29"/>
       <c r="BU1" s="29"/>
       <c r="BV1" s="29"/>
-      <c r="BX1" s="29" t="s">
-        <v>144</v>
-      </c>
+      <c r="BX1" s="29"/>
       <c r="BY1" s="29"/>
       <c r="BZ1" s="29"/>
       <c r="CA1" s="29"/>
@@ -1565,30 +1549,14 @@
       <c r="BQ2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BS2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="BX2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA2" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -1757,30 +1725,14 @@
       <c r="BQ3" s="23">
         <v>0</v>
       </c>
-      <c r="BS3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT3" s="23">
-        <v>60</v>
-      </c>
-      <c r="BU3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV3" s="23">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY3" s="23">
-        <v>60</v>
-      </c>
-      <c r="BZ3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="CA3" s="23">
-        <v>0</v>
-      </c>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="23"/>
+      <c r="BX3" s="22"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="23"/>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -1951,30 +1903,14 @@
       <c r="BQ4" s="23">
         <v>32</v>
       </c>
-      <c r="BS4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT4" s="23">
-        <v>10</v>
-      </c>
-      <c r="BU4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV4" s="23">
-        <v>13.2</v>
-      </c>
-      <c r="BX4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY4" s="23">
-        <v>10</v>
-      </c>
-      <c r="BZ4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA4" s="23">
-        <v>18</v>
-      </c>
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="22"/>
+      <c r="BV4" s="23"/>
+      <c r="BX4" s="22"/>
+      <c r="BY4" s="23"/>
+      <c r="BZ4" s="22"/>
+      <c r="CA4" s="23"/>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -2125,40 +2061,20 @@
       <c r="BL5" s="23">
         <v>6.8</v>
       </c>
-      <c r="BN5" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO5" s="23">
-        <v>30</v>
-      </c>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="23"/>
       <c r="BP5" s="22" t="s">
         <v>76</v>
       </c>
       <c r="BQ5" s="23"/>
-      <c r="BS5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT5" s="23">
-        <v>6</v>
-      </c>
-      <c r="BU5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="BV5" s="23">
-        <v>6.8</v>
-      </c>
-      <c r="BX5" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY5" s="23">
-        <v>6</v>
-      </c>
-      <c r="BZ5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA5" s="23">
-        <v>6.8</v>
-      </c>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="23"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="23"/>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -2325,30 +2241,14 @@
       <c r="BQ6" s="23">
         <v>10</v>
       </c>
-      <c r="BS6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT6" s="23">
-        <v>8</v>
-      </c>
-      <c r="BU6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="BV6" s="23">
-        <v>6</v>
-      </c>
-      <c r="BX6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="BY6" s="23">
-        <v>8</v>
-      </c>
-      <c r="BZ6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA6" s="23">
-        <v>6</v>
-      </c>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="23"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="23"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="23"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="23"/>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -2491,20 +2391,12 @@
       </c>
       <c r="BP7" s="22"/>
       <c r="BQ7" s="23"/>
-      <c r="BS7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT7" s="23">
-        <v>20</v>
-      </c>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="23"/>
       <c r="BU7" s="22"/>
       <c r="BV7" s="23"/>
-      <c r="BX7" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY7" s="23">
-        <v>20</v>
-      </c>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="23"/>
       <c r="BZ7" s="22"/>
       <c r="CA7" s="23"/>
     </row>
@@ -2657,26 +2549,16 @@
         <v>104</v>
       </c>
       <c r="BQ8" s="23">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BS8" s="22"/>
       <c r="BT8" s="23"/>
-      <c r="BU8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV8" s="23" t="str">
-        <f>IF(BV3-(SUM(BV4:BV7))&lt;=0,"0",BV3-(SUM(BV4:BV7)))</f>
-        <v>0</v>
-      </c>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="23"/>
       <c r="BX8" s="22"/>
       <c r="BY8" s="23"/>
-      <c r="BZ8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA8" s="23" t="str">
-        <f>IF(CA3-(SUM(CA4:CA7))&lt;=0,"0",CA3-(SUM(CA4:CA7)))</f>
-        <v>0</v>
-      </c>
+      <c r="BZ8" s="22"/>
+      <c r="CA8" s="23"/>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
@@ -2764,7 +2646,7 @@
       <c r="BA9" s="22"/>
       <c r="BB9" s="23"/>
       <c r="BD9" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="BE9" s="23">
         <v>5</v>
@@ -2976,43 +2858,23 @@
       </c>
       <c r="BO10" s="23">
         <f>SUM(BO3:BO9)</f>
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="BP10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="BQ10" s="23">
         <f>SUM(BQ4:BQ8)</f>
-        <v>60</v>
-      </c>
-      <c r="BS10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT10" s="23">
-        <f>SUM(BT3:BT9)</f>
-        <v>104</v>
-      </c>
-      <c r="BU10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV10" s="23">
-        <f>SUM(BV4:BV8)</f>
-        <v>26</v>
-      </c>
-      <c r="BX10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="BY10" s="23">
-        <f>SUM(BY3:BY9)</f>
-        <v>104</v>
-      </c>
-      <c r="BZ10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA10" s="23">
-        <f>SUM(CA4:CA8)</f>
-        <v>30.8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="BS10" s="24"/>
+      <c r="BT10" s="23"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="23"/>
+      <c r="BX10" s="24"/>
+      <c r="BY10" s="23"/>
+      <c r="BZ10" s="24"/>
+      <c r="CA10" s="23"/>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
@@ -3138,26 +3000,16 @@
       <c r="BO11" s="30"/>
       <c r="BP11" s="31">
         <f>SUM(BQ10,BO10)</f>
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="BQ11" s="31"/>
-      <c r="BS11" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="BS11" s="30"/>
       <c r="BT11" s="30"/>
-      <c r="BU11" s="31">
-        <f>SUM(BV10,BT10)</f>
-        <v>130</v>
-      </c>
+      <c r="BU11" s="31"/>
       <c r="BV11" s="31"/>
-      <c r="BX11" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="BX11" s="30"/>
       <c r="BY11" s="30"/>
-      <c r="BZ11" s="31">
-        <f>SUM(CA10,BY10)</f>
-        <v>134.80000000000001</v>
-      </c>
+      <c r="BZ11" s="31"/>
       <c r="CA11" s="31"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.3">
@@ -3283,27 +3135,17 @@
       </c>
       <c r="BO12" s="32"/>
       <c r="BP12" s="31">
-        <f>204-BP11</f>
-        <v>33</v>
+        <f>100-BP11</f>
+        <v>-33</v>
       </c>
       <c r="BQ12" s="31"/>
-      <c r="BS12" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="BS12" s="32"/>
       <c r="BT12" s="32"/>
-      <c r="BU12" s="31">
-        <f>204-BU11</f>
-        <v>74</v>
-      </c>
+      <c r="BU12" s="31"/>
       <c r="BV12" s="31"/>
-      <c r="BX12" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="BX12" s="32"/>
       <c r="BY12" s="32"/>
-      <c r="BZ12" s="31">
-        <f>204-BZ11</f>
-        <v>69.199999999999989</v>
-      </c>
+      <c r="BZ12" s="31"/>
       <c r="CA12" s="31"/>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.3">
@@ -3402,7 +3244,7 @@
         <v>-280</v>
       </c>
       <c r="BN15" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BO15" s="20">
         <v>350</v>
@@ -3411,7 +3253,7 @@
         <v>121</v>
       </c>
       <c r="BQ15" s="27">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.3">
@@ -3436,10 +3278,10 @@
         <v>-270</v>
       </c>
       <c r="BN16" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="BO16" s="20">
-        <v>204</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3630,56 +3472,21 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3695,21 +3502,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3744,7 +3586,7 @@
       <c r="B1" s="18"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1226 13:36</v>
+        <v>0103 12:45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4308,7 +4150,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>1226 13:36</v>
+        <v>0103 12:45</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5686,17 +5528,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE33D5-B3CB-4C4D-BB5A-3A60F16C528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2A9BF-24F2-4A4D-AB23-7F0731A550F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BO15" sqref="BO15"/>
+      <selection activeCell="BX22" sqref="BX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2053,7 @@
         <v>122</v>
       </c>
       <c r="BJ5" s="23">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="BK5" s="22" t="s">
         <v>76</v>
@@ -2233,7 +2233,7 @@
         <v>122</v>
       </c>
       <c r="BO6" s="23">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="BP6" s="22" t="s">
         <v>77</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="BJ10" s="23">
         <f>SUM(BJ3:BJ9)</f>
-        <v>81</v>
+        <v>76.8</v>
       </c>
       <c r="BK10" s="24" t="s">
         <v>83</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="BO10" s="23">
         <f>SUM(BO3:BO9)</f>
-        <v>81</v>
+        <v>76.8</v>
       </c>
       <c r="BP10" s="24" t="s">
         <v>83</v>
@@ -2991,7 +2991,7 @@
       <c r="BJ11" s="30"/>
       <c r="BK11" s="31">
         <f>SUM(BL10,BJ10)</f>
-        <v>174.8</v>
+        <v>170.6</v>
       </c>
       <c r="BL11" s="31"/>
       <c r="BN11" s="30" t="s">
@@ -3000,7 +3000,7 @@
       <c r="BO11" s="30"/>
       <c r="BP11" s="31">
         <f>SUM(BQ10,BO10)</f>
-        <v>133</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="BQ11" s="31"/>
       <c r="BS11" s="30"/>
@@ -3126,8 +3126,8 @@
       </c>
       <c r="BJ12" s="32"/>
       <c r="BK12" s="31">
-        <f>204-BK11</f>
-        <v>29.199999999999989</v>
+        <f>202-BK11</f>
+        <v>31.400000000000006</v>
       </c>
       <c r="BL12" s="31"/>
       <c r="BN12" s="32" t="s">
@@ -3135,8 +3135,8 @@
       </c>
       <c r="BO12" s="32"/>
       <c r="BP12" s="31">
-        <f>100-BP11</f>
-        <v>-33</v>
+        <f>130-BP11</f>
+        <v>1.1999999999999886</v>
       </c>
       <c r="BQ12" s="31"/>
       <c r="BS12" s="32"/>
@@ -3281,7 +3281,7 @@
         <v>143</v>
       </c>
       <c r="BO16" s="20">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="14:44" x14ac:dyDescent="0.3">
@@ -3472,21 +3472,56 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3502,56 +3537,21 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3586,7 +3586,7 @@
       <c r="B1" s="18"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0103 12:45</v>
+        <v>0105 17:22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0103 12:45</v>
+        <v>0105 17:22</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5528,17 +5528,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0. 기타 폴더/생계부.xlsx
+++ b/0. 기타 폴더/생계부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JinYeong_GitHub\0. 기타 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2A9BF-24F2-4A4D-AB23-7F0731A550F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF57951-B1A8-4728-8B2A-3D331A456373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(신)지출 목록" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="147">
   <si>
     <t>보증금</t>
   </si>
@@ -581,6 +581,10 @@
   </si>
   <si>
     <t>민구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리비 &amp; 공과금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1202,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BX22" sqref="BX22"/>
+      <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1880,10 +1884,10 @@
         <v>32.799999999999997</v>
       </c>
       <c r="BI4" s="22" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="BJ4" s="23">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="BK4" s="22" t="s">
         <v>75</v>
@@ -2050,10 +2054,10 @@
         <v>6.8</v>
       </c>
       <c r="BI5" s="22" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="BJ5" s="23">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="BK5" s="22" t="s">
         <v>76</v>
@@ -2217,12 +2221,8 @@
       <c r="BG6" s="23">
         <v>6</v>
       </c>
-      <c r="BI6" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ6" s="23">
-        <v>8</v>
-      </c>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="23"/>
       <c r="BK6" s="22" t="s">
         <v>77</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="BJ10" s="23">
         <f>SUM(BJ3:BJ9)</f>
-        <v>76.8</v>
+        <v>71.8</v>
       </c>
       <c r="BK10" s="24" t="s">
         <v>83</v>
@@ -2991,7 +2991,7 @@
       <c r="BJ11" s="30"/>
       <c r="BK11" s="31">
         <f>SUM(BL10,BJ10)</f>
-        <v>170.6</v>
+        <v>165.6</v>
       </c>
       <c r="BL11" s="31"/>
       <c r="BN11" s="30" t="s">
@@ -3127,7 +3127,7 @@
       <c r="BJ12" s="32"/>
       <c r="BK12" s="31">
         <f>202-BK11</f>
-        <v>31.400000000000006</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="BL12" s="31"/>
       <c r="BN12" s="32" t="s">
@@ -3472,56 +3472,21 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BK11:BL11"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD11:BE11"/>
-    <mergeCell ref="BF11:BG11"/>
-    <mergeCell ref="BD12:BE12"/>
-    <mergeCell ref="BF12:BG12"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BX11:BY11"/>
+    <mergeCell ref="BZ11:CA11"/>
+    <mergeCell ref="BX12:BY12"/>
+    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BN11:BO11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="BN12:BO12"/>
+    <mergeCell ref="BP12:BQ12"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
@@ -3537,21 +3502,56 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="BN11:BO11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="BN12:BO12"/>
-    <mergeCell ref="BP12:BQ12"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BX11:BY11"/>
-    <mergeCell ref="BZ11:CA11"/>
-    <mergeCell ref="BX12:BY12"/>
-    <mergeCell ref="BZ12:CA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD11:BE11"/>
+    <mergeCell ref="BF11:BG11"/>
+    <mergeCell ref="BD12:BE12"/>
+    <mergeCell ref="BF12:BG12"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BK11:BL11"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BK12:BL12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3586,7 +3586,7 @@
       <c r="B1" s="18"/>
       <c r="G1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0105 17:22</v>
+        <v>0106 17:36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
       <c r="D1" s="3"/>
       <c r="F1" t="str">
         <f ca="1">TEXT(NOW(),"MMDD H:MM")</f>
-        <v>0105 17:22</v>
+        <v>0106 17:36</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5528,17 +5528,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
